--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -31,16 +31,22 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
+    <t>&lt;-YES&gt;</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>&lt;YES-&gt;</t>
+  </si>
+  <si>
+    <t>Find the maximum and minimum element in an array</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Reverse the array</t>
-  </si>
-  <si>
-    <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
@@ -1421,8 +1427,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1467,7 +1473,7 @@
     <font>
       <u/>
       <sz val="16"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1475,7 +1481,7 @@
     <font>
       <u/>
       <sz val="16"/>
-      <color rgb="FF800080"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1497,28 +1503,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1532,18 +1516,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1563,14 +1593,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1579,30 +1609,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1616,24 +1638,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,7 +1654,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,13 +1708,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,25 +1786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,31 +1798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,19 +1816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,67 +1834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,28 +1848,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1902,25 +1906,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1942,146 +1948,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2090,7 +2096,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2101,13 +2107,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2119,12 +2125,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -2431,8 +2437,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2476,515 +2482,515 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="21" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="21" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>10</v>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="21" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="21" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" ht="21" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>13</v>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="21" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>14</v>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="21" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>15</v>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>16</v>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>17</v>
+      <c r="B16" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>18</v>
+      <c r="B17" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" ht="21" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>19</v>
+      <c r="B18" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="21" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>20</v>
+      <c r="B19" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>21</v>
+      <c r="B20" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>22</v>
+      <c r="B21" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>23</v>
+      <c r="B22" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>24</v>
+      <c r="B23" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>25</v>
+      <c r="B24" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>26</v>
+      <c r="B25" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>27</v>
+      <c r="B26" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>28</v>
+      <c r="B27" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>29</v>
+      <c r="B28" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>30</v>
+      <c r="B29" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>31</v>
+      <c r="B30" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>32</v>
+      <c r="B31" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>33</v>
+      <c r="B32" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>34</v>
+      <c r="B33" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>35</v>
+      <c r="B34" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>36</v>
+      <c r="B35" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>37</v>
+      <c r="B36" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>38</v>
+      <c r="B37" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>39</v>
+      <c r="B38" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>40</v>
+      <c r="B39" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>41</v>
+      <c r="B40" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>42</v>
+      <c r="B41" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
       <c r="A44" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
       <c r="A45" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="B45" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="C45" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
       <c r="A46" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
       <c r="A47" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
       <c r="A48" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
       <c r="A49" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
       <c r="A50" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
       <c r="A51" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
       <c r="A52" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
       <c r="A53" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
@@ -2994,475 +3000,475 @@
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
       <c r="A57" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="B57" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="C57" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
       <c r="A58" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
       <c r="A59" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
       <c r="A61" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
       <c r="A62" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
       <c r="A63" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
       <c r="A64" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
       <c r="A67" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
       <c r="A68" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
       <c r="A72" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
       <c r="A73" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
       <c r="A74" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
       <c r="A75" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>77</v>
+        <v>56</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
       <c r="A79" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
       <c r="A80" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
       <c r="A81" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
       <c r="A82" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>81</v>
+        <v>56</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
       <c r="A83" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>82</v>
+        <v>56</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
       <c r="A84" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
       <c r="A85" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
       <c r="A86" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
       <c r="A87" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
       <c r="A88" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>87</v>
+        <v>56</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
       <c r="A89" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>88</v>
+        <v>56</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
       <c r="A90" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>89</v>
+        <v>56</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
       <c r="A91" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>90</v>
+        <v>56</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
       <c r="A92" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>91</v>
+        <v>56</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
       <c r="A93" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
       <c r="A94" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>93</v>
+        <v>56</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
       <c r="A95" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>94</v>
+        <v>56</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>95</v>
+        <v>56</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
       <c r="A97" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>96</v>
+        <v>56</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
       <c r="A98" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>97</v>
+        <v>56</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
@@ -3472,398 +3478,398 @@
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
       <c r="A102" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="B102" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="C102" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
       <c r="A103" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
       <c r="A104" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
       <c r="A105" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
       <c r="A107" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
       <c r="A111" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
       <c r="A112" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
       <c r="A113" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
       <c r="A115" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
       <c r="A116" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
       <c r="A117" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
       <c r="A118" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>116</v>
+        <v>100</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
       <c r="A119" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
       <c r="A121" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>120</v>
+        <v>100</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
       <c r="A123" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>121</v>
+        <v>100</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
       <c r="A124" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>122</v>
+        <v>100</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
       <c r="A125" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>123</v>
+        <v>100</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
       <c r="A126" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>124</v>
+        <v>100</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
       <c r="A127" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>125</v>
+        <v>100</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
       <c r="A128" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>126</v>
+        <v>100</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
       <c r="A129" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>127</v>
+        <v>100</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
       <c r="A130" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>128</v>
+        <v>100</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
       <c r="A131" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>129</v>
+        <v>100</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>130</v>
+        <v>100</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>131</v>
+        <v>100</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
       <c r="A134" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>132</v>
+        <v>100</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
       <c r="A135" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>133</v>
+        <v>100</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>134</v>
+        <v>100</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
@@ -3872,398 +3878,398 @@
     </row>
     <row r="139" ht="21" spans="1:3">
       <c r="A139" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
       <c r="A140" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B140" s="7" t="s">
         <v>137</v>
       </c>
+      <c r="B140" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="C140" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
       <c r="A141" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
       <c r="A142" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
       <c r="A143" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
       <c r="A144" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
       <c r="A145" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
       <c r="A146" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
       <c r="A147" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
       <c r="A148" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
       <c r="A149" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
       <c r="A150" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
       <c r="A151" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
       <c r="A152" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
       <c r="A153" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
       <c r="A154" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
       <c r="A155" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
       <c r="A156" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
       <c r="A157" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
       <c r="A158" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
       <c r="A159" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
       <c r="A160" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
       <c r="A161" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
       <c r="A162" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
       <c r="A163" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
       <c r="A164" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
       <c r="A165" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
       <c r="A166" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>163</v>
+        <v>137</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
       <c r="A167" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>164</v>
+        <v>137</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
       <c r="A168" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>165</v>
+        <v>137</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
       <c r="A169" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>166</v>
+        <v>137</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
       <c r="A170" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
       <c r="A171" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>168</v>
+        <v>137</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
       <c r="A172" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>169</v>
+        <v>137</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
       <c r="A173" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>170</v>
+        <v>137</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
       <c r="A174" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>171</v>
+        <v>137</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
@@ -4272,387 +4278,387 @@
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
       <c r="A178" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B178" s="7" t="s">
         <v>174</v>
       </c>
+      <c r="B178" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="C178" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
       <c r="A179" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
       <c r="A180" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
       <c r="A181" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" ht="21" spans="1:3">
       <c r="A182" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" ht="21" spans="1:3">
       <c r="A183" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
       <c r="A184" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">
       <c r="A185" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
       <c r="A186" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
       <c r="A187" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">
       <c r="A188" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" ht="21" spans="1:3">
       <c r="A189" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" ht="21" spans="1:3">
       <c r="A190" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">
       <c r="A191" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" ht="21" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" ht="21" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>192</v>
+        <v>174</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" ht="21" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
       <c r="A198" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
       <c r="A199" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>196</v>
+        <v>174</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
       <c r="A201" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
       <c r="A202" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
       <c r="A206" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>202</v>
+        <v>174</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
       <c r="A207" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>203</v>
+        <v>174</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
       <c r="A208" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>204</v>
+        <v>174</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
       <c r="A209" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>205</v>
+        <v>174</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
       <c r="A210" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>206</v>
+        <v>174</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
       <c r="A211" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
@@ -4667,244 +4673,244 @@
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B214" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B215" s="7" t="s">
         <v>210</v>
       </c>
+      <c r="B215" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="C215" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
       <c r="A220" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
       <c r="A222" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
       <c r="A224" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
       <c r="A225" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
       <c r="A226" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
       <c r="A227" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
       <c r="A228" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>223</v>
+        <v>210</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
       <c r="A229" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>225</v>
+        <v>210</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>226</v>
+        <v>210</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
       <c r="A232" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
       <c r="A233" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>228</v>
+        <v>210</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
       <c r="A234" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>229</v>
+        <v>210</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
       <c r="A235" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
@@ -4917,387 +4923,387 @@
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
       <c r="A239" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B239" s="7" t="s">
         <v>233</v>
       </c>
+      <c r="B239" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="C239" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
       <c r="A240" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
       <c r="A241" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
       <c r="A242" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="243" ht="21" spans="1:3">
       <c r="A243" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
       <c r="A244" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
       <c r="A245" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
       <c r="A246" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
       <c r="A247" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
       <c r="A248" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
       <c r="A250" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
       <c r="A251" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>246</v>
+        <v>233</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
       <c r="A252" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
       <c r="A253" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>248</v>
+        <v>233</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
       <c r="A254" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
       <c r="A255" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>250</v>
+        <v>233</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
       <c r="A256" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>251</v>
+        <v>233</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>252</v>
+        <v>233</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
       <c r="A258" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B258" s="7" t="s">
-        <v>253</v>
+        <v>233</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
       <c r="A259" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B259" s="7" t="s">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
       <c r="A260" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>255</v>
+        <v>233</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
       <c r="A261" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>256</v>
+        <v>233</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
       <c r="A262" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>257</v>
+        <v>233</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
       <c r="A263" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
       <c r="A264" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B264" s="7" t="s">
-        <v>259</v>
+        <v>233</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
       <c r="A265" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
       <c r="A266" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B266" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B267" s="7" t="s">
-        <v>262</v>
+        <v>233</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>263</v>
+        <v>233</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
       <c r="A269" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
       <c r="A270" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>265</v>
+        <v>233</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
       <c r="A271" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>88</v>
+        <v>233</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
       <c r="A272" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
@@ -5310,211 +5316,211 @@
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B275" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
       <c r="A276" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B276" s="7" t="s">
         <v>269</v>
       </c>
+      <c r="B276" s="8" t="s">
+        <v>271</v>
+      </c>
       <c r="C276" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
       <c r="A277" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
       <c r="A278" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B278" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
       <c r="A279" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B279" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
       <c r="A280" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B280" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
       <c r="A281" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
       <c r="A282" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B282" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
       <c r="A283" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B283" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
       <c r="A284" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B284" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
       <c r="A285" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B285" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
       <c r="A286" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B286" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
       <c r="A287" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B287" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
       <c r="A288" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B288" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
       <c r="A289" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B289" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
       <c r="A290" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B290" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
       <c r="A291" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B291" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
       <c r="A292" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B292" s="7" t="s">
-        <v>285</v>
+        <v>269</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
       <c r="A293" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B293" s="7" t="s">
-        <v>286</v>
+        <v>269</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
@@ -5527,420 +5533,420 @@
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B296" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
       <c r="A297" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B297" s="7" t="s">
         <v>289</v>
       </c>
+      <c r="B297" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="C297" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
       <c r="A298" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B298" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
       <c r="A299" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B299" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
       <c r="A300" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B300" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
       <c r="A301" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B301" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
       <c r="A302" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B302" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
       <c r="A303" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B303" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
       <c r="A304" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B304" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
       <c r="A305" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B305" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
       <c r="A306" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B306" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
       <c r="A307" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B307" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
       <c r="A308" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B308" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
       <c r="A309" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
       <c r="A310" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B310" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
       <c r="A311" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B311" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
       <c r="A312" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B312" s="7" t="s">
-        <v>304</v>
+        <v>289</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
       <c r="A313" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B313" s="7" t="s">
-        <v>305</v>
+        <v>289</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
       <c r="A314" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B314" s="7" t="s">
-        <v>306</v>
+        <v>289</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
       <c r="A315" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B315" s="7" t="s">
-        <v>307</v>
+        <v>289</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
       <c r="A316" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B316" s="7" t="s">
-        <v>308</v>
+        <v>289</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
       <c r="A317" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B317" s="7" t="s">
-        <v>309</v>
+        <v>289</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
       <c r="A318" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B318" s="7" t="s">
-        <v>310</v>
+        <v>289</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
       <c r="A319" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B319" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
       <c r="A320" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B320" s="7" t="s">
-        <v>312</v>
+        <v>289</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
       <c r="A321" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B321" s="7" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
       <c r="A322" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B322" s="7" t="s">
-        <v>314</v>
+        <v>289</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
       <c r="A323" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B323" s="7" t="s">
-        <v>315</v>
+        <v>289</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
       <c r="A324" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B324" s="7" t="s">
-        <v>316</v>
+        <v>289</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
       <c r="A325" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B325" s="7" t="s">
-        <v>317</v>
+        <v>289</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
       <c r="A326" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B326" s="7" t="s">
-        <v>318</v>
+        <v>289</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
       <c r="A327" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B327" s="7" t="s">
-        <v>319</v>
+        <v>289</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
       <c r="A328" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B328" s="7" t="s">
-        <v>320</v>
+        <v>289</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
       <c r="A329" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B329" s="7" t="s">
-        <v>321</v>
+        <v>289</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
       <c r="A330" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B330" s="7" t="s">
-        <v>322</v>
+        <v>289</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
       <c r="A331" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B331" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
       <c r="A332" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B332" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
       <c r="A333" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B333" s="7" t="s">
-        <v>325</v>
+        <v>289</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
@@ -5953,200 +5959,200 @@
     </row>
     <row r="336" ht="21" spans="1:3">
       <c r="A336" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B336" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
       <c r="A337" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B337" s="7" t="s">
         <v>328</v>
       </c>
+      <c r="B337" s="8" t="s">
+        <v>330</v>
+      </c>
       <c r="C337" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
       <c r="A338" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B338" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
       <c r="A339" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B339" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
       <c r="A340" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B340" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>333</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
       <c r="A341" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B341" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
       <c r="A342" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B342" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>335</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
       <c r="A343" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B343" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
       <c r="A344" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
       <c r="A345" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B345" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
       <c r="A346" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B346" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>339</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
       <c r="A347" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B347" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
       <c r="A348" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B348" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>341</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
       <c r="A349" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B349" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>342</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
       <c r="A350" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B350" s="7" t="s">
-        <v>341</v>
+        <v>328</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
       <c r="A351" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B351" s="7" t="s">
-        <v>342</v>
+        <v>328</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
       <c r="A352" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B352" s="7" t="s">
-        <v>343</v>
+        <v>328</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
       <c r="A353" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B353" s="7" t="s">
-        <v>344</v>
+        <v>328</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
@@ -6159,486 +6165,486 @@
     </row>
     <row r="356" ht="21" spans="1:3">
       <c r="A356" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B356" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
       <c r="A357" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B357" s="7" t="s">
         <v>347</v>
       </c>
+      <c r="B357" s="8" t="s">
+        <v>349</v>
+      </c>
       <c r="C357" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
       <c r="A358" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B358" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
       <c r="A359" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B359" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
       <c r="A360" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B360" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
+      </c>
+      <c r="B360" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
       <c r="A361" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B361" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
       <c r="A362" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B362" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
       <c r="A363" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B363" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>355</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
       <c r="A364" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B364" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
       <c r="A365" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B365" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
       <c r="A366" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B366" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
       <c r="A367" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B367" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
       <c r="A368" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B368" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>360</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
       <c r="A369" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B369" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>361</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
       <c r="A370" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B370" s="7" t="s">
-        <v>360</v>
+        <v>347</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
       <c r="A371" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B371" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
       <c r="A372" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B372" s="7" t="s">
-        <v>362</v>
+        <v>347</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
       <c r="A373" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B373" s="7" t="s">
-        <v>363</v>
+        <v>347</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>365</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
       <c r="A374" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B374" s="7" t="s">
-        <v>364</v>
+        <v>347</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
       <c r="A375" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B375" s="7" t="s">
-        <v>365</v>
+        <v>347</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
       <c r="A376" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B376" s="7" t="s">
-        <v>366</v>
+        <v>347</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
       <c r="A377" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B377" s="7" t="s">
-        <v>367</v>
+        <v>347</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
       <c r="A378" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B378" s="7" t="s">
-        <v>368</v>
+        <v>347</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
       <c r="A379" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B379" s="7" t="s">
-        <v>369</v>
+        <v>347</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
       <c r="A380" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B380" s="7" t="s">
-        <v>370</v>
+        <v>347</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>372</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
       <c r="A381" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B381" s="7" t="s">
-        <v>371</v>
+        <v>347</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
       <c r="A382" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B382" s="7" t="s">
-        <v>372</v>
+        <v>347</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>374</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
       <c r="A383" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B383" s="7" t="s">
-        <v>373</v>
+        <v>347</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
       <c r="A384" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B384" s="7" t="s">
-        <v>374</v>
+        <v>347</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>376</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
       <c r="A385" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B385" s="7" t="s">
-        <v>375</v>
+        <v>347</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
       <c r="A386" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B386" s="7" t="s">
-        <v>376</v>
+        <v>347</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>378</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
       <c r="A387" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B387" s="7" t="s">
-        <v>377</v>
+        <v>347</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>379</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
       <c r="A388" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B388" s="7" t="s">
-        <v>378</v>
+        <v>347</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>380</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
       <c r="A389" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B389" s="7" t="s">
-        <v>379</v>
+        <v>347</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
       <c r="A390" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B390" s="7" t="s">
-        <v>379</v>
+        <v>347</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
       <c r="A391" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B391" s="7" t="s">
-        <v>380</v>
+        <v>347</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
       <c r="A392" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B392" s="7" t="s">
-        <v>381</v>
+        <v>347</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
       <c r="A393" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B393" s="7" t="s">
-        <v>382</v>
+        <v>347</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>384</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
       <c r="A394" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B394" s="7" t="s">
-        <v>383</v>
+        <v>347</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>385</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
       <c r="A395" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B395" s="7" t="s">
-        <v>384</v>
+        <v>347</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
       <c r="A396" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B396" s="7" t="s">
-        <v>385</v>
+        <v>347</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
       <c r="A397" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B397" s="7" t="s">
-        <v>386</v>
+        <v>347</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
       <c r="A398" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B398" s="7" t="s">
-        <v>387</v>
+        <v>347</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
       <c r="A399" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B399" s="7" t="s">
-        <v>388</v>
+        <v>347</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>390</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
@@ -6651,68 +6657,68 @@
     </row>
     <row r="402" ht="21" spans="1:3">
       <c r="A402" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B402" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
+      </c>
+      <c r="B402" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
       <c r="A403" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B403" s="7" t="s">
         <v>391</v>
       </c>
+      <c r="B403" s="8" t="s">
+        <v>393</v>
+      </c>
       <c r="C403" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
       <c r="A404" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B404" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
       <c r="A405" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B405" s="7" t="s">
-        <v>90</v>
+        <v>391</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
       <c r="A406" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B406" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
       <c r="A407" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B407" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>396</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
@@ -6725,662 +6731,662 @@
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B410" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="B410" s="8" t="s">
+        <v>398</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="411" ht="21" spans="1:3">
       <c r="A411" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B411" s="7" t="s">
         <v>397</v>
       </c>
+      <c r="B411" s="8" t="s">
+        <v>399</v>
+      </c>
       <c r="C411" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412" ht="21" spans="1:3">
       <c r="A412" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B412" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413" ht="21" spans="1:3">
       <c r="A413" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B413" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>401</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414" ht="21" spans="1:3">
       <c r="A414" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B414" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="415" ht="21" spans="1:3">
       <c r="A415" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B415" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
+      </c>
+      <c r="B415" s="8" t="s">
+        <v>403</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416" ht="21" spans="1:3">
       <c r="A416" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B416" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
+      </c>
+      <c r="B416" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" ht="21" spans="1:3">
       <c r="A417" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B417" s="7" t="s">
-        <v>275</v>
+        <v>397</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
       <c r="A418" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B418" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
+      </c>
+      <c r="B418" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
       <c r="A419" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B419" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
+      </c>
+      <c r="B419" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
       <c r="A420" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B420" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
+      </c>
+      <c r="B420" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
       <c r="A421" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B421" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
       <c r="A422" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B422" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
+      </c>
+      <c r="B422" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
       <c r="A423" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B423" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
       <c r="A424" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B424" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
+      </c>
+      <c r="B424" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
       <c r="A425" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B425" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
       <c r="A426" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B426" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
+      </c>
+      <c r="B426" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
       <c r="A427" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B427" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
       <c r="A428" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B428" s="7" t="s">
-        <v>413</v>
+        <v>397</v>
+      </c>
+      <c r="B428" s="8" t="s">
+        <v>415</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
       <c r="A429" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B429" s="7" t="s">
-        <v>414</v>
+        <v>397</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
       <c r="A430" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B430" s="7" t="s">
-        <v>415</v>
+        <v>397</v>
+      </c>
+      <c r="B430" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
       <c r="A431" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B431" s="7" t="s">
-        <v>416</v>
+        <v>397</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
       <c r="A432" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B432" s="7" t="s">
-        <v>417</v>
+        <v>397</v>
+      </c>
+      <c r="B432" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
       <c r="A433" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B433" s="7" t="s">
-        <v>418</v>
+        <v>397</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
       <c r="A434" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B434" s="7" t="s">
-        <v>419</v>
+        <v>397</v>
+      </c>
+      <c r="B434" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
       <c r="A435" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B435" s="7" t="s">
-        <v>420</v>
+        <v>397</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
       <c r="A436" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B436" s="7" t="s">
-        <v>421</v>
+        <v>397</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>423</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
       <c r="A437" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B437" s="7" t="s">
-        <v>422</v>
+        <v>397</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>424</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
       <c r="A438" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B438" s="7" t="s">
-        <v>423</v>
+        <v>397</v>
+      </c>
+      <c r="B438" s="8" t="s">
+        <v>425</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
       <c r="A439" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B439" s="7" t="s">
-        <v>424</v>
+        <v>397</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>426</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
       <c r="A440" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B440" s="7" t="s">
-        <v>425</v>
+        <v>397</v>
+      </c>
+      <c r="B440" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
       <c r="A441" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B441" s="7" t="s">
-        <v>426</v>
+        <v>397</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>428</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
       <c r="A442" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B442" s="7" t="s">
-        <v>427</v>
+        <v>397</v>
+      </c>
+      <c r="B442" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
       <c r="A443" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B443" s="7" t="s">
-        <v>428</v>
+        <v>397</v>
+      </c>
+      <c r="B443" s="8" t="s">
+        <v>430</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
       <c r="A444" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B444" s="7" t="s">
-        <v>429</v>
+        <v>397</v>
+      </c>
+      <c r="B444" s="8" t="s">
+        <v>431</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
       <c r="A445" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B445" s="7" t="s">
-        <v>430</v>
+        <v>397</v>
+      </c>
+      <c r="B445" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
       <c r="A446" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B446" s="7" t="s">
-        <v>431</v>
+        <v>397</v>
+      </c>
+      <c r="B446" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
       <c r="A447" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B447" s="7" t="s">
-        <v>432</v>
+        <v>397</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>434</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
       <c r="A448" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B448" s="7" t="s">
-        <v>433</v>
+        <v>397</v>
+      </c>
+      <c r="B448" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
       <c r="A449" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B449" s="7" t="s">
-        <v>434</v>
+        <v>397</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>436</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
       <c r="A450" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B450" s="7" t="s">
-        <v>435</v>
+        <v>397</v>
+      </c>
+      <c r="B450" s="8" t="s">
+        <v>437</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
       <c r="A451" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B451" s="7" t="s">
-        <v>436</v>
+        <v>397</v>
+      </c>
+      <c r="B451" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
       <c r="A452" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B452" s="7" t="s">
-        <v>437</v>
+        <v>397</v>
+      </c>
+      <c r="B452" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
       <c r="A453" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B453" s="7" t="s">
-        <v>438</v>
+        <v>397</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
       <c r="A454" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B454" s="7" t="s">
-        <v>439</v>
+        <v>397</v>
+      </c>
+      <c r="B454" s="8" t="s">
+        <v>441</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
       <c r="A455" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B455" s="7" t="s">
-        <v>440</v>
+        <v>397</v>
+      </c>
+      <c r="B455" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
       <c r="A456" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B456" s="7" t="s">
-        <v>441</v>
+        <v>397</v>
+      </c>
+      <c r="B456" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
       <c r="A457" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B457" s="7" t="s">
-        <v>442</v>
+        <v>397</v>
+      </c>
+      <c r="B457" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
       <c r="A458" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B458" s="7" t="s">
-        <v>443</v>
+        <v>397</v>
+      </c>
+      <c r="B458" s="8" t="s">
+        <v>445</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
       <c r="A459" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B459" s="7" t="s">
-        <v>444</v>
+        <v>397</v>
+      </c>
+      <c r="B459" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
       <c r="A460" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B460" s="7" t="s">
-        <v>445</v>
+        <v>397</v>
+      </c>
+      <c r="B460" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
       <c r="A461" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B461" s="7" t="s">
-        <v>446</v>
+        <v>397</v>
+      </c>
+      <c r="B461" s="8" t="s">
+        <v>448</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
       <c r="A462" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B462" s="7" t="s">
-        <v>447</v>
+        <v>397</v>
+      </c>
+      <c r="B462" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
       <c r="A463" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B463" s="7" t="s">
-        <v>448</v>
+        <v>397</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>450</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
       <c r="A464" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B464" s="7" t="s">
-        <v>449</v>
+        <v>397</v>
+      </c>
+      <c r="B464" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
       <c r="A465" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B465" s="7" t="s">
-        <v>450</v>
+        <v>397</v>
+      </c>
+      <c r="B465" s="8" t="s">
+        <v>452</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
       <c r="A466" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B466" s="7" t="s">
-        <v>451</v>
+        <v>397</v>
+      </c>
+      <c r="B466" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
       <c r="A467" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B467" s="7" t="s">
-        <v>452</v>
+        <v>397</v>
+      </c>
+      <c r="B467" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
       <c r="A468" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B468" s="7" t="s">
-        <v>453</v>
+        <v>397</v>
+      </c>
+      <c r="B468" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
       <c r="A469" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B469" s="7" t="s">
-        <v>454</v>
+        <v>397</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
@@ -7394,112 +7400,112 @@
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B472" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
+      </c>
+      <c r="B472" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
       <c r="A473" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B473" s="7" t="s">
         <v>457</v>
       </c>
+      <c r="B473" s="8" t="s">
+        <v>459</v>
+      </c>
       <c r="C473" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
       <c r="A474" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B474" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
+      </c>
+      <c r="B474" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
       <c r="A475" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B475" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>461</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
       <c r="A476" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B476" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
+      </c>
+      <c r="B476" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
       <c r="A477" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B477" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
       <c r="A478" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B478" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
+      </c>
+      <c r="B478" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
       <c r="A479" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B479" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
+      </c>
+      <c r="B479" s="8" t="s">
+        <v>465</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
       <c r="A480" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B480" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
+      </c>
+      <c r="B480" s="8" t="s">
+        <v>466</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
       <c r="A481" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B481" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>467</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -31,22 +31,22 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
+    <t>&lt;-&gt;</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>&lt;YES-&gt;</t>
+  </si>
+  <si>
+    <t>Find the maximum and minimum element in an array</t>
+  </si>
+  <si>
     <t>&lt;-YES&gt;</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Reverse the array</t>
-  </si>
-  <si>
-    <t>&lt;YES-&gt;</t>
-  </si>
-  <si>
-    <t>Find the maximum and minimum element in an array</t>
-  </si>
-  <si>
-    <t>&lt;-&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
@@ -1425,10 +1425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1503,7 +1503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1523,16 +1523,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,26 +1569,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1579,16 +1587,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1596,14 +1597,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1618,6 +1611,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1654,7 +1654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,7 +1678,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,25 +1798,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,133 +1828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,6 +1845,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1868,39 +1892,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1945,16 +1936,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1967,127 +1967,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2438,7 +2438,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2500,7 +2500,7 @@
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2522,7 +2522,7 @@
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2537,7 +2537,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" ht="21" spans="1:3">
@@ -2548,7 +2548,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" ht="21" spans="1:3">
@@ -2559,7 +2559,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" ht="21" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:3">
@@ -2581,7 +2581,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:3">
@@ -2592,7 +2592,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:3">
@@ -2603,7 +2603,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" ht="21" spans="1:3">
@@ -2614,7 +2614,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" ht="21" spans="1:3">
@@ -2625,7 +2625,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
@@ -2647,7 +2647,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:3">
@@ -2658,7 +2658,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
@@ -2669,7 +2669,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
@@ -2680,7 +2680,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
@@ -2691,7 +2691,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
@@ -2702,7 +2702,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
@@ -2713,7 +2713,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
@@ -2724,7 +2724,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
@@ -2735,7 +2735,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
@@ -2746,7 +2746,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
@@ -2768,7 +2768,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
@@ -2790,7 +2790,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
@@ -2801,7 +2801,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
@@ -2812,7 +2812,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
@@ -2823,7 +2823,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
@@ -2834,7 +2834,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
@@ -2845,7 +2845,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
@@ -2856,7 +2856,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
@@ -2867,20 +2867,20 @@
         <v>44</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
@@ -2891,7 +2891,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
@@ -2902,7 +2902,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
@@ -2913,7 +2913,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
@@ -2924,7 +2924,7 @@
         <v>49</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
@@ -2935,7 +2935,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
@@ -2946,7 +2946,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
@@ -2957,7 +2957,7 @@
         <v>52</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
@@ -2968,7 +2968,7 @@
         <v>53</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
@@ -2979,7 +2979,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
@@ -3006,7 +3006,7 @@
         <v>57</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
@@ -3017,7 +3017,7 @@
         <v>58</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>59</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
@@ -3039,7 +3039,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
@@ -3050,7 +3050,7 @@
         <v>61</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
@@ -3061,7 +3061,7 @@
         <v>62</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
@@ -3072,7 +3072,7 @@
         <v>63</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
@@ -3083,7 +3083,7 @@
         <v>64</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
@@ -3094,7 +3094,7 @@
         <v>65</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
@@ -3105,7 +3105,7 @@
         <v>66</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
@@ -3116,7 +3116,7 @@
         <v>67</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
@@ -3127,7 +3127,7 @@
         <v>68</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
@@ -3138,7 +3138,7 @@
         <v>69</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>70</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
@@ -3160,7 +3160,7 @@
         <v>71</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
@@ -3171,7 +3171,7 @@
         <v>72</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
@@ -3182,7 +3182,7 @@
         <v>73</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
@@ -3193,7 +3193,7 @@
         <v>74</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
@@ -3204,7 +3204,7 @@
         <v>75</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
@@ -3215,7 +3215,7 @@
         <v>76</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
@@ -3226,7 +3226,7 @@
         <v>77</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>78</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
@@ -3248,7 +3248,7 @@
         <v>79</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
@@ -3270,7 +3270,7 @@
         <v>81</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
@@ -3281,7 +3281,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>83</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>84</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
@@ -3314,7 +3314,7 @@
         <v>85</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
@@ -3325,7 +3325,7 @@
         <v>86</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
@@ -3336,7 +3336,7 @@
         <v>87</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>88</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
@@ -3358,7 +3358,7 @@
         <v>89</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>90</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
@@ -3380,7 +3380,7 @@
         <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
@@ -3391,7 +3391,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
@@ -3402,7 +3402,7 @@
         <v>93</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
@@ -3413,7 +3413,7 @@
         <v>94</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
@@ -3424,7 +3424,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
@@ -3435,7 +3435,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>97</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
@@ -3457,7 +3457,7 @@
         <v>98</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>99</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
@@ -3484,7 +3484,7 @@
         <v>101</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
@@ -3495,7 +3495,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
@@ -3506,7 +3506,7 @@
         <v>103</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
@@ -3517,7 +3517,7 @@
         <v>104</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
@@ -3528,7 +3528,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
@@ -3539,7 +3539,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
@@ -3550,7 +3550,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
@@ -3561,7 +3561,7 @@
         <v>108</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
@@ -3572,7 +3572,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
@@ -3583,7 +3583,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
@@ -3594,7 +3594,7 @@
         <v>111</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
@@ -3605,7 +3605,7 @@
         <v>112</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
@@ -3616,7 +3616,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
@@ -3627,7 +3627,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
@@ -3638,7 +3638,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
@@ -3649,7 +3649,7 @@
         <v>116</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
@@ -3660,7 +3660,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
@@ -3671,7 +3671,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
@@ -3682,7 +3682,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
@@ -3693,7 +3693,7 @@
         <v>120</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
@@ -3704,7 +3704,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
@@ -3715,7 +3715,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
@@ -3726,7 +3726,7 @@
         <v>123</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
@@ -3737,7 +3737,7 @@
         <v>124</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
@@ -3748,7 +3748,7 @@
         <v>125</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
@@ -3759,7 +3759,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
@@ -3770,7 +3770,7 @@
         <v>127</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
@@ -3781,7 +3781,7 @@
         <v>128</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
@@ -3792,7 +3792,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
@@ -3803,7 +3803,7 @@
         <v>130</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
@@ -3814,7 +3814,7 @@
         <v>131</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
@@ -3825,7 +3825,7 @@
         <v>132</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
@@ -3836,7 +3836,7 @@
         <v>133</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
@@ -3847,7 +3847,7 @@
         <v>134</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
@@ -3858,7 +3858,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
@@ -3869,7 +3869,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
@@ -3884,7 +3884,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
@@ -3895,7 +3895,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
@@ -3906,7 +3906,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
@@ -3917,7 +3917,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
@@ -3928,7 +3928,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
@@ -3939,7 +3939,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
@@ -3950,7 +3950,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
@@ -3961,7 +3961,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
@@ -3983,7 +3983,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
@@ -4005,7 +4005,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
@@ -4016,7 +4016,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
@@ -4027,7 +4027,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
@@ -4038,7 +4038,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
@@ -4049,7 +4049,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
@@ -4060,7 +4060,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
@@ -4071,7 +4071,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
@@ -4093,7 +4093,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
@@ -4115,7 +4115,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
@@ -4126,7 +4126,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
@@ -4137,7 +4137,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
@@ -4148,7 +4148,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
@@ -4159,7 +4159,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
@@ -4170,7 +4170,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
@@ -4181,7 +4181,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
@@ -4192,7 +4192,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
@@ -4203,7 +4203,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
@@ -4214,7 +4214,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
@@ -4225,7 +4225,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
@@ -4236,7 +4236,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
@@ -4247,7 +4247,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
@@ -4258,7 +4258,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
@@ -4269,7 +4269,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
@@ -4284,7 +4284,7 @@
         <v>175</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
@@ -4295,7 +4295,7 @@
         <v>176</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
@@ -4306,7 +4306,7 @@
         <v>177</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
@@ -4317,7 +4317,7 @@
         <v>178</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
@@ -4328,7 +4328,7 @@
         <v>179</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" ht="21" spans="1:3">
@@ -4339,7 +4339,7 @@
         <v>180</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" ht="21" spans="1:3">
@@ -4350,7 +4350,7 @@
         <v>181</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
@@ -4361,7 +4361,7 @@
         <v>182</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">
@@ -4372,7 +4372,7 @@
         <v>183</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
@@ -4383,7 +4383,7 @@
         <v>184</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
@@ -4394,7 +4394,7 @@
         <v>185</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">
@@ -4405,7 +4405,7 @@
         <v>186</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" ht="21" spans="1:3">
@@ -4416,7 +4416,7 @@
         <v>187</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" ht="21" spans="1:3">
@@ -4427,7 +4427,7 @@
         <v>188</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">
@@ -4438,7 +4438,7 @@
         <v>189</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">
@@ -4449,7 +4449,7 @@
         <v>190</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
@@ -4460,7 +4460,7 @@
         <v>191</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
@@ -4471,7 +4471,7 @@
         <v>192</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" ht="21" spans="1:3">
@@ -4482,7 +4482,7 @@
         <v>193</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" ht="21" spans="1:3">
@@ -4493,7 +4493,7 @@
         <v>194</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" ht="21" spans="1:3">
@@ -4504,7 +4504,7 @@
         <v>195</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
@@ -4515,7 +4515,7 @@
         <v>196</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
@@ -4526,7 +4526,7 @@
         <v>197</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
@@ -4537,7 +4537,7 @@
         <v>198</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
@@ -4548,7 +4548,7 @@
         <v>199</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
@@ -4559,7 +4559,7 @@
         <v>200</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
@@ -4570,7 +4570,7 @@
         <v>201</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
@@ -4581,7 +4581,7 @@
         <v>202</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
@@ -4592,7 +4592,7 @@
         <v>203</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
@@ -4603,7 +4603,7 @@
         <v>204</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
@@ -4614,7 +4614,7 @@
         <v>205</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
@@ -4625,7 +4625,7 @@
         <v>206</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
@@ -4636,7 +4636,7 @@
         <v>207</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
@@ -4647,7 +4647,7 @@
         <v>208</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
@@ -4658,7 +4658,7 @@
         <v>209</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
@@ -4679,7 +4679,7 @@
         <v>211</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
@@ -4690,7 +4690,7 @@
         <v>212</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
@@ -4701,7 +4701,7 @@
         <v>213</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
@@ -4712,7 +4712,7 @@
         <v>214</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
@@ -4723,7 +4723,7 @@
         <v>215</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
@@ -4734,7 +4734,7 @@
         <v>216</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
@@ -4745,7 +4745,7 @@
         <v>217</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
@@ -4756,7 +4756,7 @@
         <v>218</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
@@ -4767,7 +4767,7 @@
         <v>219</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
@@ -4778,7 +4778,7 @@
         <v>220</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
@@ -4789,7 +4789,7 @@
         <v>221</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
@@ -4800,7 +4800,7 @@
         <v>222</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
@@ -4811,7 +4811,7 @@
         <v>223</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
@@ -4822,7 +4822,7 @@
         <v>224</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
@@ -4833,7 +4833,7 @@
         <v>225</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
@@ -4844,7 +4844,7 @@
         <v>226</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
@@ -4855,7 +4855,7 @@
         <v>227</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
@@ -4866,7 +4866,7 @@
         <v>228</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
@@ -4877,7 +4877,7 @@
         <v>229</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
@@ -4888,7 +4888,7 @@
         <v>230</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
@@ -4899,7 +4899,7 @@
         <v>231</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
@@ -4910,7 +4910,7 @@
         <v>232</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
@@ -4929,7 +4929,7 @@
         <v>234</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
@@ -4940,7 +4940,7 @@
         <v>235</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
@@ -4951,7 +4951,7 @@
         <v>236</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
@@ -4962,7 +4962,7 @@
         <v>237</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
@@ -4984,7 +4984,7 @@
         <v>240</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
@@ -4995,7 +4995,7 @@
         <v>241</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
@@ -5006,7 +5006,7 @@
         <v>242</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
@@ -5017,7 +5017,7 @@
         <v>243</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
@@ -5028,7 +5028,7 @@
         <v>244</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
@@ -5039,7 +5039,7 @@
         <v>245</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
@@ -5050,7 +5050,7 @@
         <v>246</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
@@ -5061,7 +5061,7 @@
         <v>247</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
@@ -5072,7 +5072,7 @@
         <v>248</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
@@ -5083,7 +5083,7 @@
         <v>249</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
@@ -5094,7 +5094,7 @@
         <v>250</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
@@ -5105,7 +5105,7 @@
         <v>251</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
@@ -5116,7 +5116,7 @@
         <v>252</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
@@ -5127,7 +5127,7 @@
         <v>253</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
@@ -5138,7 +5138,7 @@
         <v>254</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
@@ -5149,7 +5149,7 @@
         <v>255</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
@@ -5160,7 +5160,7 @@
         <v>256</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
@@ -5171,7 +5171,7 @@
         <v>257</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
@@ -5182,7 +5182,7 @@
         <v>258</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
@@ -5193,7 +5193,7 @@
         <v>259</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
@@ -5204,7 +5204,7 @@
         <v>260</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
@@ -5215,7 +5215,7 @@
         <v>261</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
@@ -5226,7 +5226,7 @@
         <v>262</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
@@ -5237,7 +5237,7 @@
         <v>263</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
@@ -5248,7 +5248,7 @@
         <v>264</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
@@ -5259,7 +5259,7 @@
         <v>265</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
@@ -5270,7 +5270,7 @@
         <v>266</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
@@ -5281,7 +5281,7 @@
         <v>267</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
@@ -5292,7 +5292,7 @@
         <v>90</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
@@ -5303,7 +5303,7 @@
         <v>268</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
@@ -5322,7 +5322,7 @@
         <v>270</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
@@ -5333,7 +5333,7 @@
         <v>271</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
@@ -5344,7 +5344,7 @@
         <v>272</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
@@ -5355,7 +5355,7 @@
         <v>273</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
@@ -5366,7 +5366,7 @@
         <v>274</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
@@ -5377,7 +5377,7 @@
         <v>275</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
@@ -5388,7 +5388,7 @@
         <v>276</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
@@ -5399,7 +5399,7 @@
         <v>277</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
@@ -5410,7 +5410,7 @@
         <v>278</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
@@ -5421,7 +5421,7 @@
         <v>279</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
@@ -5432,7 +5432,7 @@
         <v>280</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
@@ -5443,7 +5443,7 @@
         <v>281</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
@@ -5454,7 +5454,7 @@
         <v>282</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
@@ -5465,7 +5465,7 @@
         <v>283</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
@@ -5476,7 +5476,7 @@
         <v>284</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
@@ -5487,7 +5487,7 @@
         <v>285</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
@@ -5498,7 +5498,7 @@
         <v>286</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
@@ -5509,7 +5509,7 @@
         <v>287</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
@@ -5520,7 +5520,7 @@
         <v>288</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
@@ -5539,7 +5539,7 @@
         <v>290</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
@@ -5550,7 +5550,7 @@
         <v>291</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
@@ -5561,7 +5561,7 @@
         <v>292</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
@@ -5572,7 +5572,7 @@
         <v>293</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
@@ -5583,7 +5583,7 @@
         <v>294</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
@@ -5594,7 +5594,7 @@
         <v>295</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
@@ -5605,7 +5605,7 @@
         <v>296</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
@@ -5616,7 +5616,7 @@
         <v>297</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
@@ -5627,7 +5627,7 @@
         <v>298</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
@@ -5638,7 +5638,7 @@
         <v>299</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
@@ -5649,7 +5649,7 @@
         <v>300</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
@@ -5660,7 +5660,7 @@
         <v>301</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
@@ -5671,7 +5671,7 @@
         <v>302</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
@@ -5682,7 +5682,7 @@
         <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
@@ -5693,7 +5693,7 @@
         <v>304</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
@@ -5704,7 +5704,7 @@
         <v>305</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
@@ -5715,7 +5715,7 @@
         <v>306</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
@@ -5726,7 +5726,7 @@
         <v>307</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
@@ -5737,7 +5737,7 @@
         <v>308</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
@@ -5748,7 +5748,7 @@
         <v>309</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
@@ -5759,7 +5759,7 @@
         <v>310</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
@@ -5770,7 +5770,7 @@
         <v>311</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
@@ -5781,7 +5781,7 @@
         <v>312</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
@@ -5792,7 +5792,7 @@
         <v>313</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
@@ -5803,7 +5803,7 @@
         <v>314</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
@@ -5814,7 +5814,7 @@
         <v>315</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
@@ -5825,7 +5825,7 @@
         <v>316</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
@@ -5836,7 +5836,7 @@
         <v>317</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
@@ -5847,7 +5847,7 @@
         <v>318</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
@@ -5858,7 +5858,7 @@
         <v>319</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
@@ -5869,7 +5869,7 @@
         <v>320</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
@@ -5880,7 +5880,7 @@
         <v>321</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
@@ -5891,7 +5891,7 @@
         <v>322</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
@@ -5902,7 +5902,7 @@
         <v>323</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
@@ -5913,7 +5913,7 @@
         <v>324</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
@@ -5924,7 +5924,7 @@
         <v>325</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
@@ -5935,7 +5935,7 @@
         <v>326</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
@@ -5946,7 +5946,7 @@
         <v>327</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
@@ -5965,7 +5965,7 @@
         <v>329</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
@@ -5976,7 +5976,7 @@
         <v>330</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
@@ -5987,7 +5987,7 @@
         <v>331</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
@@ -5998,7 +5998,7 @@
         <v>332</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
@@ -6009,7 +6009,7 @@
         <v>333</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>334</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
@@ -6031,7 +6031,7 @@
         <v>335</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
@@ -6042,7 +6042,7 @@
         <v>336</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
@@ -6053,7 +6053,7 @@
         <v>337</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
@@ -6064,7 +6064,7 @@
         <v>338</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
@@ -6075,7 +6075,7 @@
         <v>339</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
@@ -6086,7 +6086,7 @@
         <v>340</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
@@ -6097,7 +6097,7 @@
         <v>341</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
@@ -6108,7 +6108,7 @@
         <v>342</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
@@ -6119,7 +6119,7 @@
         <v>343</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
@@ -6130,7 +6130,7 @@
         <v>344</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
@@ -6141,7 +6141,7 @@
         <v>345</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
@@ -6152,7 +6152,7 @@
         <v>346</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
@@ -6171,7 +6171,7 @@
         <v>348</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
@@ -6248,7 +6248,7 @@
         <v>355</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
@@ -6259,7 +6259,7 @@
         <v>356</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
@@ -6270,7 +6270,7 @@
         <v>357</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
@@ -6281,7 +6281,7 @@
         <v>358</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
@@ -6292,7 +6292,7 @@
         <v>359</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
@@ -6303,7 +6303,7 @@
         <v>360</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
@@ -6314,7 +6314,7 @@
         <v>361</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
@@ -6325,7 +6325,7 @@
         <v>362</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
@@ -6336,7 +6336,7 @@
         <v>363</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
@@ -6347,7 +6347,7 @@
         <v>364</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
@@ -6358,7 +6358,7 @@
         <v>365</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
@@ -6369,7 +6369,7 @@
         <v>366</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
@@ -6380,7 +6380,7 @@
         <v>367</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
@@ -6391,7 +6391,7 @@
         <v>368</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
@@ -6402,7 +6402,7 @@
         <v>369</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
@@ -6413,7 +6413,7 @@
         <v>370</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
@@ -6424,7 +6424,7 @@
         <v>371</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
@@ -6435,7 +6435,7 @@
         <v>372</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
@@ -6446,7 +6446,7 @@
         <v>373</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
@@ -6457,7 +6457,7 @@
         <v>374</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
@@ -6468,7 +6468,7 @@
         <v>375</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
@@ -6479,7 +6479,7 @@
         <v>376</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
@@ -6490,7 +6490,7 @@
         <v>377</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
@@ -6501,7 +6501,7 @@
         <v>378</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
@@ -6512,7 +6512,7 @@
         <v>379</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
@@ -6523,7 +6523,7 @@
         <v>380</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
@@ -6534,7 +6534,7 @@
         <v>381</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
@@ -6545,7 +6545,7 @@
         <v>381</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
@@ -6556,7 +6556,7 @@
         <v>382</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
@@ -6567,7 +6567,7 @@
         <v>383</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
@@ -6578,7 +6578,7 @@
         <v>384</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
@@ -6589,7 +6589,7 @@
         <v>385</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
@@ -6600,7 +6600,7 @@
         <v>386</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
@@ -6611,7 +6611,7 @@
         <v>387</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
@@ -6622,7 +6622,7 @@
         <v>388</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
@@ -6633,7 +6633,7 @@
         <v>389</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
@@ -6644,7 +6644,7 @@
         <v>390</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
@@ -6663,7 +6663,7 @@
         <v>392</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
@@ -6674,7 +6674,7 @@
         <v>393</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
@@ -6685,7 +6685,7 @@
         <v>394</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
@@ -6696,7 +6696,7 @@
         <v>92</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
@@ -6707,7 +6707,7 @@
         <v>395</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
@@ -6718,7 +6718,7 @@
         <v>396</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
@@ -6737,7 +6737,7 @@
         <v>398</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="411" ht="21" spans="1:3">
@@ -6748,7 +6748,7 @@
         <v>399</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="412" ht="21" spans="1:3">
@@ -6759,7 +6759,7 @@
         <v>400</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="413" ht="21" spans="1:3">
@@ -6770,7 +6770,7 @@
         <v>401</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="414" ht="21" spans="1:3">
@@ -6781,7 +6781,7 @@
         <v>402</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" ht="21" spans="1:3">
@@ -6792,7 +6792,7 @@
         <v>403</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" ht="21" spans="1:3">
@@ -6803,7 +6803,7 @@
         <v>404</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" ht="21" spans="1:3">
@@ -6814,7 +6814,7 @@
         <v>277</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
@@ -6825,7 +6825,7 @@
         <v>405</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
@@ -6836,7 +6836,7 @@
         <v>406</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
@@ -6847,7 +6847,7 @@
         <v>407</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
@@ -6858,7 +6858,7 @@
         <v>408</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
@@ -6869,7 +6869,7 @@
         <v>409</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
@@ -6880,7 +6880,7 @@
         <v>410</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
@@ -6891,7 +6891,7 @@
         <v>411</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
@@ -6902,7 +6902,7 @@
         <v>412</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
@@ -6913,7 +6913,7 @@
         <v>413</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
@@ -6924,7 +6924,7 @@
         <v>414</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
@@ -6935,7 +6935,7 @@
         <v>415</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
@@ -6946,7 +6946,7 @@
         <v>416</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
@@ -6957,7 +6957,7 @@
         <v>417</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
@@ -6968,7 +6968,7 @@
         <v>418</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
@@ -6979,7 +6979,7 @@
         <v>419</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
@@ -6990,7 +6990,7 @@
         <v>420</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
@@ -7001,7 +7001,7 @@
         <v>421</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
@@ -7012,7 +7012,7 @@
         <v>422</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
@@ -7023,7 +7023,7 @@
         <v>423</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
@@ -7034,7 +7034,7 @@
         <v>424</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
@@ -7045,7 +7045,7 @@
         <v>425</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
@@ -7056,7 +7056,7 @@
         <v>426</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
@@ -7067,7 +7067,7 @@
         <v>427</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
@@ -7078,7 +7078,7 @@
         <v>428</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
@@ -7089,7 +7089,7 @@
         <v>429</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
@@ -7100,7 +7100,7 @@
         <v>430</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
@@ -7111,7 +7111,7 @@
         <v>431</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
@@ -7122,7 +7122,7 @@
         <v>432</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
@@ -7133,7 +7133,7 @@
         <v>433</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
@@ -7144,7 +7144,7 @@
         <v>434</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
@@ -7155,7 +7155,7 @@
         <v>435</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
@@ -7166,7 +7166,7 @@
         <v>436</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
@@ -7177,7 +7177,7 @@
         <v>437</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
@@ -7188,7 +7188,7 @@
         <v>438</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
@@ -7199,7 +7199,7 @@
         <v>439</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
@@ -7210,7 +7210,7 @@
         <v>440</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
@@ -7221,7 +7221,7 @@
         <v>441</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
@@ -7232,7 +7232,7 @@
         <v>442</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
@@ -7243,7 +7243,7 @@
         <v>443</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
@@ -7254,7 +7254,7 @@
         <v>444</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
@@ -7265,7 +7265,7 @@
         <v>445</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
@@ -7276,7 +7276,7 @@
         <v>446</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
@@ -7287,7 +7287,7 @@
         <v>447</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
@@ -7298,7 +7298,7 @@
         <v>448</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
@@ -7309,7 +7309,7 @@
         <v>449</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
@@ -7320,7 +7320,7 @@
         <v>450</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
@@ -7331,7 +7331,7 @@
         <v>451</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
@@ -7342,7 +7342,7 @@
         <v>452</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
@@ -7353,7 +7353,7 @@
         <v>453</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
@@ -7364,7 +7364,7 @@
         <v>454</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
@@ -7375,7 +7375,7 @@
         <v>455</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
@@ -7386,7 +7386,7 @@
         <v>456</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
@@ -7406,7 +7406,7 @@
         <v>458</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
@@ -7417,7 +7417,7 @@
         <v>459</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
@@ -7428,7 +7428,7 @@
         <v>460</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
@@ -7439,7 +7439,7 @@
         <v>461</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
@@ -7450,7 +7450,7 @@
         <v>462</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
@@ -7461,7 +7461,7 @@
         <v>463</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
@@ -7472,7 +7472,7 @@
         <v>464</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
@@ -7483,7 +7483,7 @@
         <v>465</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
@@ -7494,7 +7494,7 @@
         <v>466</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
@@ -7505,7 +7505,7 @@
         <v>467</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1425,10 +1425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1503,16 +1503,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1523,10 +1531,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1546,16 +1555,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1594,15 +1602,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1617,14 +1617,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1632,7 +1632,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1654,19 +1654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,7 +1672,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,7 +1702,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,25 +1774,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,85 +1816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,13 +1828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,6 +1845,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1859,15 +1883,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1896,28 +1911,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,155 +1937,157 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2438,7 +2438,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2533,18 +2533,18 @@
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="21" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1426,9 +1426,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1502,25 +1502,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1531,11 +1517,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1555,25 +1561,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1586,7 +1585,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1608,6 +1607,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1617,14 +1631,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1633,13 +1640,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1654,7 +1654,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,7 +1762,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,37 +1804,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,121 +1834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,26 +1848,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1887,21 +1887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1916,6 +1901,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1948,146 +1948,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2438,7 +2438,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2548,7 +2548,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1425,9 +1425,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -1502,16 +1502,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1532,14 +1524,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1548,6 +1563,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1576,6 +1599,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1585,25 +1616,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1622,24 +1638,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1654,7 +1654,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,13 +1744,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,91 +1798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,19 +1816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,25 +1828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,6 +1845,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1872,35 +1922,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1919,175 +1945,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2438,7 +2438,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2555,18 +2555,18 @@
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="21" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1425,10 +1425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1503,21 +1503,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1530,16 +1524,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1553,32 +1554,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1624,7 +1602,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1644,6 +1637,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1654,7 +1654,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,13 +1792,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,157 +1828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,26 +1848,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1883,17 +1874,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1931,163 +1922,172 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2438,7 +2438,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2577,7 +2577,7 @@
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
   </si>
   <si>
     <t>find duplicate in an array of N+1 Integers</t>
@@ -1503,6 +1500,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1511,7 +1515,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1531,16 +1558,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1548,15 +1582,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,13 +1593,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1608,31 +1627,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1654,7 +1651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,7 +1675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,7 +1687,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,19 +1717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,25 +1735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,7 +1753,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,25 +1777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,31 +1801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1838,6 +1829,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1848,17 +1845,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1874,17 +1880,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1913,24 +1928,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1948,146 +1945,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2437,7 +2434,7 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2577,9 +2574,7 @@
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2589,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>5</v>
@@ -2600,7 +2595,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>5</v>
@@ -2611,7 +2606,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>5</v>
@@ -2622,7 +2617,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>5</v>
@@ -2633,7 +2628,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>5</v>
@@ -2644,7 +2639,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>5</v>
@@ -2655,7 +2650,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>5</v>
@@ -2666,7 +2661,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
@@ -2677,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
@@ -2688,7 +2683,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>5</v>
@@ -2699,7 +2694,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>5</v>
@@ -2710,7 +2705,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>5</v>
@@ -2721,7 +2716,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>5</v>
@@ -2732,7 +2727,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>5</v>
@@ -2743,7 +2738,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>5</v>
@@ -2754,7 +2749,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>5</v>
@@ -2765,7 +2760,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>5</v>
@@ -2776,7 +2771,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>5</v>
@@ -2787,7 +2782,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>5</v>
@@ -2798,7 +2793,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>5</v>
@@ -2809,7 +2804,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>5</v>
@@ -2820,7 +2815,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>5</v>
@@ -2831,7 +2826,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
@@ -2842,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>5</v>
@@ -2853,7 +2848,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>5</v>
@@ -2864,7 +2859,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
@@ -2885,10 +2880,10 @@
     </row>
     <row r="44" ht="21" spans="1:3">
       <c r="A44" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>5</v>
@@ -2896,10 +2891,10 @@
     </row>
     <row r="45" ht="21" spans="1:3">
       <c r="A45" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>5</v>
@@ -2907,10 +2902,10 @@
     </row>
     <row r="46" ht="21" spans="1:3">
       <c r="A46" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>5</v>
@@ -2918,10 +2913,10 @@
     </row>
     <row r="47" ht="21" spans="1:3">
       <c r="A47" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>5</v>
@@ -2929,10 +2924,10 @@
     </row>
     <row r="48" ht="21" spans="1:3">
       <c r="A48" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>5</v>
@@ -2940,10 +2935,10 @@
     </row>
     <row r="49" ht="21" spans="1:3">
       <c r="A49" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>5</v>
@@ -2951,10 +2946,10 @@
     </row>
     <row r="50" ht="21" spans="1:3">
       <c r="A50" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
@@ -2962,10 +2957,10 @@
     </row>
     <row r="51" ht="21" spans="1:3">
       <c r="A51" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>5</v>
@@ -2973,10 +2968,10 @@
     </row>
     <row r="52" ht="21" spans="1:3">
       <c r="A52" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>5</v>
@@ -2984,10 +2979,10 @@
     </row>
     <row r="53" ht="21" spans="1:3">
       <c r="A53" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>5</v>
@@ -3000,10 +2995,10 @@
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>5</v>
@@ -3011,10 +3006,10 @@
     </row>
     <row r="57" ht="21" spans="1:3">
       <c r="A57" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>5</v>
@@ -3022,10 +3017,10 @@
     </row>
     <row r="58" ht="21" spans="1:3">
       <c r="A58" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>5</v>
@@ -3033,10 +3028,10 @@
     </row>
     <row r="59" ht="21" spans="1:3">
       <c r="A59" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>5</v>
@@ -3044,10 +3039,10 @@
     </row>
     <row r="60" ht="21" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>5</v>
@@ -3055,10 +3050,10 @@
     </row>
     <row r="61" ht="21" spans="1:3">
       <c r="A61" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>5</v>
@@ -3066,10 +3061,10 @@
     </row>
     <row r="62" ht="21" spans="1:3">
       <c r="A62" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>5</v>
@@ -3077,10 +3072,10 @@
     </row>
     <row r="63" ht="21" spans="1:3">
       <c r="A63" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>5</v>
@@ -3088,10 +3083,10 @@
     </row>
     <row r="64" ht="21" spans="1:3">
       <c r="A64" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>5</v>
@@ -3099,10 +3094,10 @@
     </row>
     <row r="65" ht="21" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>5</v>
@@ -3110,10 +3105,10 @@
     </row>
     <row r="66" ht="21" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>5</v>
@@ -3121,10 +3116,10 @@
     </row>
     <row r="67" ht="21" spans="1:3">
       <c r="A67" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>5</v>
@@ -3132,10 +3127,10 @@
     </row>
     <row r="68" ht="21" spans="1:3">
       <c r="A68" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>5</v>
@@ -3143,10 +3138,10 @@
     </row>
     <row r="69" ht="21" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>5</v>
@@ -3154,10 +3149,10 @@
     </row>
     <row r="70" ht="21" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>5</v>
@@ -3165,10 +3160,10 @@
     </row>
     <row r="71" ht="21" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>5</v>
@@ -3176,10 +3171,10 @@
     </row>
     <row r="72" ht="21" spans="1:3">
       <c r="A72" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>5</v>
@@ -3187,10 +3182,10 @@
     </row>
     <row r="73" ht="21" spans="1:3">
       <c r="A73" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>5</v>
@@ -3198,10 +3193,10 @@
     </row>
     <row r="74" ht="21" spans="1:3">
       <c r="A74" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>5</v>
@@ -3209,10 +3204,10 @@
     </row>
     <row r="75" ht="21" spans="1:3">
       <c r="A75" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>5</v>
@@ -3220,10 +3215,10 @@
     </row>
     <row r="76" ht="21" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>5</v>
@@ -3231,10 +3226,10 @@
     </row>
     <row r="77" ht="21" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>5</v>
@@ -3242,10 +3237,10 @@
     </row>
     <row r="78" ht="21" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>5</v>
@@ -3253,10 +3248,10 @@
     </row>
     <row r="79" ht="21" spans="1:3">
       <c r="A79" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>5</v>
@@ -3264,10 +3259,10 @@
     </row>
     <row r="80" ht="21" spans="1:3">
       <c r="A80" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>5</v>
@@ -3275,10 +3270,10 @@
     </row>
     <row r="81" ht="21" spans="1:3">
       <c r="A81" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>5</v>
@@ -3286,10 +3281,10 @@
     </row>
     <row r="82" ht="21" spans="1:3">
       <c r="A82" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>5</v>
@@ -3297,10 +3292,10 @@
     </row>
     <row r="83" ht="21" spans="1:3">
       <c r="A83" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>5</v>
@@ -3308,10 +3303,10 @@
     </row>
     <row r="84" ht="21" spans="1:3">
       <c r="A84" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>5</v>
@@ -3319,10 +3314,10 @@
     </row>
     <row r="85" ht="21" spans="1:3">
       <c r="A85" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>5</v>
@@ -3330,10 +3325,10 @@
     </row>
     <row r="86" ht="21" spans="1:3">
       <c r="A86" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>5</v>
@@ -3341,10 +3336,10 @@
     </row>
     <row r="87" ht="21" spans="1:3">
       <c r="A87" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>5</v>
@@ -3352,10 +3347,10 @@
     </row>
     <row r="88" ht="21" spans="1:3">
       <c r="A88" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>5</v>
@@ -3363,10 +3358,10 @@
     </row>
     <row r="89" ht="21" spans="1:3">
       <c r="A89" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>5</v>
@@ -3374,10 +3369,10 @@
     </row>
     <row r="90" ht="21" spans="1:3">
       <c r="A90" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>5</v>
@@ -3385,10 +3380,10 @@
     </row>
     <row r="91" ht="21" spans="1:3">
       <c r="A91" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>5</v>
@@ -3396,10 +3391,10 @@
     </row>
     <row r="92" ht="21" spans="1:3">
       <c r="A92" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>5</v>
@@ -3407,10 +3402,10 @@
     </row>
     <row r="93" ht="21" spans="1:3">
       <c r="A93" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>5</v>
@@ -3418,10 +3413,10 @@
     </row>
     <row r="94" ht="21" spans="1:3">
       <c r="A94" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>5</v>
@@ -3429,10 +3424,10 @@
     </row>
     <row r="95" ht="21" spans="1:3">
       <c r="A95" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>5</v>
@@ -3440,10 +3435,10 @@
     </row>
     <row r="96" ht="21" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>5</v>
@@ -3451,10 +3446,10 @@
     </row>
     <row r="97" ht="21" spans="1:3">
       <c r="A97" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>5</v>
@@ -3462,10 +3457,10 @@
     </row>
     <row r="98" ht="21" spans="1:3">
       <c r="A98" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>5</v>
@@ -3478,10 +3473,10 @@
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>5</v>
@@ -3489,10 +3484,10 @@
     </row>
     <row r="102" ht="21" spans="1:3">
       <c r="A102" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>5</v>
@@ -3500,10 +3495,10 @@
     </row>
     <row r="103" ht="21" spans="1:3">
       <c r="A103" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>5</v>
@@ -3511,10 +3506,10 @@
     </row>
     <row r="104" ht="21" spans="1:3">
       <c r="A104" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>5</v>
@@ -3522,10 +3517,10 @@
     </row>
     <row r="105" ht="21" spans="1:3">
       <c r="A105" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>5</v>
@@ -3533,10 +3528,10 @@
     </row>
     <row r="106" ht="21" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>5</v>
@@ -3544,10 +3539,10 @@
     </row>
     <row r="107" ht="21" spans="1:3">
       <c r="A107" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>5</v>
@@ -3555,10 +3550,10 @@
     </row>
     <row r="108" ht="21" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>5</v>
@@ -3566,10 +3561,10 @@
     </row>
     <row r="109" ht="21" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>5</v>
@@ -3577,10 +3572,10 @@
     </row>
     <row r="110" ht="21" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>5</v>
@@ -3588,10 +3583,10 @@
     </row>
     <row r="111" ht="21" spans="1:3">
       <c r="A111" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>5</v>
@@ -3599,10 +3594,10 @@
     </row>
     <row r="112" ht="21" spans="1:3">
       <c r="A112" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>5</v>
@@ -3610,10 +3605,10 @@
     </row>
     <row r="113" ht="21" spans="1:3">
       <c r="A113" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>5</v>
@@ -3621,10 +3616,10 @@
     </row>
     <row r="114" ht="21" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>5</v>
@@ -3632,10 +3627,10 @@
     </row>
     <row r="115" ht="21" spans="1:3">
       <c r="A115" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>5</v>
@@ -3643,10 +3638,10 @@
     </row>
     <row r="116" ht="21" spans="1:3">
       <c r="A116" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>5</v>
@@ -3654,10 +3649,10 @@
     </row>
     <row r="117" ht="21" spans="1:3">
       <c r="A117" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>5</v>
@@ -3665,10 +3660,10 @@
     </row>
     <row r="118" ht="21" spans="1:3">
       <c r="A118" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>5</v>
@@ -3676,10 +3671,10 @@
     </row>
     <row r="119" ht="21" spans="1:3">
       <c r="A119" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>5</v>
@@ -3687,10 +3682,10 @@
     </row>
     <row r="120" ht="21" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>5</v>
@@ -3698,10 +3693,10 @@
     </row>
     <row r="121" ht="21" spans="1:3">
       <c r="A121" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>5</v>
@@ -3709,10 +3704,10 @@
     </row>
     <row r="122" ht="21" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>5</v>
@@ -3720,10 +3715,10 @@
     </row>
     <row r="123" ht="21" spans="1:3">
       <c r="A123" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>5</v>
@@ -3731,10 +3726,10 @@
     </row>
     <row r="124" ht="21" spans="1:3">
       <c r="A124" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>5</v>
@@ -3742,10 +3737,10 @@
     </row>
     <row r="125" ht="21" spans="1:3">
       <c r="A125" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>5</v>
@@ -3753,10 +3748,10 @@
     </row>
     <row r="126" ht="21" spans="1:3">
       <c r="A126" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>5</v>
@@ -3764,10 +3759,10 @@
     </row>
     <row r="127" ht="21" spans="1:3">
       <c r="A127" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>5</v>
@@ -3775,10 +3770,10 @@
     </row>
     <row r="128" ht="21" spans="1:3">
       <c r="A128" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>5</v>
@@ -3786,10 +3781,10 @@
     </row>
     <row r="129" ht="21" spans="1:3">
       <c r="A129" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>5</v>
@@ -3797,10 +3792,10 @@
     </row>
     <row r="130" ht="21" spans="1:3">
       <c r="A130" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>5</v>
@@ -3808,10 +3803,10 @@
     </row>
     <row r="131" ht="21" spans="1:3">
       <c r="A131" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>5</v>
@@ -3819,10 +3814,10 @@
     </row>
     <row r="132" ht="21" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>5</v>
@@ -3830,10 +3825,10 @@
     </row>
     <row r="133" ht="21" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>5</v>
@@ -3841,10 +3836,10 @@
     </row>
     <row r="134" ht="21" spans="1:3">
       <c r="A134" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>5</v>
@@ -3852,10 +3847,10 @@
     </row>
     <row r="135" ht="21" spans="1:3">
       <c r="A135" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>5</v>
@@ -3863,10 +3858,10 @@
     </row>
     <row r="136" ht="21" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>5</v>
@@ -3878,10 +3873,10 @@
     </row>
     <row r="139" ht="21" spans="1:3">
       <c r="A139" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>5</v>
@@ -3889,10 +3884,10 @@
     </row>
     <row r="140" ht="21" spans="1:3">
       <c r="A140" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>5</v>
@@ -3900,10 +3895,10 @@
     </row>
     <row r="141" ht="21" spans="1:3">
       <c r="A141" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>5</v>
@@ -3911,10 +3906,10 @@
     </row>
     <row r="142" ht="21" spans="1:3">
       <c r="A142" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>5</v>
@@ -3922,10 +3917,10 @@
     </row>
     <row r="143" ht="21" spans="1:3">
       <c r="A143" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>5</v>
@@ -3933,10 +3928,10 @@
     </row>
     <row r="144" ht="21" spans="1:3">
       <c r="A144" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>5</v>
@@ -3944,10 +3939,10 @@
     </row>
     <row r="145" ht="21" spans="1:3">
       <c r="A145" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>5</v>
@@ -3955,10 +3950,10 @@
     </row>
     <row r="146" ht="21" spans="1:3">
       <c r="A146" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>5</v>
@@ -3966,10 +3961,10 @@
     </row>
     <row r="147" ht="21" spans="1:3">
       <c r="A147" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>5</v>
@@ -3977,10 +3972,10 @@
     </row>
     <row r="148" ht="21" spans="1:3">
       <c r="A148" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>5</v>
@@ -3988,10 +3983,10 @@
     </row>
     <row r="149" ht="21" spans="1:3">
       <c r="A149" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>5</v>
@@ -3999,10 +3994,10 @@
     </row>
     <row r="150" ht="21" spans="1:3">
       <c r="A150" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>5</v>
@@ -4010,10 +4005,10 @@
     </row>
     <row r="151" ht="21" spans="1:3">
       <c r="A151" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>5</v>
@@ -4021,10 +4016,10 @@
     </row>
     <row r="152" ht="21" spans="1:3">
       <c r="A152" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>5</v>
@@ -4032,10 +4027,10 @@
     </row>
     <row r="153" ht="21" spans="1:3">
       <c r="A153" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>5</v>
@@ -4043,10 +4038,10 @@
     </row>
     <row r="154" ht="21" spans="1:3">
       <c r="A154" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>5</v>
@@ -4054,10 +4049,10 @@
     </row>
     <row r="155" ht="21" spans="1:3">
       <c r="A155" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>5</v>
@@ -4065,10 +4060,10 @@
     </row>
     <row r="156" ht="21" spans="1:3">
       <c r="A156" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>5</v>
@@ -4076,10 +4071,10 @@
     </row>
     <row r="157" ht="21" spans="1:3">
       <c r="A157" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>5</v>
@@ -4087,10 +4082,10 @@
     </row>
     <row r="158" ht="21" spans="1:3">
       <c r="A158" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>5</v>
@@ -4098,10 +4093,10 @@
     </row>
     <row r="159" ht="21" spans="1:3">
       <c r="A159" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>5</v>
@@ -4109,10 +4104,10 @@
     </row>
     <row r="160" ht="21" spans="1:3">
       <c r="A160" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>5</v>
@@ -4120,10 +4115,10 @@
     </row>
     <row r="161" ht="21" spans="1:3">
       <c r="A161" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>5</v>
@@ -4131,10 +4126,10 @@
     </row>
     <row r="162" ht="21" spans="1:3">
       <c r="A162" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>5</v>
@@ -4142,10 +4137,10 @@
     </row>
     <row r="163" ht="21" spans="1:3">
       <c r="A163" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>5</v>
@@ -4153,10 +4148,10 @@
     </row>
     <row r="164" ht="21" spans="1:3">
       <c r="A164" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>5</v>
@@ -4164,10 +4159,10 @@
     </row>
     <row r="165" ht="21" spans="1:3">
       <c r="A165" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>5</v>
@@ -4175,10 +4170,10 @@
     </row>
     <row r="166" ht="21" spans="1:3">
       <c r="A166" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>5</v>
@@ -4186,10 +4181,10 @@
     </row>
     <row r="167" ht="21" spans="1:3">
       <c r="A167" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>5</v>
@@ -4197,10 +4192,10 @@
     </row>
     <row r="168" ht="21" spans="1:3">
       <c r="A168" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>5</v>
@@ -4208,10 +4203,10 @@
     </row>
     <row r="169" ht="21" spans="1:3">
       <c r="A169" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>5</v>
@@ -4219,10 +4214,10 @@
     </row>
     <row r="170" ht="21" spans="1:3">
       <c r="A170" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>5</v>
@@ -4230,10 +4225,10 @@
     </row>
     <row r="171" ht="21" spans="1:3">
       <c r="A171" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>5</v>
@@ -4241,10 +4236,10 @@
     </row>
     <row r="172" ht="21" spans="1:3">
       <c r="A172" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>5</v>
@@ -4252,10 +4247,10 @@
     </row>
     <row r="173" ht="21" spans="1:3">
       <c r="A173" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>5</v>
@@ -4263,10 +4258,10 @@
     </row>
     <row r="174" ht="21" spans="1:3">
       <c r="A174" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>5</v>
@@ -4278,10 +4273,10 @@
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B177" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>5</v>
@@ -4289,10 +4284,10 @@
     </row>
     <row r="178" ht="21" spans="1:3">
       <c r="A178" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>5</v>
@@ -4300,10 +4295,10 @@
     </row>
     <row r="179" ht="21" spans="1:3">
       <c r="A179" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>5</v>
@@ -4311,10 +4306,10 @@
     </row>
     <row r="180" ht="21" spans="1:3">
       <c r="A180" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>5</v>
@@ -4322,10 +4317,10 @@
     </row>
     <row r="181" ht="21" spans="1:3">
       <c r="A181" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>5</v>
@@ -4333,10 +4328,10 @@
     </row>
     <row r="182" ht="21" spans="1:3">
       <c r="A182" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>5</v>
@@ -4344,10 +4339,10 @@
     </row>
     <row r="183" ht="21" spans="1:3">
       <c r="A183" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>5</v>
@@ -4355,10 +4350,10 @@
     </row>
     <row r="184" ht="21" spans="1:3">
       <c r="A184" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>5</v>
@@ -4366,10 +4361,10 @@
     </row>
     <row r="185" ht="21" spans="1:3">
       <c r="A185" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>5</v>
@@ -4377,10 +4372,10 @@
     </row>
     <row r="186" ht="21" spans="1:3">
       <c r="A186" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>5</v>
@@ -4388,10 +4383,10 @@
     </row>
     <row r="187" ht="21" spans="1:3">
       <c r="A187" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>5</v>
@@ -4399,10 +4394,10 @@
     </row>
     <row r="188" ht="21" spans="1:3">
       <c r="A188" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>5</v>
@@ -4410,10 +4405,10 @@
     </row>
     <row r="189" ht="21" spans="1:3">
       <c r="A189" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>5</v>
@@ -4421,10 +4416,10 @@
     </row>
     <row r="190" ht="21" spans="1:3">
       <c r="A190" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>5</v>
@@ -4432,10 +4427,10 @@
     </row>
     <row r="191" ht="21" spans="1:3">
       <c r="A191" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>5</v>
@@ -4443,10 +4438,10 @@
     </row>
     <row r="192" ht="21" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>5</v>
@@ -4454,10 +4449,10 @@
     </row>
     <row r="193" ht="21" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>5</v>
@@ -4465,10 +4460,10 @@
     </row>
     <row r="194" ht="21" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>5</v>
@@ -4476,10 +4471,10 @@
     </row>
     <row r="195" ht="21" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>5</v>
@@ -4487,10 +4482,10 @@
     </row>
     <row r="196" ht="21" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>5</v>
@@ -4498,10 +4493,10 @@
     </row>
     <row r="197" ht="21" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>5</v>
@@ -4509,10 +4504,10 @@
     </row>
     <row r="198" ht="21" spans="1:3">
       <c r="A198" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>5</v>
@@ -4520,10 +4515,10 @@
     </row>
     <row r="199" ht="21" spans="1:3">
       <c r="A199" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>5</v>
@@ -4531,10 +4526,10 @@
     </row>
     <row r="200" ht="21" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>5</v>
@@ -4542,10 +4537,10 @@
     </row>
     <row r="201" ht="21" spans="1:3">
       <c r="A201" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>5</v>
@@ -4553,10 +4548,10 @@
     </row>
     <row r="202" ht="21" spans="1:3">
       <c r="A202" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>5</v>
@@ -4564,10 +4559,10 @@
     </row>
     <row r="203" ht="21" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>5</v>
@@ -4575,10 +4570,10 @@
     </row>
     <row r="204" ht="21" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>5</v>
@@ -4586,10 +4581,10 @@
     </row>
     <row r="205" ht="21" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>5</v>
@@ -4597,10 +4592,10 @@
     </row>
     <row r="206" ht="21" spans="1:3">
       <c r="A206" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>5</v>
@@ -4608,10 +4603,10 @@
     </row>
     <row r="207" ht="21" spans="1:3">
       <c r="A207" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>5</v>
@@ -4619,10 +4614,10 @@
     </row>
     <row r="208" ht="21" spans="1:3">
       <c r="A208" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>5</v>
@@ -4630,10 +4625,10 @@
     </row>
     <row r="209" ht="21" spans="1:3">
       <c r="A209" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>5</v>
@@ -4641,10 +4636,10 @@
     </row>
     <row r="210" ht="21" spans="1:3">
       <c r="A210" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>5</v>
@@ -4652,10 +4647,10 @@
     </row>
     <row r="211" ht="21" spans="1:3">
       <c r="A211" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>5</v>
@@ -4673,10 +4668,10 @@
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B214" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>5</v>
@@ -4684,10 +4679,10 @@
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>5</v>
@@ -4695,10 +4690,10 @@
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>5</v>
@@ -4706,10 +4701,10 @@
     </row>
     <row r="217" ht="21" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>5</v>
@@ -4717,10 +4712,10 @@
     </row>
     <row r="218" ht="21" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>5</v>
@@ -4728,10 +4723,10 @@
     </row>
     <row r="219" ht="21" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>5</v>
@@ -4739,10 +4734,10 @@
     </row>
     <row r="220" ht="21" spans="1:3">
       <c r="A220" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>5</v>
@@ -4750,10 +4745,10 @@
     </row>
     <row r="221" ht="21" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>5</v>
@@ -4761,10 +4756,10 @@
     </row>
     <row r="222" ht="21" spans="1:3">
       <c r="A222" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>5</v>
@@ -4772,10 +4767,10 @@
     </row>
     <row r="223" ht="21" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>5</v>
@@ -4783,10 +4778,10 @@
     </row>
     <row r="224" ht="21" spans="1:3">
       <c r="A224" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>5</v>
@@ -4794,10 +4789,10 @@
     </row>
     <row r="225" ht="21" spans="1:3">
       <c r="A225" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>5</v>
@@ -4805,10 +4800,10 @@
     </row>
     <row r="226" ht="21" spans="1:3">
       <c r="A226" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>5</v>
@@ -4816,10 +4811,10 @@
     </row>
     <row r="227" ht="21" spans="1:3">
       <c r="A227" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>5</v>
@@ -4827,10 +4822,10 @@
     </row>
     <row r="228" ht="21" spans="1:3">
       <c r="A228" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>5</v>
@@ -4838,10 +4833,10 @@
     </row>
     <row r="229" ht="21" spans="1:3">
       <c r="A229" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>5</v>
@@ -4849,10 +4844,10 @@
     </row>
     <row r="230" ht="21" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>5</v>
@@ -4860,10 +4855,10 @@
     </row>
     <row r="231" ht="21" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>5</v>
@@ -4871,10 +4866,10 @@
     </row>
     <row r="232" ht="21" spans="1:3">
       <c r="A232" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>5</v>
@@ -4882,10 +4877,10 @@
     </row>
     <row r="233" ht="21" spans="1:3">
       <c r="A233" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>5</v>
@@ -4893,10 +4888,10 @@
     </row>
     <row r="234" ht="21" spans="1:3">
       <c r="A234" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>5</v>
@@ -4904,10 +4899,10 @@
     </row>
     <row r="235" ht="21" spans="1:3">
       <c r="A235" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>5</v>
@@ -4923,10 +4918,10 @@
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B238" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>5</v>
@@ -4934,10 +4929,10 @@
     </row>
     <row r="239" ht="21" spans="1:3">
       <c r="A239" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>5</v>
@@ -4945,10 +4940,10 @@
     </row>
     <row r="240" ht="21" spans="1:3">
       <c r="A240" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>5</v>
@@ -4956,10 +4951,10 @@
     </row>
     <row r="241" ht="21" spans="1:3">
       <c r="A241" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>5</v>
@@ -4967,21 +4962,21 @@
     </row>
     <row r="242" ht="21" spans="1:3">
       <c r="A242" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B242" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C242" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="243" ht="21" spans="1:3">
       <c r="A243" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>5</v>
@@ -4989,10 +4984,10 @@
     </row>
     <row r="244" ht="21" spans="1:3">
       <c r="A244" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>5</v>
@@ -5000,10 +4995,10 @@
     </row>
     <row r="245" ht="21" spans="1:3">
       <c r="A245" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>5</v>
@@ -5011,10 +5006,10 @@
     </row>
     <row r="246" ht="21" spans="1:3">
       <c r="A246" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>5</v>
@@ -5022,10 +5017,10 @@
     </row>
     <row r="247" ht="21" spans="1:3">
       <c r="A247" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>5</v>
@@ -5033,10 +5028,10 @@
     </row>
     <row r="248" ht="21" spans="1:3">
       <c r="A248" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>5</v>
@@ -5044,10 +5039,10 @@
     </row>
     <row r="249" ht="21" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>5</v>
@@ -5055,10 +5050,10 @@
     </row>
     <row r="250" ht="21" spans="1:3">
       <c r="A250" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>5</v>
@@ -5066,10 +5061,10 @@
     </row>
     <row r="251" ht="21" spans="1:3">
       <c r="A251" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>5</v>
@@ -5077,10 +5072,10 @@
     </row>
     <row r="252" ht="21" spans="1:3">
       <c r="A252" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>5</v>
@@ -5088,10 +5083,10 @@
     </row>
     <row r="253" ht="21" spans="1:3">
       <c r="A253" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>5</v>
@@ -5099,10 +5094,10 @@
     </row>
     <row r="254" ht="21" spans="1:3">
       <c r="A254" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>5</v>
@@ -5110,10 +5105,10 @@
     </row>
     <row r="255" ht="21" spans="1:3">
       <c r="A255" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>5</v>
@@ -5121,10 +5116,10 @@
     </row>
     <row r="256" ht="21" spans="1:3">
       <c r="A256" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>5</v>
@@ -5132,10 +5127,10 @@
     </row>
     <row r="257" ht="21" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>5</v>
@@ -5143,10 +5138,10 @@
     </row>
     <row r="258" ht="21" spans="1:3">
       <c r="A258" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>5</v>
@@ -5154,10 +5149,10 @@
     </row>
     <row r="259" ht="21" spans="1:3">
       <c r="A259" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>5</v>
@@ -5165,10 +5160,10 @@
     </row>
     <row r="260" ht="21" spans="1:3">
       <c r="A260" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>5</v>
@@ -5176,10 +5171,10 @@
     </row>
     <row r="261" ht="21" spans="1:3">
       <c r="A261" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>5</v>
@@ -5187,10 +5182,10 @@
     </row>
     <row r="262" ht="21" spans="1:3">
       <c r="A262" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>5</v>
@@ -5198,10 +5193,10 @@
     </row>
     <row r="263" ht="21" spans="1:3">
       <c r="A263" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>5</v>
@@ -5209,10 +5204,10 @@
     </row>
     <row r="264" ht="21" spans="1:3">
       <c r="A264" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>5</v>
@@ -5220,10 +5215,10 @@
     </row>
     <row r="265" ht="21" spans="1:3">
       <c r="A265" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>5</v>
@@ -5231,10 +5226,10 @@
     </row>
     <row r="266" ht="21" spans="1:3">
       <c r="A266" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>5</v>
@@ -5242,10 +5237,10 @@
     </row>
     <row r="267" ht="21" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>5</v>
@@ -5253,10 +5248,10 @@
     </row>
     <row r="268" ht="21" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>5</v>
@@ -5264,10 +5259,10 @@
     </row>
     <row r="269" ht="21" spans="1:3">
       <c r="A269" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>5</v>
@@ -5275,10 +5270,10 @@
     </row>
     <row r="270" ht="21" spans="1:3">
       <c r="A270" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>5</v>
@@ -5286,10 +5281,10 @@
     </row>
     <row r="271" ht="21" spans="1:3">
       <c r="A271" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>5</v>
@@ -5297,10 +5292,10 @@
     </row>
     <row r="272" ht="21" spans="1:3">
       <c r="A272" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>5</v>
@@ -5316,10 +5311,10 @@
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B275" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>5</v>
@@ -5327,10 +5322,10 @@
     </row>
     <row r="276" ht="21" spans="1:3">
       <c r="A276" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>5</v>
@@ -5338,10 +5333,10 @@
     </row>
     <row r="277" ht="21" spans="1:3">
       <c r="A277" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>5</v>
@@ -5349,10 +5344,10 @@
     </row>
     <row r="278" ht="21" spans="1:3">
       <c r="A278" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>5</v>
@@ -5360,10 +5355,10 @@
     </row>
     <row r="279" ht="21" spans="1:3">
       <c r="A279" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>5</v>
@@ -5371,10 +5366,10 @@
     </row>
     <row r="280" ht="21" spans="1:3">
       <c r="A280" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>5</v>
@@ -5382,10 +5377,10 @@
     </row>
     <row r="281" ht="21" spans="1:3">
       <c r="A281" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>5</v>
@@ -5393,10 +5388,10 @@
     </row>
     <row r="282" ht="21" spans="1:3">
       <c r="A282" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>5</v>
@@ -5404,10 +5399,10 @@
     </row>
     <row r="283" ht="21" spans="1:3">
       <c r="A283" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>5</v>
@@ -5415,10 +5410,10 @@
     </row>
     <row r="284" ht="21" spans="1:3">
       <c r="A284" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>5</v>
@@ -5426,10 +5421,10 @@
     </row>
     <row r="285" ht="21" spans="1:3">
       <c r="A285" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>5</v>
@@ -5437,10 +5432,10 @@
     </row>
     <row r="286" ht="21" spans="1:3">
       <c r="A286" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>5</v>
@@ -5448,10 +5443,10 @@
     </row>
     <row r="287" ht="21" spans="1:3">
       <c r="A287" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>5</v>
@@ -5459,10 +5454,10 @@
     </row>
     <row r="288" ht="21" spans="1:3">
       <c r="A288" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>5</v>
@@ -5470,10 +5465,10 @@
     </row>
     <row r="289" ht="21" spans="1:3">
       <c r="A289" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>5</v>
@@ -5481,10 +5476,10 @@
     </row>
     <row r="290" ht="21" spans="1:3">
       <c r="A290" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>5</v>
@@ -5492,10 +5487,10 @@
     </row>
     <row r="291" ht="21" spans="1:3">
       <c r="A291" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>5</v>
@@ -5503,10 +5498,10 @@
     </row>
     <row r="292" ht="21" spans="1:3">
       <c r="A292" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>5</v>
@@ -5514,10 +5509,10 @@
     </row>
     <row r="293" ht="21" spans="1:3">
       <c r="A293" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>5</v>
@@ -5533,10 +5528,10 @@
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B296" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="B296" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>5</v>
@@ -5544,10 +5539,10 @@
     </row>
     <row r="297" ht="21" spans="1:3">
       <c r="A297" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>5</v>
@@ -5555,10 +5550,10 @@
     </row>
     <row r="298" ht="21" spans="1:3">
       <c r="A298" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>5</v>
@@ -5566,10 +5561,10 @@
     </row>
     <row r="299" ht="21" spans="1:3">
       <c r="A299" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>5</v>
@@ -5577,10 +5572,10 @@
     </row>
     <row r="300" ht="21" spans="1:3">
       <c r="A300" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>5</v>
@@ -5588,10 +5583,10 @@
     </row>
     <row r="301" ht="21" spans="1:3">
       <c r="A301" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>5</v>
@@ -5599,10 +5594,10 @@
     </row>
     <row r="302" ht="21" spans="1:3">
       <c r="A302" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>5</v>
@@ -5610,10 +5605,10 @@
     </row>
     <row r="303" ht="21" spans="1:3">
       <c r="A303" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>5</v>
@@ -5621,10 +5616,10 @@
     </row>
     <row r="304" ht="21" spans="1:3">
       <c r="A304" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
@@ -5632,10 +5627,10 @@
     </row>
     <row r="305" ht="21" spans="1:3">
       <c r="A305" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
@@ -5643,10 +5638,10 @@
     </row>
     <row r="306" ht="21" spans="1:3">
       <c r="A306" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>5</v>
@@ -5654,10 +5649,10 @@
     </row>
     <row r="307" ht="21" spans="1:3">
       <c r="A307" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>5</v>
@@ -5665,10 +5660,10 @@
     </row>
     <row r="308" ht="21" spans="1:3">
       <c r="A308" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>5</v>
@@ -5676,10 +5671,10 @@
     </row>
     <row r="309" ht="21" spans="1:3">
       <c r="A309" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
@@ -5687,10 +5682,10 @@
     </row>
     <row r="310" ht="21" spans="1:3">
       <c r="A310" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>5</v>
@@ -5698,10 +5693,10 @@
     </row>
     <row r="311" ht="21" spans="1:3">
       <c r="A311" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>5</v>
@@ -5709,10 +5704,10 @@
     </row>
     <row r="312" ht="21" spans="1:3">
       <c r="A312" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
@@ -5720,10 +5715,10 @@
     </row>
     <row r="313" ht="21" spans="1:3">
       <c r="A313" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>5</v>
@@ -5731,10 +5726,10 @@
     </row>
     <row r="314" ht="21" spans="1:3">
       <c r="A314" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
@@ -5742,10 +5737,10 @@
     </row>
     <row r="315" ht="21" spans="1:3">
       <c r="A315" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>5</v>
@@ -5753,10 +5748,10 @@
     </row>
     <row r="316" ht="21" spans="1:3">
       <c r="A316" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>5</v>
@@ -5764,10 +5759,10 @@
     </row>
     <row r="317" ht="21" spans="1:3">
       <c r="A317" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>5</v>
@@ -5775,10 +5770,10 @@
     </row>
     <row r="318" ht="21" spans="1:3">
       <c r="A318" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>5</v>
@@ -5786,10 +5781,10 @@
     </row>
     <row r="319" ht="21" spans="1:3">
       <c r="A319" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
@@ -5797,10 +5792,10 @@
     </row>
     <row r="320" ht="21" spans="1:3">
       <c r="A320" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>5</v>
@@ -5808,10 +5803,10 @@
     </row>
     <row r="321" ht="21" spans="1:3">
       <c r="A321" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>5</v>
@@ -5819,10 +5814,10 @@
     </row>
     <row r="322" ht="21" spans="1:3">
       <c r="A322" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>5</v>
@@ -5830,10 +5825,10 @@
     </row>
     <row r="323" ht="21" spans="1:3">
       <c r="A323" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>5</v>
@@ -5841,10 +5836,10 @@
     </row>
     <row r="324" ht="21" spans="1:3">
       <c r="A324" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>5</v>
@@ -5852,10 +5847,10 @@
     </row>
     <row r="325" ht="21" spans="1:3">
       <c r="A325" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>5</v>
@@ -5863,10 +5858,10 @@
     </row>
     <row r="326" ht="21" spans="1:3">
       <c r="A326" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
@@ -5874,10 +5869,10 @@
     </row>
     <row r="327" ht="21" spans="1:3">
       <c r="A327" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
@@ -5885,10 +5880,10 @@
     </row>
     <row r="328" ht="21" spans="1:3">
       <c r="A328" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
@@ -5896,10 +5891,10 @@
     </row>
     <row r="329" ht="21" spans="1:3">
       <c r="A329" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
@@ -5907,10 +5902,10 @@
     </row>
     <row r="330" ht="21" spans="1:3">
       <c r="A330" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
@@ -5918,10 +5913,10 @@
     </row>
     <row r="331" ht="21" spans="1:3">
       <c r="A331" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
@@ -5929,10 +5924,10 @@
     </row>
     <row r="332" ht="21" spans="1:3">
       <c r="A332" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
@@ -5940,10 +5935,10 @@
     </row>
     <row r="333" ht="21" spans="1:3">
       <c r="A333" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
@@ -5959,10 +5954,10 @@
     </row>
     <row r="336" ht="21" spans="1:3">
       <c r="A336" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B336" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="B336" s="8" t="s">
-        <v>329</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>5</v>
@@ -5970,10 +5965,10 @@
     </row>
     <row r="337" ht="21" spans="1:3">
       <c r="A337" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
@@ -5981,10 +5976,10 @@
     </row>
     <row r="338" ht="21" spans="1:3">
       <c r="A338" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
@@ -5992,10 +5987,10 @@
     </row>
     <row r="339" ht="21" spans="1:3">
       <c r="A339" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
@@ -6003,10 +5998,10 @@
     </row>
     <row r="340" ht="21" spans="1:3">
       <c r="A340" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
@@ -6014,10 +6009,10 @@
     </row>
     <row r="341" ht="21" spans="1:3">
       <c r="A341" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
@@ -6025,10 +6020,10 @@
     </row>
     <row r="342" ht="21" spans="1:3">
       <c r="A342" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
@@ -6036,10 +6031,10 @@
     </row>
     <row r="343" ht="21" spans="1:3">
       <c r="A343" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
@@ -6047,10 +6042,10 @@
     </row>
     <row r="344" ht="21" spans="1:3">
       <c r="A344" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
@@ -6058,10 +6053,10 @@
     </row>
     <row r="345" ht="21" spans="1:3">
       <c r="A345" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
@@ -6069,10 +6064,10 @@
     </row>
     <row r="346" ht="21" spans="1:3">
       <c r="A346" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
@@ -6080,10 +6075,10 @@
     </row>
     <row r="347" ht="21" spans="1:3">
       <c r="A347" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
@@ -6091,10 +6086,10 @@
     </row>
     <row r="348" ht="21" spans="1:3">
       <c r="A348" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
@@ -6102,10 +6097,10 @@
     </row>
     <row r="349" ht="21" spans="1:3">
       <c r="A349" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
@@ -6113,10 +6108,10 @@
     </row>
     <row r="350" ht="21" spans="1:3">
       <c r="A350" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
@@ -6124,10 +6119,10 @@
     </row>
     <row r="351" ht="21" spans="1:3">
       <c r="A351" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
@@ -6135,10 +6130,10 @@
     </row>
     <row r="352" ht="21" spans="1:3">
       <c r="A352" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
@@ -6146,10 +6141,10 @@
     </row>
     <row r="353" ht="21" spans="1:3">
       <c r="A353" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
@@ -6165,10 +6160,10 @@
     </row>
     <row r="356" ht="21" spans="1:3">
       <c r="A356" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B356" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="B356" s="8" t="s">
-        <v>348</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>5</v>
@@ -6176,76 +6171,76 @@
     </row>
     <row r="357" ht="21" spans="1:3">
       <c r="A357" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
       <c r="A358" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
       <c r="A359" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
       <c r="A360" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
       <c r="A361" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
       <c r="A362" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
       <c r="A363" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
@@ -6253,10 +6248,10 @@
     </row>
     <row r="364" ht="21" spans="1:3">
       <c r="A364" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
@@ -6264,10 +6259,10 @@
     </row>
     <row r="365" ht="21" spans="1:3">
       <c r="A365" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
@@ -6275,10 +6270,10 @@
     </row>
     <row r="366" ht="21" spans="1:3">
       <c r="A366" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
@@ -6286,10 +6281,10 @@
     </row>
     <row r="367" ht="21" spans="1:3">
       <c r="A367" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
@@ -6297,10 +6292,10 @@
     </row>
     <row r="368" ht="21" spans="1:3">
       <c r="A368" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
@@ -6308,10 +6303,10 @@
     </row>
     <row r="369" ht="21" spans="1:3">
       <c r="A369" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
@@ -6319,10 +6314,10 @@
     </row>
     <row r="370" ht="21" spans="1:3">
       <c r="A370" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
@@ -6330,10 +6325,10 @@
     </row>
     <row r="371" ht="21" spans="1:3">
       <c r="A371" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
@@ -6341,10 +6336,10 @@
     </row>
     <row r="372" ht="21" spans="1:3">
       <c r="A372" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
@@ -6352,10 +6347,10 @@
     </row>
     <row r="373" ht="21" spans="1:3">
       <c r="A373" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
@@ -6363,10 +6358,10 @@
     </row>
     <row r="374" ht="21" spans="1:3">
       <c r="A374" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
@@ -6374,10 +6369,10 @@
     </row>
     <row r="375" ht="21" spans="1:3">
       <c r="A375" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
@@ -6385,10 +6380,10 @@
     </row>
     <row r="376" ht="21" spans="1:3">
       <c r="A376" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
@@ -6396,10 +6391,10 @@
     </row>
     <row r="377" ht="21" spans="1:3">
       <c r="A377" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
@@ -6407,10 +6402,10 @@
     </row>
     <row r="378" ht="21" spans="1:3">
       <c r="A378" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
@@ -6418,10 +6413,10 @@
     </row>
     <row r="379" ht="21" spans="1:3">
       <c r="A379" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
@@ -6429,10 +6424,10 @@
     </row>
     <row r="380" ht="21" spans="1:3">
       <c r="A380" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
@@ -6440,10 +6435,10 @@
     </row>
     <row r="381" ht="21" spans="1:3">
       <c r="A381" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
@@ -6451,10 +6446,10 @@
     </row>
     <row r="382" ht="21" spans="1:3">
       <c r="A382" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
@@ -6462,10 +6457,10 @@
     </row>
     <row r="383" ht="21" spans="1:3">
       <c r="A383" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
@@ -6473,10 +6468,10 @@
     </row>
     <row r="384" ht="21" spans="1:3">
       <c r="A384" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
@@ -6484,10 +6479,10 @@
     </row>
     <row r="385" ht="21" spans="1:3">
       <c r="A385" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
@@ -6495,10 +6490,10 @@
     </row>
     <row r="386" ht="21" spans="1:3">
       <c r="A386" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
@@ -6506,10 +6501,10 @@
     </row>
     <row r="387" ht="21" spans="1:3">
       <c r="A387" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
@@ -6517,10 +6512,10 @@
     </row>
     <row r="388" ht="21" spans="1:3">
       <c r="A388" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
@@ -6528,10 +6523,10 @@
     </row>
     <row r="389" ht="21" spans="1:3">
       <c r="A389" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
@@ -6539,10 +6534,10 @@
     </row>
     <row r="390" ht="21" spans="1:3">
       <c r="A390" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
@@ -6550,10 +6545,10 @@
     </row>
     <row r="391" ht="21" spans="1:3">
       <c r="A391" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
@@ -6561,10 +6556,10 @@
     </row>
     <row r="392" ht="21" spans="1:3">
       <c r="A392" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
@@ -6572,10 +6567,10 @@
     </row>
     <row r="393" ht="21" spans="1:3">
       <c r="A393" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
@@ -6583,10 +6578,10 @@
     </row>
     <row r="394" ht="21" spans="1:3">
       <c r="A394" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
@@ -6594,10 +6589,10 @@
     </row>
     <row r="395" ht="21" spans="1:3">
       <c r="A395" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -6605,10 +6600,10 @@
     </row>
     <row r="396" ht="21" spans="1:3">
       <c r="A396" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -6616,10 +6611,10 @@
     </row>
     <row r="397" ht="21" spans="1:3">
       <c r="A397" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -6627,10 +6622,10 @@
     </row>
     <row r="398" ht="21" spans="1:3">
       <c r="A398" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -6638,10 +6633,10 @@
     </row>
     <row r="399" ht="21" spans="1:3">
       <c r="A399" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -6657,10 +6652,10 @@
     </row>
     <row r="402" ht="21" spans="1:3">
       <c r="A402" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B402" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="B402" s="8" t="s">
-        <v>392</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
@@ -6668,10 +6663,10 @@
     </row>
     <row r="403" ht="21" spans="1:3">
       <c r="A403" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
@@ -6679,10 +6674,10 @@
     </row>
     <row r="404" ht="21" spans="1:3">
       <c r="A404" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -6690,10 +6685,10 @@
     </row>
     <row r="405" ht="21" spans="1:3">
       <c r="A405" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>5</v>
@@ -6701,10 +6696,10 @@
     </row>
     <row r="406" ht="21" spans="1:3">
       <c r="A406" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -6712,10 +6707,10 @@
     </row>
     <row r="407" ht="21" spans="1:3">
       <c r="A407" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
@@ -6731,10 +6726,10 @@
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B410" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="B410" s="8" t="s">
-        <v>398</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
@@ -6742,10 +6737,10 @@
     </row>
     <row r="411" ht="21" spans="1:3">
       <c r="A411" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
@@ -6753,10 +6748,10 @@
     </row>
     <row r="412" ht="21" spans="1:3">
       <c r="A412" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
@@ -6764,10 +6759,10 @@
     </row>
     <row r="413" ht="21" spans="1:3">
       <c r="A413" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
@@ -6775,10 +6770,10 @@
     </row>
     <row r="414" ht="21" spans="1:3">
       <c r="A414" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
@@ -6786,10 +6781,10 @@
     </row>
     <row r="415" ht="21" spans="1:3">
       <c r="A415" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
@@ -6797,10 +6792,10 @@
     </row>
     <row r="416" ht="21" spans="1:3">
       <c r="A416" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
@@ -6808,10 +6803,10 @@
     </row>
     <row r="417" ht="21" spans="1:3">
       <c r="A417" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>5</v>
@@ -6819,10 +6814,10 @@
     </row>
     <row r="418" ht="21" spans="1:3">
       <c r="A418" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
@@ -6830,10 +6825,10 @@
     </row>
     <row r="419" ht="21" spans="1:3">
       <c r="A419" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
@@ -6841,10 +6836,10 @@
     </row>
     <row r="420" ht="21" spans="1:3">
       <c r="A420" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
@@ -6852,10 +6847,10 @@
     </row>
     <row r="421" ht="21" spans="1:3">
       <c r="A421" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
@@ -6863,10 +6858,10 @@
     </row>
     <row r="422" ht="21" spans="1:3">
       <c r="A422" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
@@ -6874,10 +6869,10 @@
     </row>
     <row r="423" ht="21" spans="1:3">
       <c r="A423" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
@@ -6885,10 +6880,10 @@
     </row>
     <row r="424" ht="21" spans="1:3">
       <c r="A424" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
@@ -6896,10 +6891,10 @@
     </row>
     <row r="425" ht="21" spans="1:3">
       <c r="A425" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
@@ -6907,10 +6902,10 @@
     </row>
     <row r="426" ht="21" spans="1:3">
       <c r="A426" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
@@ -6918,10 +6913,10 @@
     </row>
     <row r="427" ht="21" spans="1:3">
       <c r="A427" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -6929,10 +6924,10 @@
     </row>
     <row r="428" ht="21" spans="1:3">
       <c r="A428" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
@@ -6940,10 +6935,10 @@
     </row>
     <row r="429" ht="21" spans="1:3">
       <c r="A429" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
@@ -6951,10 +6946,10 @@
     </row>
     <row r="430" ht="21" spans="1:3">
       <c r="A430" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
@@ -6962,10 +6957,10 @@
     </row>
     <row r="431" ht="21" spans="1:3">
       <c r="A431" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -6973,10 +6968,10 @@
     </row>
     <row r="432" ht="21" spans="1:3">
       <c r="A432" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -6984,10 +6979,10 @@
     </row>
     <row r="433" ht="21" spans="1:3">
       <c r="A433" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -6995,10 +6990,10 @@
     </row>
     <row r="434" ht="21" spans="1:3">
       <c r="A434" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -7006,10 +7001,10 @@
     </row>
     <row r="435" ht="21" spans="1:3">
       <c r="A435" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -7017,10 +7012,10 @@
     </row>
     <row r="436" ht="21" spans="1:3">
       <c r="A436" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -7028,10 +7023,10 @@
     </row>
     <row r="437" ht="21" spans="1:3">
       <c r="A437" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -7039,10 +7034,10 @@
     </row>
     <row r="438" ht="21" spans="1:3">
       <c r="A438" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -7050,10 +7045,10 @@
     </row>
     <row r="439" ht="21" spans="1:3">
       <c r="A439" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -7061,10 +7056,10 @@
     </row>
     <row r="440" ht="21" spans="1:3">
       <c r="A440" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -7072,10 +7067,10 @@
     </row>
     <row r="441" ht="21" spans="1:3">
       <c r="A441" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -7083,10 +7078,10 @@
     </row>
     <row r="442" ht="21" spans="1:3">
       <c r="A442" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -7094,10 +7089,10 @@
     </row>
     <row r="443" ht="21" spans="1:3">
       <c r="A443" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -7105,10 +7100,10 @@
     </row>
     <row r="444" ht="21" spans="1:3">
       <c r="A444" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -7116,10 +7111,10 @@
     </row>
     <row r="445" ht="21" spans="1:3">
       <c r="A445" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -7127,10 +7122,10 @@
     </row>
     <row r="446" ht="21" spans="1:3">
       <c r="A446" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -7138,10 +7133,10 @@
     </row>
     <row r="447" ht="21" spans="1:3">
       <c r="A447" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -7149,10 +7144,10 @@
     </row>
     <row r="448" ht="21" spans="1:3">
       <c r="A448" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -7160,10 +7155,10 @@
     </row>
     <row r="449" ht="21" spans="1:3">
       <c r="A449" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -7171,10 +7166,10 @@
     </row>
     <row r="450" ht="21" spans="1:3">
       <c r="A450" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -7182,10 +7177,10 @@
     </row>
     <row r="451" ht="21" spans="1:3">
       <c r="A451" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -7193,10 +7188,10 @@
     </row>
     <row r="452" ht="21" spans="1:3">
       <c r="A452" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -7204,10 +7199,10 @@
     </row>
     <row r="453" ht="21" spans="1:3">
       <c r="A453" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -7215,10 +7210,10 @@
     </row>
     <row r="454" ht="21" spans="1:3">
       <c r="A454" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -7226,10 +7221,10 @@
     </row>
     <row r="455" ht="21" spans="1:3">
       <c r="A455" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -7237,10 +7232,10 @@
     </row>
     <row r="456" ht="21" spans="1:3">
       <c r="A456" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -7248,10 +7243,10 @@
     </row>
     <row r="457" ht="21" spans="1:3">
       <c r="A457" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -7259,10 +7254,10 @@
     </row>
     <row r="458" ht="21" spans="1:3">
       <c r="A458" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -7270,10 +7265,10 @@
     </row>
     <row r="459" ht="21" spans="1:3">
       <c r="A459" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -7281,10 +7276,10 @@
     </row>
     <row r="460" ht="21" spans="1:3">
       <c r="A460" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -7292,10 +7287,10 @@
     </row>
     <row r="461" ht="21" spans="1:3">
       <c r="A461" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -7303,10 +7298,10 @@
     </row>
     <row r="462" ht="21" spans="1:3">
       <c r="A462" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -7314,10 +7309,10 @@
     </row>
     <row r="463" ht="21" spans="1:3">
       <c r="A463" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -7325,10 +7320,10 @@
     </row>
     <row r="464" ht="21" spans="1:3">
       <c r="A464" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -7336,10 +7331,10 @@
     </row>
     <row r="465" ht="21" spans="1:3">
       <c r="A465" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -7347,10 +7342,10 @@
     </row>
     <row r="466" ht="21" spans="1:3">
       <c r="A466" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -7358,10 +7353,10 @@
     </row>
     <row r="467" ht="21" spans="1:3">
       <c r="A467" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -7369,10 +7364,10 @@
     </row>
     <row r="468" ht="21" spans="1:3">
       <c r="A468" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -7380,10 +7375,10 @@
     </row>
     <row r="469" ht="21" spans="1:3">
       <c r="A469" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
@@ -7400,10 +7395,10 @@
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B472" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="B472" s="8" t="s">
-        <v>458</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -7411,10 +7406,10 @@
     </row>
     <row r="473" ht="21" spans="1:3">
       <c r="A473" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -7422,10 +7417,10 @@
     </row>
     <row r="474" ht="21" spans="1:3">
       <c r="A474" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -7433,10 +7428,10 @@
     </row>
     <row r="475" ht="21" spans="1:3">
       <c r="A475" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
@@ -7444,10 +7439,10 @@
     </row>
     <row r="476" ht="21" spans="1:3">
       <c r="A476" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -7455,10 +7450,10 @@
     </row>
     <row r="477" ht="21" spans="1:3">
       <c r="A477" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -7466,10 +7461,10 @@
     </row>
     <row r="478" ht="21" spans="1:3">
       <c r="A478" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
@@ -7477,10 +7472,10 @@
     </row>
     <row r="479" ht="21" spans="1:3">
       <c r="A479" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
@@ -7488,10 +7483,10 @@
     </row>
     <row r="480" ht="21" spans="1:3">
       <c r="A480" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
@@ -7499,10 +7494,10 @@
     </row>
     <row r="481" ht="21" spans="1:3">
       <c r="A481" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>
@@ -7519,400 +7514,399 @@
     <hyperlink ref="B12" r:id="rId7" display="Write a program to cyclically rotate an array by one."/>
     <hyperlink ref="B13" r:id="rId8" display="find Largest sum contiguous Subarray [V. IMP]"/>
     <hyperlink ref="B14" r:id="rId9" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId10" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId11" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId12" display="Merge 2 sorted arrays without using Extra space."/>
+    <hyperlink ref="B16" r:id="rId10" display="find duplicate in an array of N+1 Integers"/>
+    <hyperlink ref="B17" r:id="rId11" display="Merge 2 sorted arrays without using Extra space."/>
     <hyperlink ref="B18" r:id="rId8" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId13" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId14" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId15" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId16" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId17" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId18" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId19" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId20" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId21" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId22" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId23" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId24" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId25" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId26" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId27" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId28" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId29" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId30" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId31" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId32" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId33" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId35" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId36" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId37" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId38" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId39" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId40" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId41" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId42" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId43" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId44" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId45" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId46" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId47" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId48" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId49" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId50" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId51" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId52" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId53" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId54" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId55" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId56" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId57" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId58" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId59" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId60" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId61" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId62" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId63" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId64" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId65" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId66" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId67" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId68" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId69" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId70" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId71" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId72" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId73" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId74" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId75" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId76" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId77" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId79" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId81" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId82" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId83" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId84" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId85" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId86" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId87" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId88" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId89" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId90" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId91" display="square root of an integer"/>
-    <hyperlink ref="B106" r:id="rId92" display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId93" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId94" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId95" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId96" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId97" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B113" r:id="rId98" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId12" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId99" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId100" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId101" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId102" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId103" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId104" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId105" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId106" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId107" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId108" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId109" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId110" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId111" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId112" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId113" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId109" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId114" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId115" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId116" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId117" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId118" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B105" r:id="rId119" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B112" r:id="rId120" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B139" r:id="rId121" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId122" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId123" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId124" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId125" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId126" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId127" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId128" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId129" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId130" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId131" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId132" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId133" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId134" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId135" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId136" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId137" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId138" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId139" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId140" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId141" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId142" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId143" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId144" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId145" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId146" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId147" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId148" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId149" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId150" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId151" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId152" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId153" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId154" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId155" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId156" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId157" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId158" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId159" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId160" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId161" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId162" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId163" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId164" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId165" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId166" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId167" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId168" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId169" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId170" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId171" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId172" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId173" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId174" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId175" display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId176" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId177" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId178" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId179" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId180" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId181" display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId182" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId183" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId184" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId185" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId186" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId187" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId188" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId189" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId190" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId191" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId192" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId193" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId194" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId195" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId196" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId197" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId198" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId199" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId200" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId201" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId202" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId203" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId204" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId205" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId206" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId207" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId208" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId209" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId210" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId211" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId212" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId213" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId214" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId215" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId216" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId217" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId218" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId219" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId220" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId221" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId222" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId223" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId224" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId225" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId226" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId227" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId228" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId229" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId230" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId231" display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId232" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId233" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId234" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId29" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId235" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId236" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId237" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId238" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId239" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId240" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId241" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId242" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId243" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId244" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId245" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId246" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId247" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId248" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId249" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId250" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId251" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId253" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId254" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId255" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId256" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId257" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId55" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId258" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId259" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId260" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId261" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId262" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId263" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId264" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId265" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId266" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId267" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId60" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId268" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId269" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId270" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId271" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId272" display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId273" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId274" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId275" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId276" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId277" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId278" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId279" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId280" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId281" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId282" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId283" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId284" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId285" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId286" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId287" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId288" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId289" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId290" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId291" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId292" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId293" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId294" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId295" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId296" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId297" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId154" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId298" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId299" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId300" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId301" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId302" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId303" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId304" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId305" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId306" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId307" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId149" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId308" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId309" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId310" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId242" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId311" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId312" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId313" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B357" r:id="rId314" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId315" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId316" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId317" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId245" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId318" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId319" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId320" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId321" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId322" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId323" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId324" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId325" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId326" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId327" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId328" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId329" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId330" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId331" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId332" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId333" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId334" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId335" display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId336" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId337" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId338" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId339" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId340" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId341" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId342" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId343" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId344" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId258" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId250" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId346" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId347" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B396" r:id="rId348" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B395" r:id="rId349" display="Vertex Cover Problem"/>
-    <hyperlink ref="B397" r:id="rId350" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId222" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId351" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId352" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId353" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId354" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId355" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId356" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId357" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId358" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId359" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId360" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId361" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId362" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId58" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId363" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId364" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId365" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId366" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId367" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId75" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId53" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId368" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId369" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId370" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId371" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId372" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId373" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId374" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId375" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId376" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId377" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId378" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId379" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId380" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B19" r:id="rId12" display="Merge Intervals"/>
+    <hyperlink ref="B20" r:id="rId13" display="Next Permutation"/>
+    <hyperlink ref="B21" r:id="rId14" display="Count Inversion"/>
+    <hyperlink ref="B22" r:id="rId15" display="Best time to buy and Sell stock"/>
+    <hyperlink ref="B23" r:id="rId16" display="find all pairs on integer array whose sum is equal to given number"/>
+    <hyperlink ref="B24" r:id="rId17" display="find common elements In 3 sorted arrays"/>
+    <hyperlink ref="B25" r:id="rId18" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
+    <hyperlink ref="B26" r:id="rId19" display="Find if there is any subarray with sum equal to 0"/>
+    <hyperlink ref="B27" r:id="rId20" display="Find factorial of a large number"/>
+    <hyperlink ref="B28" r:id="rId21" display="find maximum product subarray "/>
+    <hyperlink ref="B29" r:id="rId22" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="B30" r:id="rId23" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
+    <hyperlink ref="B31" r:id="rId24" display="Maximum profit by buying and selling a share atmost twice"/>
+    <hyperlink ref="B32" r:id="rId25" display="Find whether an array is a subset of another array"/>
+    <hyperlink ref="B33" r:id="rId26" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="B34" r:id="rId27" display="Trapping Rain water problem"/>
+    <hyperlink ref="B35" r:id="rId28" display="Chocolate Distribution problem"/>
+    <hyperlink ref="B36" r:id="rId29" display="Smallest Subarray with sum greater than a given value"/>
+    <hyperlink ref="B37" r:id="rId30" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="B38" r:id="rId31" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="B39" r:id="rId32" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="B40" r:id="rId33" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B41" r:id="rId34" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="B44" r:id="rId35" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B45" r:id="rId36" display="Search an element in a matriix"/>
+    <hyperlink ref="B46" r:id="rId37" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B47" r:id="rId38" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B48" r:id="rId39" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B49" r:id="rId40" display="Maximum size rectangle"/>
+    <hyperlink ref="B50" r:id="rId41" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B51" r:id="rId42" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B52" r:id="rId43" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="B53" r:id="rId44" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B56" r:id="rId45" display="Reverse a String"/>
+    <hyperlink ref="B57" r:id="rId46" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="B58" r:id="rId47" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B60" r:id="rId48" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId49" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId50" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId51" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId52" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId53" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId54" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId55" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId56" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId57" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId58" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId59" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId60" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId61" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId62" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId63" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId64" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId65" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId66" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId67" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId68" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId69" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId70" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId71" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId72" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId73" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId74" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId75" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId76" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId78" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId80" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId81" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId82" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId83" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId84" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId85" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId86" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId87" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId88" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId89" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId90" display="square root of an integer"/>
+    <hyperlink ref="B106" r:id="rId91" display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId92" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId93" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId94" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId95" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId96" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B113" r:id="rId97" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B114" r:id="rId11" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B115" r:id="rId98" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId99" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId100" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId101" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId102" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId103" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId104" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId105" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId106" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId107" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId108" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId109" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId110" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId111" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId112" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId108" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId113" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId114" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId115" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId14" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId116" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId117" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B105" r:id="rId118" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B112" r:id="rId119" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B139" r:id="rId120" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId121" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId122" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId123" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId124" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId125" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId126" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId127" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId128" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId129" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId130" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId131" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId132" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId133" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId134" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId135" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId136" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId137" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId138" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId139" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId140" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId141" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId142" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId143" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId144" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId145" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId146" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId147" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId148" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId149" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId150" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId151" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId152" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId153" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId154" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId155" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId156" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId157" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId158" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId159" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId160" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId161" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId162" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId163" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId164" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId165" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId166" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId167" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId168" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId169" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId170" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId171" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId172" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId173" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId174" display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId175" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId176" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId177" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId178" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId179" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId180" display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId181" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId182" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId183" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId184" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId185" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId186" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId187" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId188" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId189" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId190" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId191" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId192" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId193" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId194" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId195" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId196" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId197" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId198" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId199" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId200" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId201" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId202" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId203" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId204" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId205" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId206" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId207" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId208" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId209" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId210" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId211" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId212" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId213" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId214" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId215" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId216" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId217" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId218" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId219" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId220" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId221" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId222" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId223" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId224" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId225" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId226" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId227" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId228" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId229" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId230" display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId231" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId232" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId233" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId28" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId234" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId235" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId236" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId237" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId238" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId239" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId240" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId241" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId242" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId243" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId244" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId245" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId246" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId247" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId248" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId249" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId250" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId251" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId252" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId253" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId254" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId255" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId256" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId54" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId257" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId258" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId259" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId260" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId261" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId262" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId263" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId264" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId265" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId266" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId59" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId267" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId268" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId269" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId270" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId271" display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId272" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId273" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId274" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId275" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId276" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId277" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId278" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId279" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId280" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId281" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId282" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId283" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId284" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId285" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId286" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId287" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId288" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId289" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId290" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId291" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId292" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId293" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId294" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId295" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId296" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId153" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId297" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId298" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId299" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId300" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId301" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId302" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId303" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId304" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId305" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId306" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId148" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId307" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId308" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId309" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId241" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId310" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId311" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId312" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B357" r:id="rId313" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId314" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId315" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId316" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId244" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId317" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId318" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId319" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId320" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId321" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId322" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId323" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId324" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId325" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId326" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId327" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId328" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId329" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId330" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId331" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId332" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId333" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId334" display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId335" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId336" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId337" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId338" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId339" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId340" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId341" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId342" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId343" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId344" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId344" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId257" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId249" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId345" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId346" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B396" r:id="rId347" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B395" r:id="rId348" display="Vertex Cover Problem"/>
+    <hyperlink ref="B397" r:id="rId349" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId221" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId350" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId351" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId352" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId353" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId354" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId355" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId356" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId357" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId358" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId359" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId360" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId361" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId57" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId251" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId362" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId363" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId364" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId365" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId366" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId74" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId52" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId367" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId368" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId369" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId370" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId371" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId372" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId373" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId374" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId375" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId376" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId377" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId378" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId379" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId380" display="Minimum number of jumps to reach end"/>
     <hyperlink ref="B439" r:id="rId381" display="Minimum cost to fill given weight in a bag"/>
     <hyperlink ref="B440" r:id="rId382" display="Minimum removals from array to make max –min &lt;= K"/>
     <hyperlink ref="B441" r:id="rId383" display="Longest Common Substring"/>
@@ -7921,21 +7915,21 @@
     <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
     <hyperlink ref="B445" r:id="rId386" display="Smallest sum contiguous subarray"/>
     <hyperlink ref="B446" r:id="rId387" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId61" display="Word Break Problem"/>
+    <hyperlink ref="B447" r:id="rId60" display="Word Break Problem"/>
     <hyperlink ref="B448" r:id="rId388" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId252" display="Partition problem"/>
-    <hyperlink ref="B451" r:id="rId66" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B449" r:id="rId251" display="Partition problem"/>
+    <hyperlink ref="B451" r:id="rId65" display="Count All Palindromic Subsequence in a given String"/>
     <hyperlink ref="B450" r:id="rId389" display="Longest Palindromic Subsequence"/>
     <hyperlink ref="B452" r:id="rId390" display="Longest Palindromic Substring"/>
     <hyperlink ref="B453" r:id="rId391" display="Longest alternating subsequence"/>
     <hyperlink ref="B454" r:id="rId392" display="Weighted Job Scheduling"/>
     <hyperlink ref="B455" r:id="rId393" display="Coin game winner where every player has three choices"/>
     <hyperlink ref="B456" r:id="rId394" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B457" r:id="rId24" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
     <hyperlink ref="B458" r:id="rId395" display="Optimal Strategy for a Game"/>
     <hyperlink ref="B459" r:id="rId396" display="Optimal Binary Search Tree"/>
     <hyperlink ref="B460" r:id="rId397" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId57" display="Word Wrap Problem"/>
+    <hyperlink ref="B461" r:id="rId56" display="Word Wrap Problem"/>
     <hyperlink ref="B462" r:id="rId398" display="Mobile Numeric Keypad Problem [ IMP ]"/>
     <hyperlink ref="B469" r:id="rId399" display="Maximum Length of Pair Chain"/>
     <hyperlink ref="B468" r:id="rId400" display="Find if a string is interleaved of two other strings"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1422,9 +1422,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -1500,7 +1500,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1508,29 +1515,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1544,15 +1528,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1563,6 +1541,14 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1577,22 +1563,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1620,8 +1590,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,7 +1651,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,79 +1807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,85 +1825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,30 +1845,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1876,15 +1852,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1928,6 +1895,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1945,146 +1945,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2434,8 +2434,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="C412" sqref="C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -6732,7 +6732,7 @@
         <v>397</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411" ht="21" spans="1:3">
@@ -6743,7 +6743,7 @@
         <v>398</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1422,10 +1422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1520,9 +1520,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1536,26 +1543,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1598,8 +1590,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1613,30 +1627,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,19 +1651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,19 +1675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,7 +1693,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,7 +1783,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,103 +1825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,17 +1842,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1898,17 +1887,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1928,17 +1923,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1948,10 +1948,10 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1964,127 +1964,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2435,7 +2435,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="C412" sqref="C412"/>
+      <selection activeCell="C413" sqref="C413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -6754,7 +6754,7 @@
         <v>399</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1422,10 +1422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1500,16 +1500,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1520,16 +1520,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1590,9 +1598,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1606,20 +1613,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1634,13 +1641,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1651,19 +1651,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,127 +1681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,7 +1705,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,13 +1807,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,6 +1842,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1894,21 +1909,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1925,6 +1925,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1933,158 +1942,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2435,7 +2435,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="C413" sqref="C413"/>
+      <selection activeCell="C415" sqref="C415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -6765,7 +6765,7 @@
         <v>400</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414" ht="21" spans="1:3">
@@ -6776,7 +6776,7 @@
         <v>401</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="415" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1422,10 +1422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1500,6 +1500,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1508,20 +1515,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1535,9 +1528,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1574,14 +1582,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1613,7 +1613,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1628,15 +1636,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,13 +1651,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,31 +1693,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,49 +1735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,13 +1753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,13 +1771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,31 +1789,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1945,53 +1945,53 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2003,88 +2003,88 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2435,7 +2435,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="C415" sqref="C415"/>
+      <selection activeCell="C416" sqref="C416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -6787,7 +6787,7 @@
         <v>402</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1422,10 +1422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1500,9 +1500,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1510,6 +1510,21 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1521,18 +1536,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1559,14 +1566,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1579,6 +1578,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1599,21 +1606,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,16 +1635,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,7 +1651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,25 +1675,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,25 +1723,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,7 +1753,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,19 +1777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,31 +1795,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,37 +1831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1846,16 +1846,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1871,15 +1880,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1909,25 +1909,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1942,149 +1933,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2435,7 +2435,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="C416" sqref="C416"/>
+      <selection activeCell="C417" sqref="C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -6798,7 +6798,7 @@
         <v>403</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1422,9 +1422,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -1500,7 +1500,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1515,31 +1536,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1561,6 +1560,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1605,28 +1627,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1651,13 +1651,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,37 +1699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,13 +1723,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,13 +1789,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,73 +1819,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,6 +1842,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1860,11 +1875,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1884,17 +1905,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1904,21 +1919,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1945,80 +1945,80 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2027,64 +2027,64 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2434,8 +2434,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="C417" sqref="C417"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -4279,7 +4279,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
@@ -4290,14 +4290,14 @@
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
       <c r="A179" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1422,10 +1422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1507,21 +1507,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1534,24 +1520,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1570,21 +1541,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1629,7 +1585,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,6 +1622,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,7 +1651,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,7 +1765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,49 +1783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,7 +1795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,19 +1813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,67 +1831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,6 +1842,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1856,6 +1880,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1890,35 +1923,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1933,25 +1942,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1964,127 +1964,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2435,7 +2435,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -4301,7 +4301,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
@@ -4312,7 +4312,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
@@ -4323,7 +4323,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1424,8 +1424,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1502,14 +1502,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1523,6 +1523,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1585,7 +1592,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1599,22 +1606,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1628,7 +1620,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,31 +1651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,13 +1675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,13 +1699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1735,19 +1723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,7 +1741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,7 +1753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,13 +1771,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,31 +1825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1894,6 +1894,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1904,21 +1919,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1945,146 +1945,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2435,7 +2435,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -4330,11 +4330,11 @@
       <c r="A182" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="7" t="s">
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" ht="21" spans="1:3">
@@ -4345,7 +4345,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
@@ -4356,7 +4356,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1422,9 +1422,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -1502,6 +1502,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1509,12 +1524,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1529,7 +1552,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1544,10 +1567,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1566,56 +1612,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1626,9 +1627,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,7 +1651,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,13 +1681,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,55 +1729,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,43 +1765,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,37 +1801,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,26 +1845,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1884,25 +1884,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1926,8 +1917,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1945,146 +1945,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2434,8 +2434,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -4367,7 +4367,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
@@ -4378,14 +4378,14 @@
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
       <c r="A187" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1422,10 +1422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1507,45 +1507,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1559,31 +1521,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1591,7 +1529,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1612,16 +1550,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1634,9 +1628,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,7 +1651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,19 +1675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,13 +1687,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,49 +1711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,7 +1735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,7 +1747,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,7 +1783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,7 +1807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,13 +1825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,6 +1842,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1869,60 +1923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1945,7 +1945,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1964,127 +1964,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2434,8 +2434,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -4389,7 +4389,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1422,10 +1422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1500,16 +1500,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1520,18 +1520,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1566,8 +1566,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1581,14 +1597,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1597,24 +1605,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1623,20 +1637,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,37 +1651,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,7 +1717,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,121 +1825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,30 +1842,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1908,15 +1884,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1934,6 +1901,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1945,146 +1945,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2434,8 +2434,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -4422,7 +4422,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1423,9 +1423,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1500,20 +1500,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1521,30 +1507,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1558,6 +1521,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1566,16 +1536,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1584,6 +1547,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1605,6 +1575,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1621,7 +1607,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1634,9 +1628,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,19 +1651,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,19 +1687,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,13 +1717,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,31 +1747,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,13 +1771,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,55 +1819,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1860,15 +1860,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1880,6 +1871,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1902,189 +1937,154 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2434,8 +2434,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -4433,7 +4433,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t>&lt;YES&gt;</t>
   </si>
   <si>
     <t>Convert Binary tree into Sum tree</t>
@@ -1423,9 +1426,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1507,7 +1510,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1521,34 +1554,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1564,6 +1574,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1583,24 +1601,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1628,8 +1630,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,7 +1660,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,19 +1708,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,145 +1834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,6 +1845,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1856,6 +1874,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1879,42 +1906,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1942,149 +1934,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2435,7 +2438,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -4444,14 +4447,14 @@
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
       <c r="A193" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
@@ -4466,7 +4469,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>5</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" ht="21" spans="1:3">
@@ -4474,7 +4477,7 @@
         <v>173</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>5</v>
@@ -4485,7 +4488,7 @@
         <v>173</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>5</v>
@@ -4496,7 +4499,7 @@
         <v>173</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>5</v>
@@ -4507,7 +4510,7 @@
         <v>173</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>5</v>
@@ -4518,7 +4521,7 @@
         <v>173</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>5</v>
@@ -4529,7 +4532,7 @@
         <v>173</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>5</v>
@@ -4540,7 +4543,7 @@
         <v>173</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>5</v>
@@ -4551,7 +4554,7 @@
         <v>173</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>5</v>
@@ -4562,7 +4565,7 @@
         <v>173</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>5</v>
@@ -4573,7 +4576,7 @@
         <v>173</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>5</v>
@@ -4584,7 +4587,7 @@
         <v>173</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>5</v>
@@ -4595,7 +4598,7 @@
         <v>173</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>5</v>
@@ -4606,7 +4609,7 @@
         <v>173</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>5</v>
@@ -4617,7 +4620,7 @@
         <v>173</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>5</v>
@@ -4628,7 +4631,7 @@
         <v>173</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>5</v>
@@ -4639,7 +4642,7 @@
         <v>173</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>5</v>
@@ -4650,7 +4653,7 @@
         <v>173</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>5</v>
@@ -4668,10 +4671,10 @@
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>5</v>
@@ -4679,10 +4682,10 @@
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>5</v>
@@ -4690,10 +4693,10 @@
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>5</v>
@@ -4701,10 +4704,10 @@
     </row>
     <row r="217" ht="21" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>5</v>
@@ -4712,10 +4715,10 @@
     </row>
     <row r="218" ht="21" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>5</v>
@@ -4723,10 +4726,10 @@
     </row>
     <row r="219" ht="21" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>5</v>
@@ -4734,10 +4737,10 @@
     </row>
     <row r="220" ht="21" spans="1:3">
       <c r="A220" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>5</v>
@@ -4745,10 +4748,10 @@
     </row>
     <row r="221" ht="21" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>5</v>
@@ -4756,10 +4759,10 @@
     </row>
     <row r="222" ht="21" spans="1:3">
       <c r="A222" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>5</v>
@@ -4767,10 +4770,10 @@
     </row>
     <row r="223" ht="21" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>5</v>
@@ -4778,10 +4781,10 @@
     </row>
     <row r="224" ht="21" spans="1:3">
       <c r="A224" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>5</v>
@@ -4789,10 +4792,10 @@
     </row>
     <row r="225" ht="21" spans="1:3">
       <c r="A225" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>5</v>
@@ -4800,10 +4803,10 @@
     </row>
     <row r="226" ht="21" spans="1:3">
       <c r="A226" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>5</v>
@@ -4811,10 +4814,10 @@
     </row>
     <row r="227" ht="21" spans="1:3">
       <c r="A227" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>5</v>
@@ -4822,10 +4825,10 @@
     </row>
     <row r="228" ht="21" spans="1:3">
       <c r="A228" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>5</v>
@@ -4833,10 +4836,10 @@
     </row>
     <row r="229" ht="21" spans="1:3">
       <c r="A229" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>5</v>
@@ -4844,10 +4847,10 @@
     </row>
     <row r="230" ht="21" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>5</v>
@@ -4855,10 +4858,10 @@
     </row>
     <row r="231" ht="21" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>5</v>
@@ -4866,10 +4869,10 @@
     </row>
     <row r="232" ht="21" spans="1:3">
       <c r="A232" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>5</v>
@@ -4877,10 +4880,10 @@
     </row>
     <row r="233" ht="21" spans="1:3">
       <c r="A233" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>5</v>
@@ -4888,10 +4891,10 @@
     </row>
     <row r="234" ht="21" spans="1:3">
       <c r="A234" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>5</v>
@@ -4899,10 +4902,10 @@
     </row>
     <row r="235" ht="21" spans="1:3">
       <c r="A235" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>5</v>
@@ -4918,10 +4921,10 @@
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>5</v>
@@ -4929,10 +4932,10 @@
     </row>
     <row r="239" ht="21" spans="1:3">
       <c r="A239" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>5</v>
@@ -4940,10 +4943,10 @@
     </row>
     <row r="240" ht="21" spans="1:3">
       <c r="A240" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>5</v>
@@ -4951,10 +4954,10 @@
     </row>
     <row r="241" ht="21" spans="1:3">
       <c r="A241" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>5</v>
@@ -4962,21 +4965,21 @@
     </row>
     <row r="242" ht="21" spans="1:3">
       <c r="A242" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="243" ht="21" spans="1:3">
       <c r="A243" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>5</v>
@@ -4984,10 +4987,10 @@
     </row>
     <row r="244" ht="21" spans="1:3">
       <c r="A244" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>5</v>
@@ -4995,10 +4998,10 @@
     </row>
     <row r="245" ht="21" spans="1:3">
       <c r="A245" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>5</v>
@@ -5006,10 +5009,10 @@
     </row>
     <row r="246" ht="21" spans="1:3">
       <c r="A246" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>5</v>
@@ -5017,10 +5020,10 @@
     </row>
     <row r="247" ht="21" spans="1:3">
       <c r="A247" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>5</v>
@@ -5028,10 +5031,10 @@
     </row>
     <row r="248" ht="21" spans="1:3">
       <c r="A248" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>5</v>
@@ -5039,10 +5042,10 @@
     </row>
     <row r="249" ht="21" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>5</v>
@@ -5050,10 +5053,10 @@
     </row>
     <row r="250" ht="21" spans="1:3">
       <c r="A250" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>5</v>
@@ -5061,10 +5064,10 @@
     </row>
     <row r="251" ht="21" spans="1:3">
       <c r="A251" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>5</v>
@@ -5072,10 +5075,10 @@
     </row>
     <row r="252" ht="21" spans="1:3">
       <c r="A252" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>5</v>
@@ -5083,10 +5086,10 @@
     </row>
     <row r="253" ht="21" spans="1:3">
       <c r="A253" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>5</v>
@@ -5094,10 +5097,10 @@
     </row>
     <row r="254" ht="21" spans="1:3">
       <c r="A254" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>5</v>
@@ -5105,10 +5108,10 @@
     </row>
     <row r="255" ht="21" spans="1:3">
       <c r="A255" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>5</v>
@@ -5116,10 +5119,10 @@
     </row>
     <row r="256" ht="21" spans="1:3">
       <c r="A256" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>5</v>
@@ -5127,10 +5130,10 @@
     </row>
     <row r="257" ht="21" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>5</v>
@@ -5138,10 +5141,10 @@
     </row>
     <row r="258" ht="21" spans="1:3">
       <c r="A258" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>5</v>
@@ -5149,10 +5152,10 @@
     </row>
     <row r="259" ht="21" spans="1:3">
       <c r="A259" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>5</v>
@@ -5160,10 +5163,10 @@
     </row>
     <row r="260" ht="21" spans="1:3">
       <c r="A260" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>5</v>
@@ -5171,10 +5174,10 @@
     </row>
     <row r="261" ht="21" spans="1:3">
       <c r="A261" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>5</v>
@@ -5182,10 +5185,10 @@
     </row>
     <row r="262" ht="21" spans="1:3">
       <c r="A262" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>5</v>
@@ -5193,10 +5196,10 @@
     </row>
     <row r="263" ht="21" spans="1:3">
       <c r="A263" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>5</v>
@@ -5204,10 +5207,10 @@
     </row>
     <row r="264" ht="21" spans="1:3">
       <c r="A264" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>5</v>
@@ -5215,10 +5218,10 @@
     </row>
     <row r="265" ht="21" spans="1:3">
       <c r="A265" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>5</v>
@@ -5226,10 +5229,10 @@
     </row>
     <row r="266" ht="21" spans="1:3">
       <c r="A266" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>5</v>
@@ -5237,10 +5240,10 @@
     </row>
     <row r="267" ht="21" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>5</v>
@@ -5248,10 +5251,10 @@
     </row>
     <row r="268" ht="21" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>5</v>
@@ -5259,10 +5262,10 @@
     </row>
     <row r="269" ht="21" spans="1:3">
       <c r="A269" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>5</v>
@@ -5270,10 +5273,10 @@
     </row>
     <row r="270" ht="21" spans="1:3">
       <c r="A270" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>5</v>
@@ -5281,7 +5284,7 @@
     </row>
     <row r="271" ht="21" spans="1:3">
       <c r="A271" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>89</v>
@@ -5292,10 +5295,10 @@
     </row>
     <row r="272" ht="21" spans="1:3">
       <c r="A272" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>5</v>
@@ -5311,10 +5314,10 @@
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>5</v>
@@ -5322,10 +5325,10 @@
     </row>
     <row r="276" ht="21" spans="1:3">
       <c r="A276" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>5</v>
@@ -5333,10 +5336,10 @@
     </row>
     <row r="277" ht="21" spans="1:3">
       <c r="A277" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>5</v>
@@ -5344,10 +5347,10 @@
     </row>
     <row r="278" ht="21" spans="1:3">
       <c r="A278" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>5</v>
@@ -5355,10 +5358,10 @@
     </row>
     <row r="279" ht="21" spans="1:3">
       <c r="A279" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>5</v>
@@ -5366,10 +5369,10 @@
     </row>
     <row r="280" ht="21" spans="1:3">
       <c r="A280" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>5</v>
@@ -5377,10 +5380,10 @@
     </row>
     <row r="281" ht="21" spans="1:3">
       <c r="A281" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>5</v>
@@ -5388,10 +5391,10 @@
     </row>
     <row r="282" ht="21" spans="1:3">
       <c r="A282" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>5</v>
@@ -5399,10 +5402,10 @@
     </row>
     <row r="283" ht="21" spans="1:3">
       <c r="A283" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>5</v>
@@ -5410,10 +5413,10 @@
     </row>
     <row r="284" ht="21" spans="1:3">
       <c r="A284" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>5</v>
@@ -5421,10 +5424,10 @@
     </row>
     <row r="285" ht="21" spans="1:3">
       <c r="A285" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>5</v>
@@ -5432,10 +5435,10 @@
     </row>
     <row r="286" ht="21" spans="1:3">
       <c r="A286" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>5</v>
@@ -5443,10 +5446,10 @@
     </row>
     <row r="287" ht="21" spans="1:3">
       <c r="A287" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>5</v>
@@ -5454,10 +5457,10 @@
     </row>
     <row r="288" ht="21" spans="1:3">
       <c r="A288" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>5</v>
@@ -5465,10 +5468,10 @@
     </row>
     <row r="289" ht="21" spans="1:3">
       <c r="A289" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>5</v>
@@ -5476,10 +5479,10 @@
     </row>
     <row r="290" ht="21" spans="1:3">
       <c r="A290" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>5</v>
@@ -5487,10 +5490,10 @@
     </row>
     <row r="291" ht="21" spans="1:3">
       <c r="A291" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>5</v>
@@ -5498,10 +5501,10 @@
     </row>
     <row r="292" ht="21" spans="1:3">
       <c r="A292" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>5</v>
@@ -5509,10 +5512,10 @@
     </row>
     <row r="293" ht="21" spans="1:3">
       <c r="A293" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>5</v>
@@ -5528,10 +5531,10 @@
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>5</v>
@@ -5539,10 +5542,10 @@
     </row>
     <row r="297" ht="21" spans="1:3">
       <c r="A297" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>5</v>
@@ -5550,10 +5553,10 @@
     </row>
     <row r="298" ht="21" spans="1:3">
       <c r="A298" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>5</v>
@@ -5561,10 +5564,10 @@
     </row>
     <row r="299" ht="21" spans="1:3">
       <c r="A299" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>5</v>
@@ -5572,10 +5575,10 @@
     </row>
     <row r="300" ht="21" spans="1:3">
       <c r="A300" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>5</v>
@@ -5583,10 +5586,10 @@
     </row>
     <row r="301" ht="21" spans="1:3">
       <c r="A301" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>5</v>
@@ -5594,10 +5597,10 @@
     </row>
     <row r="302" ht="21" spans="1:3">
       <c r="A302" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>5</v>
@@ -5605,10 +5608,10 @@
     </row>
     <row r="303" ht="21" spans="1:3">
       <c r="A303" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>5</v>
@@ -5616,10 +5619,10 @@
     </row>
     <row r="304" ht="21" spans="1:3">
       <c r="A304" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
@@ -5627,10 +5630,10 @@
     </row>
     <row r="305" ht="21" spans="1:3">
       <c r="A305" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
@@ -5638,10 +5641,10 @@
     </row>
     <row r="306" ht="21" spans="1:3">
       <c r="A306" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>5</v>
@@ -5649,10 +5652,10 @@
     </row>
     <row r="307" ht="21" spans="1:3">
       <c r="A307" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>5</v>
@@ -5660,10 +5663,10 @@
     </row>
     <row r="308" ht="21" spans="1:3">
       <c r="A308" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>5</v>
@@ -5671,10 +5674,10 @@
     </row>
     <row r="309" ht="21" spans="1:3">
       <c r="A309" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
@@ -5682,10 +5685,10 @@
     </row>
     <row r="310" ht="21" spans="1:3">
       <c r="A310" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>5</v>
@@ -5693,10 +5696,10 @@
     </row>
     <row r="311" ht="21" spans="1:3">
       <c r="A311" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>5</v>
@@ -5704,10 +5707,10 @@
     </row>
     <row r="312" ht="21" spans="1:3">
       <c r="A312" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
@@ -5715,10 +5718,10 @@
     </row>
     <row r="313" ht="21" spans="1:3">
       <c r="A313" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>5</v>
@@ -5726,10 +5729,10 @@
     </row>
     <row r="314" ht="21" spans="1:3">
       <c r="A314" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
@@ -5737,10 +5740,10 @@
     </row>
     <row r="315" ht="21" spans="1:3">
       <c r="A315" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>5</v>
@@ -5748,10 +5751,10 @@
     </row>
     <row r="316" ht="21" spans="1:3">
       <c r="A316" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>5</v>
@@ -5759,10 +5762,10 @@
     </row>
     <row r="317" ht="21" spans="1:3">
       <c r="A317" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>5</v>
@@ -5770,10 +5773,10 @@
     </row>
     <row r="318" ht="21" spans="1:3">
       <c r="A318" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>5</v>
@@ -5781,10 +5784,10 @@
     </row>
     <row r="319" ht="21" spans="1:3">
       <c r="A319" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
@@ -5792,10 +5795,10 @@
     </row>
     <row r="320" ht="21" spans="1:3">
       <c r="A320" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>5</v>
@@ -5803,10 +5806,10 @@
     </row>
     <row r="321" ht="21" spans="1:3">
       <c r="A321" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>5</v>
@@ -5814,10 +5817,10 @@
     </row>
     <row r="322" ht="21" spans="1:3">
       <c r="A322" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>5</v>
@@ -5825,10 +5828,10 @@
     </row>
     <row r="323" ht="21" spans="1:3">
       <c r="A323" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>5</v>
@@ -5836,10 +5839,10 @@
     </row>
     <row r="324" ht="21" spans="1:3">
       <c r="A324" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>5</v>
@@ -5847,10 +5850,10 @@
     </row>
     <row r="325" ht="21" spans="1:3">
       <c r="A325" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>5</v>
@@ -5858,10 +5861,10 @@
     </row>
     <row r="326" ht="21" spans="1:3">
       <c r="A326" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
@@ -5869,10 +5872,10 @@
     </row>
     <row r="327" ht="21" spans="1:3">
       <c r="A327" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
@@ -5880,10 +5883,10 @@
     </row>
     <row r="328" ht="21" spans="1:3">
       <c r="A328" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
@@ -5891,10 +5894,10 @@
     </row>
     <row r="329" ht="21" spans="1:3">
       <c r="A329" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
@@ -5902,10 +5905,10 @@
     </row>
     <row r="330" ht="21" spans="1:3">
       <c r="A330" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
@@ -5913,10 +5916,10 @@
     </row>
     <row r="331" ht="21" spans="1:3">
       <c r="A331" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
@@ -5924,10 +5927,10 @@
     </row>
     <row r="332" ht="21" spans="1:3">
       <c r="A332" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
@@ -5935,10 +5938,10 @@
     </row>
     <row r="333" ht="21" spans="1:3">
       <c r="A333" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
@@ -5954,10 +5957,10 @@
     </row>
     <row r="336" ht="21" spans="1:3">
       <c r="A336" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>5</v>
@@ -5965,10 +5968,10 @@
     </row>
     <row r="337" ht="21" spans="1:3">
       <c r="A337" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
@@ -5976,10 +5979,10 @@
     </row>
     <row r="338" ht="21" spans="1:3">
       <c r="A338" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
@@ -5987,10 +5990,10 @@
     </row>
     <row r="339" ht="21" spans="1:3">
       <c r="A339" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
@@ -5998,10 +6001,10 @@
     </row>
     <row r="340" ht="21" spans="1:3">
       <c r="A340" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
@@ -6009,10 +6012,10 @@
     </row>
     <row r="341" ht="21" spans="1:3">
       <c r="A341" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
@@ -6020,10 +6023,10 @@
     </row>
     <row r="342" ht="21" spans="1:3">
       <c r="A342" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
@@ -6031,10 +6034,10 @@
     </row>
     <row r="343" ht="21" spans="1:3">
       <c r="A343" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
@@ -6042,10 +6045,10 @@
     </row>
     <row r="344" ht="21" spans="1:3">
       <c r="A344" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
@@ -6053,10 +6056,10 @@
     </row>
     <row r="345" ht="21" spans="1:3">
       <c r="A345" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
@@ -6064,10 +6067,10 @@
     </row>
     <row r="346" ht="21" spans="1:3">
       <c r="A346" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
@@ -6075,10 +6078,10 @@
     </row>
     <row r="347" ht="21" spans="1:3">
       <c r="A347" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
@@ -6086,10 +6089,10 @@
     </row>
     <row r="348" ht="21" spans="1:3">
       <c r="A348" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
@@ -6097,10 +6100,10 @@
     </row>
     <row r="349" ht="21" spans="1:3">
       <c r="A349" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
@@ -6108,10 +6111,10 @@
     </row>
     <row r="350" ht="21" spans="1:3">
       <c r="A350" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
@@ -6119,10 +6122,10 @@
     </row>
     <row r="351" ht="21" spans="1:3">
       <c r="A351" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
@@ -6130,10 +6133,10 @@
     </row>
     <row r="352" ht="21" spans="1:3">
       <c r="A352" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
@@ -6141,10 +6144,10 @@
     </row>
     <row r="353" ht="21" spans="1:3">
       <c r="A353" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
@@ -6160,10 +6163,10 @@
     </row>
     <row r="356" ht="21" spans="1:3">
       <c r="A356" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>5</v>
@@ -6171,76 +6174,76 @@
     </row>
     <row r="357" ht="21" spans="1:3">
       <c r="A357" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
       <c r="A358" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
       <c r="A359" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
       <c r="A360" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
       <c r="A361" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
       <c r="A362" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
       <c r="A363" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
@@ -6248,10 +6251,10 @@
     </row>
     <row r="364" ht="21" spans="1:3">
       <c r="A364" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
@@ -6259,10 +6262,10 @@
     </row>
     <row r="365" ht="21" spans="1:3">
       <c r="A365" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
@@ -6270,10 +6273,10 @@
     </row>
     <row r="366" ht="21" spans="1:3">
       <c r="A366" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
@@ -6281,10 +6284,10 @@
     </row>
     <row r="367" ht="21" spans="1:3">
       <c r="A367" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
@@ -6292,10 +6295,10 @@
     </row>
     <row r="368" ht="21" spans="1:3">
       <c r="A368" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
@@ -6303,10 +6306,10 @@
     </row>
     <row r="369" ht="21" spans="1:3">
       <c r="A369" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
@@ -6314,10 +6317,10 @@
     </row>
     <row r="370" ht="21" spans="1:3">
       <c r="A370" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
@@ -6325,10 +6328,10 @@
     </row>
     <row r="371" ht="21" spans="1:3">
       <c r="A371" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
@@ -6336,10 +6339,10 @@
     </row>
     <row r="372" ht="21" spans="1:3">
       <c r="A372" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
@@ -6347,10 +6350,10 @@
     </row>
     <row r="373" ht="21" spans="1:3">
       <c r="A373" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
@@ -6358,10 +6361,10 @@
     </row>
     <row r="374" ht="21" spans="1:3">
       <c r="A374" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
@@ -6369,10 +6372,10 @@
     </row>
     <row r="375" ht="21" spans="1:3">
       <c r="A375" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
@@ -6380,10 +6383,10 @@
     </row>
     <row r="376" ht="21" spans="1:3">
       <c r="A376" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
@@ -6391,10 +6394,10 @@
     </row>
     <row r="377" ht="21" spans="1:3">
       <c r="A377" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
@@ -6402,10 +6405,10 @@
     </row>
     <row r="378" ht="21" spans="1:3">
       <c r="A378" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
@@ -6413,10 +6416,10 @@
     </row>
     <row r="379" ht="21" spans="1:3">
       <c r="A379" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
@@ -6424,10 +6427,10 @@
     </row>
     <row r="380" ht="21" spans="1:3">
       <c r="A380" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
@@ -6435,10 +6438,10 @@
     </row>
     <row r="381" ht="21" spans="1:3">
       <c r="A381" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
@@ -6446,10 +6449,10 @@
     </row>
     <row r="382" ht="21" spans="1:3">
       <c r="A382" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
@@ -6457,10 +6460,10 @@
     </row>
     <row r="383" ht="21" spans="1:3">
       <c r="A383" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
@@ -6468,10 +6471,10 @@
     </row>
     <row r="384" ht="21" spans="1:3">
       <c r="A384" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
@@ -6479,10 +6482,10 @@
     </row>
     <row r="385" ht="21" spans="1:3">
       <c r="A385" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
@@ -6490,10 +6493,10 @@
     </row>
     <row r="386" ht="21" spans="1:3">
       <c r="A386" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
@@ -6501,10 +6504,10 @@
     </row>
     <row r="387" ht="21" spans="1:3">
       <c r="A387" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
@@ -6512,10 +6515,10 @@
     </row>
     <row r="388" ht="21" spans="1:3">
       <c r="A388" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
@@ -6523,10 +6526,10 @@
     </row>
     <row r="389" ht="21" spans="1:3">
       <c r="A389" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
@@ -6534,10 +6537,10 @@
     </row>
     <row r="390" ht="21" spans="1:3">
       <c r="A390" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
@@ -6545,10 +6548,10 @@
     </row>
     <row r="391" ht="21" spans="1:3">
       <c r="A391" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
@@ -6556,10 +6559,10 @@
     </row>
     <row r="392" ht="21" spans="1:3">
       <c r="A392" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
@@ -6567,10 +6570,10 @@
     </row>
     <row r="393" ht="21" spans="1:3">
       <c r="A393" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
@@ -6578,10 +6581,10 @@
     </row>
     <row r="394" ht="21" spans="1:3">
       <c r="A394" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
@@ -6589,10 +6592,10 @@
     </row>
     <row r="395" ht="21" spans="1:3">
       <c r="A395" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -6600,10 +6603,10 @@
     </row>
     <row r="396" ht="21" spans="1:3">
       <c r="A396" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -6611,10 +6614,10 @@
     </row>
     <row r="397" ht="21" spans="1:3">
       <c r="A397" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -6622,10 +6625,10 @@
     </row>
     <row r="398" ht="21" spans="1:3">
       <c r="A398" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -6633,10 +6636,10 @@
     </row>
     <row r="399" ht="21" spans="1:3">
       <c r="A399" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -6652,10 +6655,10 @@
     </row>
     <row r="402" ht="21" spans="1:3">
       <c r="A402" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
@@ -6663,10 +6666,10 @@
     </row>
     <row r="403" ht="21" spans="1:3">
       <c r="A403" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
@@ -6674,10 +6677,10 @@
     </row>
     <row r="404" ht="21" spans="1:3">
       <c r="A404" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -6685,7 +6688,7 @@
     </row>
     <row r="405" ht="21" spans="1:3">
       <c r="A405" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>91</v>
@@ -6696,10 +6699,10 @@
     </row>
     <row r="406" ht="21" spans="1:3">
       <c r="A406" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -6707,10 +6710,10 @@
     </row>
     <row r="407" ht="21" spans="1:3">
       <c r="A407" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
@@ -6726,10 +6729,10 @@
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>8</v>
@@ -6737,10 +6740,10 @@
     </row>
     <row r="411" ht="21" spans="1:3">
       <c r="A411" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>10</v>
@@ -6748,10 +6751,10 @@
     </row>
     <row r="412" ht="21" spans="1:3">
       <c r="A412" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>10</v>
@@ -6759,10 +6762,10 @@
     </row>
     <row r="413" ht="21" spans="1:3">
       <c r="A413" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>10</v>
@@ -6770,10 +6773,10 @@
     </row>
     <row r="414" ht="21" spans="1:3">
       <c r="A414" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>10</v>
@@ -6781,10 +6784,10 @@
     </row>
     <row r="415" ht="21" spans="1:3">
       <c r="A415" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>10</v>
@@ -6792,10 +6795,10 @@
     </row>
     <row r="416" ht="21" spans="1:3">
       <c r="A416" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>10</v>
@@ -6803,10 +6806,10 @@
     </row>
     <row r="417" ht="21" spans="1:3">
       <c r="A417" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>5</v>
@@ -6814,10 +6817,10 @@
     </row>
     <row r="418" ht="21" spans="1:3">
       <c r="A418" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
@@ -6825,10 +6828,10 @@
     </row>
     <row r="419" ht="21" spans="1:3">
       <c r="A419" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
@@ -6836,10 +6839,10 @@
     </row>
     <row r="420" ht="21" spans="1:3">
       <c r="A420" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
@@ -6847,10 +6850,10 @@
     </row>
     <row r="421" ht="21" spans="1:3">
       <c r="A421" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
@@ -6858,10 +6861,10 @@
     </row>
     <row r="422" ht="21" spans="1:3">
       <c r="A422" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
@@ -6869,10 +6872,10 @@
     </row>
     <row r="423" ht="21" spans="1:3">
       <c r="A423" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
@@ -6880,10 +6883,10 @@
     </row>
     <row r="424" ht="21" spans="1:3">
       <c r="A424" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
@@ -6891,10 +6894,10 @@
     </row>
     <row r="425" ht="21" spans="1:3">
       <c r="A425" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
@@ -6902,10 +6905,10 @@
     </row>
     <row r="426" ht="21" spans="1:3">
       <c r="A426" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
@@ -6913,10 +6916,10 @@
     </row>
     <row r="427" ht="21" spans="1:3">
       <c r="A427" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -6924,10 +6927,10 @@
     </row>
     <row r="428" ht="21" spans="1:3">
       <c r="A428" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
@@ -6935,10 +6938,10 @@
     </row>
     <row r="429" ht="21" spans="1:3">
       <c r="A429" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
@@ -6946,10 +6949,10 @@
     </row>
     <row r="430" ht="21" spans="1:3">
       <c r="A430" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
@@ -6957,10 +6960,10 @@
     </row>
     <row r="431" ht="21" spans="1:3">
       <c r="A431" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -6968,10 +6971,10 @@
     </row>
     <row r="432" ht="21" spans="1:3">
       <c r="A432" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -6979,10 +6982,10 @@
     </row>
     <row r="433" ht="21" spans="1:3">
       <c r="A433" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -6990,10 +6993,10 @@
     </row>
     <row r="434" ht="21" spans="1:3">
       <c r="A434" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -7001,10 +7004,10 @@
     </row>
     <row r="435" ht="21" spans="1:3">
       <c r="A435" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -7012,10 +7015,10 @@
     </row>
     <row r="436" ht="21" spans="1:3">
       <c r="A436" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -7023,10 +7026,10 @@
     </row>
     <row r="437" ht="21" spans="1:3">
       <c r="A437" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -7034,10 +7037,10 @@
     </row>
     <row r="438" ht="21" spans="1:3">
       <c r="A438" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -7045,10 +7048,10 @@
     </row>
     <row r="439" ht="21" spans="1:3">
       <c r="A439" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -7056,10 +7059,10 @@
     </row>
     <row r="440" ht="21" spans="1:3">
       <c r="A440" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -7067,10 +7070,10 @@
     </row>
     <row r="441" ht="21" spans="1:3">
       <c r="A441" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -7078,10 +7081,10 @@
     </row>
     <row r="442" ht="21" spans="1:3">
       <c r="A442" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -7089,10 +7092,10 @@
     </row>
     <row r="443" ht="21" spans="1:3">
       <c r="A443" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -7100,10 +7103,10 @@
     </row>
     <row r="444" ht="21" spans="1:3">
       <c r="A444" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -7111,10 +7114,10 @@
     </row>
     <row r="445" ht="21" spans="1:3">
       <c r="A445" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -7122,10 +7125,10 @@
     </row>
     <row r="446" ht="21" spans="1:3">
       <c r="A446" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -7133,10 +7136,10 @@
     </row>
     <row r="447" ht="21" spans="1:3">
       <c r="A447" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -7144,10 +7147,10 @@
     </row>
     <row r="448" ht="21" spans="1:3">
       <c r="A448" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -7155,10 +7158,10 @@
     </row>
     <row r="449" ht="21" spans="1:3">
       <c r="A449" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -7166,10 +7169,10 @@
     </row>
     <row r="450" ht="21" spans="1:3">
       <c r="A450" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -7177,10 +7180,10 @@
     </row>
     <row r="451" ht="21" spans="1:3">
       <c r="A451" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -7188,10 +7191,10 @@
     </row>
     <row r="452" ht="21" spans="1:3">
       <c r="A452" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -7199,10 +7202,10 @@
     </row>
     <row r="453" ht="21" spans="1:3">
       <c r="A453" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -7210,10 +7213,10 @@
     </row>
     <row r="454" ht="21" spans="1:3">
       <c r="A454" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -7221,10 +7224,10 @@
     </row>
     <row r="455" ht="21" spans="1:3">
       <c r="A455" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -7232,10 +7235,10 @@
     </row>
     <row r="456" ht="21" spans="1:3">
       <c r="A456" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -7243,10 +7246,10 @@
     </row>
     <row r="457" ht="21" spans="1:3">
       <c r="A457" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -7254,10 +7257,10 @@
     </row>
     <row r="458" ht="21" spans="1:3">
       <c r="A458" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -7265,10 +7268,10 @@
     </row>
     <row r="459" ht="21" spans="1:3">
       <c r="A459" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -7276,10 +7279,10 @@
     </row>
     <row r="460" ht="21" spans="1:3">
       <c r="A460" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -7287,10 +7290,10 @@
     </row>
     <row r="461" ht="21" spans="1:3">
       <c r="A461" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -7298,10 +7301,10 @@
     </row>
     <row r="462" ht="21" spans="1:3">
       <c r="A462" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -7309,10 +7312,10 @@
     </row>
     <row r="463" ht="21" spans="1:3">
       <c r="A463" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -7320,10 +7323,10 @@
     </row>
     <row r="464" ht="21" spans="1:3">
       <c r="A464" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -7331,10 +7334,10 @@
     </row>
     <row r="465" ht="21" spans="1:3">
       <c r="A465" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -7342,10 +7345,10 @@
     </row>
     <row r="466" ht="21" spans="1:3">
       <c r="A466" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -7353,10 +7356,10 @@
     </row>
     <row r="467" ht="21" spans="1:3">
       <c r="A467" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -7364,10 +7367,10 @@
     </row>
     <row r="468" ht="21" spans="1:3">
       <c r="A468" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -7375,10 +7378,10 @@
     </row>
     <row r="469" ht="21" spans="1:3">
       <c r="A469" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
@@ -7395,10 +7398,10 @@
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -7406,10 +7409,10 @@
     </row>
     <row r="473" ht="21" spans="1:3">
       <c r="A473" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -7417,10 +7420,10 @@
     </row>
     <row r="474" ht="21" spans="1:3">
       <c r="A474" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -7428,10 +7431,10 @@
     </row>
     <row r="475" ht="21" spans="1:3">
       <c r="A475" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
@@ -7439,10 +7442,10 @@
     </row>
     <row r="476" ht="21" spans="1:3">
       <c r="A476" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -7450,10 +7453,10 @@
     </row>
     <row r="477" ht="21" spans="1:3">
       <c r="A477" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -7461,10 +7464,10 @@
     </row>
     <row r="478" ht="21" spans="1:3">
       <c r="A478" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
@@ -7472,10 +7475,10 @@
     </row>
     <row r="479" ht="21" spans="1:3">
       <c r="A479" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
@@ -7483,10 +7486,10 @@
     </row>
     <row r="480" ht="21" spans="1:3">
       <c r="A480" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
@@ -7494,10 +7497,10 @@
     </row>
     <row r="481" ht="21" spans="1:3">
       <c r="A481" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1425,9 +1425,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -1505,28 +1505,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1538,9 +1517,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1548,7 +1548,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1602,7 +1617,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1617,21 +1632,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1639,7 +1639,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,48 +1651,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1708,25 +1666,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,43 +1702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,19 +1732,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,19 +1834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1878,6 +1878,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1911,21 +1926,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1948,146 +1948,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2438,7 +2438,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -4480,7 +4480,7 @@
         <v>193</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1425,10 +1425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1502,6 +1502,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1509,24 +1517,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1539,23 +1531,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1570,22 +1555,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1601,23 +1595,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1630,16 +1631,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1654,7 +1654,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,13 +1726,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,115 +1810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,37 +1828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,17 +1848,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1873,21 +1878,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1917,11 +1907,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1934,160 +1945,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2438,7 +2438,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -4491,7 +4491,7 @@
         <v>194</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -31,43 +31,43 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
+    <t>&lt;YES-&gt;</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>Find the maximum and minimum element in an array</t>
+  </si>
+  <si>
+    <t>&lt;-YES&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
+  </si>
+  <si>
+    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
+  </si>
+  <si>
+    <t>Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t>Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t>find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Reverse the array</t>
-  </si>
-  <si>
-    <t>&lt;YES-&gt;</t>
-  </si>
-  <si>
-    <t>Find the maximum and minimum element in an array</t>
-  </si>
-  <si>
-    <t>&lt;-YES&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
-  </si>
-  <si>
-    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
-  </si>
-  <si>
-    <t>Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t>Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t>find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
     <t>find duplicate in an array of N+1 Integers</t>
@@ -1425,10 +1425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1503,10 +1503,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1525,32 +1540,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1563,23 +1563,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1595,8 +1579,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1611,14 +1602,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1626,6 +1618,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1639,7 +1639,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1660,13 +1660,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,79 +1786,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,73 +1816,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,26 +1845,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1879,15 +1859,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1907,17 +1878,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,6 +1913,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1948,150 +1948,150 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2101,13 +2101,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2437,8 +2440,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2482,7 +2485,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" ht="21" spans="1:3">
@@ -2490,10 +2493,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:3">
@@ -2501,10 +2504,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="21" spans="1:3">
@@ -2512,10 +2515,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="21" spans="1:3">
@@ -2523,10 +2526,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="21" spans="1:3">
@@ -2534,10 +2537,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" ht="21" spans="1:3">
@@ -2545,10 +2548,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="21" spans="1:3">
@@ -2556,10 +2559,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="21" spans="1:3">
@@ -2567,10 +2570,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:3">
@@ -2578,1722 +2581,1722 @@
         <v>6</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
+      <c r="C15" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
+      <c r="C16" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
+      <c r="C17" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="21" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>5</v>
+      <c r="C18" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="21" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>5</v>
+      <c r="C19" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
+      <c r="C20" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
+      <c r="C21" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>5</v>
+      <c r="C22" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
+      <c r="C23" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
+      <c r="C24" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
+      <c r="C25" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
+      <c r="C26" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>5</v>
+      <c r="C27" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>5</v>
+      <c r="C28" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>5</v>
+      <c r="C29" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>5</v>
+      <c r="C30" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>5</v>
+      <c r="C31" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>5</v>
+      <c r="C32" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>5</v>
+      <c r="C33" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>5</v>
+      <c r="C34" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>5</v>
+      <c r="C35" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>5</v>
+      <c r="C36" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>5</v>
+      <c r="C37" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>5</v>
+      <c r="C38" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>5</v>
+      <c r="C39" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>5</v>
+      <c r="C40" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>5</v>
+      <c r="C41" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
-      <c r="B42" s="9"/>
-      <c r="C42" s="5" t="s">
-        <v>5</v>
+      <c r="B42" s="10"/>
+      <c r="C42" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="5" t="s">
-        <v>5</v>
+      <c r="B43" s="10"/>
+      <c r="C43" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>5</v>
+      <c r="C44" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>5</v>
+      <c r="C45" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>5</v>
+      <c r="C46" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>5</v>
+      <c r="C47" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>5</v>
+      <c r="C48" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>5</v>
+      <c r="C49" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>5</v>
+      <c r="C50" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>5</v>
+      <c r="C51" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>5</v>
+      <c r="C52" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>5</v>
+      <c r="C53" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
       <c r="A55" s="6"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="5"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="8"/>
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>5</v>
+      <c r="C56" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>5</v>
+      <c r="C57" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
       <c r="A58" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>5</v>
+      <c r="C58" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>5</v>
+      <c r="C59" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
       <c r="A60" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>5</v>
+      <c r="C60" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
       <c r="A61" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>5</v>
+      <c r="C61" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
       <c r="A62" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>5</v>
+      <c r="C62" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
       <c r="A63" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>5</v>
+      <c r="C63" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
       <c r="A64" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>5</v>
+      <c r="C64" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
       <c r="A65" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>5</v>
+      <c r="C65" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
       <c r="A66" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>5</v>
+      <c r="C66" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>5</v>
+      <c r="C67" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
       <c r="A68" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>5</v>
+      <c r="C68" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
       <c r="A69" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>5</v>
+      <c r="C69" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
       <c r="A70" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>5</v>
+      <c r="C70" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
       <c r="A71" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>5</v>
+      <c r="C71" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
       <c r="A72" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>5</v>
+      <c r="C72" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
       <c r="A73" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>5</v>
+      <c r="C73" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
       <c r="A74" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>5</v>
+      <c r="C74" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
       <c r="A75" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>5</v>
+      <c r="C75" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
       <c r="A76" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>5</v>
+      <c r="C76" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
       <c r="A77" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>5</v>
+      <c r="C77" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
       <c r="A78" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>5</v>
+      <c r="C78" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
       <c r="A79" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>5</v>
+      <c r="C79" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
       <c r="A80" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>5</v>
+      <c r="C80" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
       <c r="A81" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>5</v>
+      <c r="C81" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
       <c r="A82" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>5</v>
+      <c r="C82" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
       <c r="A83" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>5</v>
+      <c r="C83" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
       <c r="A84" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>5</v>
+      <c r="C84" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
       <c r="A85" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>5</v>
+      <c r="C85" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
       <c r="A86" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>5</v>
+      <c r="C86" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
       <c r="A87" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>5</v>
+      <c r="C87" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
       <c r="A88" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>5</v>
+      <c r="C88" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>5</v>
+      <c r="C89" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>5</v>
+      <c r="C90" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>5</v>
+      <c r="C91" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>5</v>
+      <c r="C92" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>5</v>
+      <c r="C93" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>5</v>
+      <c r="C94" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>5</v>
+      <c r="C95" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>5</v>
+      <c r="C96" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>5</v>
+      <c r="C97" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>5</v>
+      <c r="C98" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
-      <c r="A100" s="10"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="5"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="8"/>
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>5</v>
+      <c r="C101" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>5</v>
+      <c r="C102" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>5</v>
+      <c r="C103" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>5</v>
+      <c r="C104" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>5</v>
+      <c r="C105" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>5</v>
+      <c r="C106" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>5</v>
+      <c r="C107" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>5</v>
+      <c r="C108" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>5</v>
+      <c r="C109" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>5</v>
+      <c r="C110" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>5</v>
+      <c r="C111" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>5</v>
+      <c r="C112" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>5</v>
+      <c r="C113" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
       <c r="A114" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>5</v>
+      <c r="C114" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
       <c r="A115" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>5</v>
+      <c r="C115" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
       <c r="A116" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>5</v>
+      <c r="C116" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
       <c r="A117" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>5</v>
+      <c r="C117" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
       <c r="A118" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>5</v>
+      <c r="C118" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
       <c r="A119" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>5</v>
+      <c r="C119" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
       <c r="A120" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>5</v>
+      <c r="C120" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
       <c r="A121" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>5</v>
+      <c r="C121" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
       <c r="A122" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>5</v>
+      <c r="C122" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
       <c r="A123" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>5</v>
+      <c r="C123" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
       <c r="A124" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>5</v>
+      <c r="C124" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>5</v>
+      <c r="C125" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
       <c r="A126" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>5</v>
+      <c r="C126" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
       <c r="A127" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>5</v>
+      <c r="C127" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
       <c r="A128" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>5</v>
+      <c r="C128" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
       <c r="A129" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>5</v>
+      <c r="C129" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
       <c r="A130" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>5</v>
+      <c r="C130" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
       <c r="A131" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>5</v>
+      <c r="C131" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
       <c r="A132" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>5</v>
+      <c r="C132" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
       <c r="A133" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>5</v>
+      <c r="C133" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
       <c r="A134" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>5</v>
+      <c r="C134" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
       <c r="A135" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>5</v>
+      <c r="C135" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
       <c r="A136" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>5</v>
+      <c r="C136" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
-      <c r="B138" s="9"/>
-      <c r="C138" s="5"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="8"/>
     </row>
     <row r="139" ht="21" spans="1:3">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>5</v>
+      <c r="C139" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C140" s="5" t="s">
-        <v>5</v>
+      <c r="C140" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>5</v>
+      <c r="C141" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>5</v>
+      <c r="C142" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>5</v>
+      <c r="C143" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>5</v>
+      <c r="C144" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>5</v>
+      <c r="C145" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>5</v>
+      <c r="C146" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>5</v>
+      <c r="C147" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="5" t="s">
-        <v>5</v>
+      <c r="C148" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>5</v>
+      <c r="C149" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>5</v>
+      <c r="C150" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>5</v>
+      <c r="C151" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>5</v>
+      <c r="C152" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>5</v>
+      <c r="C153" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>5</v>
+      <c r="C154" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>5</v>
+      <c r="C155" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>5</v>
+      <c r="C156" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>5</v>
+      <c r="C157" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>5</v>
+      <c r="C158" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>5</v>
+      <c r="C159" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>5</v>
+      <c r="C160" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>5</v>
+      <c r="C161" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>5</v>
+      <c r="C162" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>5</v>
+      <c r="C163" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>5</v>
+      <c r="C164" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>5</v>
+      <c r="C165" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>5</v>
+      <c r="C166" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
-      <c r="A167" s="10" t="s">
+      <c r="A167" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>5</v>
+      <c r="C167" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="10" t="s">
+      <c r="A168" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C168" s="5" t="s">
-        <v>5</v>
+      <c r="C168" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>5</v>
+      <c r="C169" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C170" s="5" t="s">
-        <v>5</v>
+      <c r="C170" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
-      <c r="A171" s="10" t="s">
+      <c r="A171" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C171" s="5" t="s">
-        <v>5</v>
+      <c r="C171" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C172" s="5" t="s">
-        <v>5</v>
+      <c r="C172" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
-      <c r="A173" s="10" t="s">
+      <c r="A173" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>5</v>
+      <c r="C173" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
-      <c r="A174" s="10" t="s">
+      <c r="A174" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C174" s="5" t="s">
-        <v>5</v>
+      <c r="C174" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
-      <c r="B176" s="9"/>
-      <c r="C176" s="5"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="8"/>
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>10</v>
+      <c r="C177" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
       <c r="A178" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C178" s="5" t="s">
-        <v>10</v>
+      <c r="C178" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
@@ -4303,30 +4306,30 @@
       <c r="B179" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>10</v>
+      <c r="C179" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
       <c r="A180" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>10</v>
+      <c r="C180" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
       <c r="A181" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>10</v>
+      <c r="C181" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="182" ht="21" spans="1:3">
@@ -4336,52 +4339,52 @@
       <c r="B182" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>10</v>
+      <c r="C182" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="183" ht="21" spans="1:3">
       <c r="A183" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>10</v>
+      <c r="C183" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
       <c r="A184" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C184" s="5" t="s">
-        <v>10</v>
+      <c r="C184" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">
       <c r="A185" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>10</v>
+      <c r="C185" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
       <c r="A186" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>10</v>
+      <c r="C186" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
@@ -4391,63 +4394,63 @@
       <c r="B187" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>10</v>
+      <c r="C187" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">
       <c r="A188" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C188" s="5" t="s">
-        <v>10</v>
+      <c r="C188" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="189" ht="21" spans="1:3">
       <c r="A189" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>10</v>
+      <c r="C189" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="190" ht="21" spans="1:3">
       <c r="A190" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C190" s="5" t="s">
-        <v>10</v>
+      <c r="C190" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">
       <c r="A191" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>10</v>
+      <c r="C191" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">
       <c r="A192" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>10</v>
+      <c r="C192" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
@@ -4457,18 +4460,18 @@
       <c r="B193" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>5</v>
+      <c r="C193" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
       <c r="A194" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="8" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4476,501 +4479,501 @@
       <c r="A195" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>10</v>
+      <c r="C195" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="196" ht="21" spans="1:3">
       <c r="A196" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>10</v>
+      <c r="C196" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="197" ht="21" spans="1:3">
       <c r="A197" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>5</v>
+      <c r="C197" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
       <c r="A198" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>5</v>
+      <c r="C198" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
       <c r="A199" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C199" s="5" t="s">
-        <v>5</v>
+      <c r="C199" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
       <c r="A200" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>5</v>
+      <c r="C200" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
       <c r="A201" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>5</v>
+      <c r="C201" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
       <c r="A202" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>5</v>
+      <c r="C202" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
       <c r="A203" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C203" s="5" t="s">
-        <v>5</v>
+      <c r="C203" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
       <c r="A204" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C204" s="5" t="s">
-        <v>5</v>
+      <c r="C204" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
       <c r="A205" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C205" s="5" t="s">
-        <v>5</v>
+      <c r="C205" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
       <c r="A206" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C206" s="5" t="s">
-        <v>5</v>
+      <c r="C206" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
       <c r="A207" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C207" s="5" t="s">
-        <v>5</v>
+      <c r="C207" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
       <c r="A208" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C208" s="5" t="s">
-        <v>5</v>
+      <c r="C208" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
       <c r="A209" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>5</v>
+      <c r="C209" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
       <c r="A210" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>5</v>
+      <c r="C210" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
       <c r="A211" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C211" s="5" t="s">
-        <v>5</v>
+      <c r="C211" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
-      <c r="A212" s="10"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="5"/>
+      <c r="A212" s="11"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="8"/>
     </row>
     <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="10"/>
-      <c r="B213" s="9"/>
-      <c r="C213" s="5"/>
+      <c r="A213" s="11"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="8"/>
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>5</v>
+      <c r="C214" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C215" s="5" t="s">
-        <v>5</v>
+      <c r="C215" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>5</v>
+      <c r="C216" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
       <c r="A217" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C217" s="5" t="s">
-        <v>5</v>
+      <c r="C217" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
       <c r="A218" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>5</v>
+      <c r="C218" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
       <c r="A219" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C219" s="5" t="s">
-        <v>5</v>
+      <c r="C219" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
       <c r="A220" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B220" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C220" s="5" t="s">
-        <v>5</v>
+      <c r="C220" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
       <c r="A221" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C221" s="5" t="s">
-        <v>5</v>
+      <c r="C221" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
       <c r="A222" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C222" s="5" t="s">
-        <v>5</v>
+      <c r="C222" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
       <c r="A223" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C223" s="5" t="s">
-        <v>5</v>
+      <c r="C223" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
       <c r="A224" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C224" s="5" t="s">
-        <v>5</v>
+      <c r="C224" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
       <c r="A225" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C225" s="5" t="s">
-        <v>5</v>
+      <c r="C225" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
       <c r="A226" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C226" s="5" t="s">
-        <v>5</v>
+      <c r="C226" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
       <c r="A227" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>5</v>
+      <c r="C227" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
       <c r="A228" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C228" s="5" t="s">
-        <v>5</v>
+      <c r="C228" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
       <c r="A229" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B229" s="8" t="s">
+      <c r="B229" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C229" s="5" t="s">
-        <v>5</v>
+      <c r="C229" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
       <c r="A230" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B230" s="8" t="s">
+      <c r="B230" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C230" s="5" t="s">
-        <v>5</v>
+      <c r="C230" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
       <c r="A231" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B231" s="8" t="s">
+      <c r="B231" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C231" s="5" t="s">
-        <v>5</v>
+      <c r="C231" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
       <c r="A232" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C232" s="5" t="s">
-        <v>5</v>
+      <c r="C232" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
       <c r="A233" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B233" s="8" t="s">
+      <c r="B233" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C233" s="5" t="s">
-        <v>5</v>
+      <c r="C233" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
       <c r="A234" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C234" s="5" t="s">
-        <v>5</v>
+      <c r="C234" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
       <c r="A235" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B235" s="8" t="s">
+      <c r="B235" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C235" s="5" t="s">
-        <v>5</v>
+      <c r="C235" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
-      <c r="B236" s="9"/>
-      <c r="C236" s="5"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="8"/>
     </row>
     <row r="237" ht="21" spans="2:3">
-      <c r="B237" s="9"/>
-      <c r="C237" s="5"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="8"/>
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B238" s="8" t="s">
+      <c r="B238" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C238" s="5" t="s">
-        <v>5</v>
+      <c r="C238" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
       <c r="A239" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B239" s="8" t="s">
+      <c r="B239" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C239" s="5" t="s">
-        <v>5</v>
+      <c r="C239" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
       <c r="A240" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B240" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C240" s="5" t="s">
-        <v>5</v>
+      <c r="C240" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
       <c r="A241" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B241" s="8" t="s">
+      <c r="B241" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C241" s="5" t="s">
-        <v>5</v>
+      <c r="C241" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
       <c r="A242" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="B242" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C242" s="5" t="s">
+      <c r="C242" s="8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4978,2532 +4981,2532 @@
       <c r="A243" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B243" s="8" t="s">
+      <c r="B243" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C243" s="5" t="s">
-        <v>5</v>
+      <c r="C243" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
       <c r="A244" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B244" s="8" t="s">
+      <c r="B244" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C244" s="5" t="s">
-        <v>5</v>
+      <c r="C244" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
       <c r="A245" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B245" s="8" t="s">
+      <c r="B245" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C245" s="5" t="s">
-        <v>5</v>
+      <c r="C245" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
       <c r="A246" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B246" s="8" t="s">
+      <c r="B246" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C246" s="5" t="s">
-        <v>5</v>
+      <c r="C246" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
       <c r="A247" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B247" s="8" t="s">
+      <c r="B247" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C247" s="5" t="s">
-        <v>5</v>
+      <c r="C247" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
       <c r="A248" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B248" s="8" t="s">
+      <c r="B248" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C248" s="5" t="s">
-        <v>5</v>
+      <c r="C248" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
       <c r="A249" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B249" s="8" t="s">
+      <c r="B249" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C249" s="5" t="s">
-        <v>5</v>
+      <c r="C249" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
       <c r="A250" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="B250" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C250" s="5" t="s">
-        <v>5</v>
+      <c r="C250" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
       <c r="A251" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B251" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C251" s="5" t="s">
-        <v>5</v>
+      <c r="C251" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
       <c r="A252" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="B252" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C252" s="5" t="s">
-        <v>5</v>
+      <c r="C252" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
       <c r="A253" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B253" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C253" s="5" t="s">
-        <v>5</v>
+      <c r="C253" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
       <c r="A254" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B254" s="8" t="s">
+      <c r="B254" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C254" s="5" t="s">
-        <v>5</v>
+      <c r="C254" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
       <c r="A255" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B255" s="8" t="s">
+      <c r="B255" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C255" s="5" t="s">
-        <v>5</v>
+      <c r="C255" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
       <c r="A256" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B256" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C256" s="5" t="s">
-        <v>5</v>
+      <c r="C256" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
       <c r="A257" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B257" s="8" t="s">
+      <c r="B257" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C257" s="5" t="s">
-        <v>5</v>
+      <c r="C257" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
       <c r="A258" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C258" s="5" t="s">
-        <v>5</v>
+      <c r="C258" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
       <c r="A259" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B259" s="8" t="s">
+      <c r="B259" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C259" s="5" t="s">
-        <v>5</v>
+      <c r="C259" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
       <c r="A260" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B260" s="8" t="s">
+      <c r="B260" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C260" s="5" t="s">
-        <v>5</v>
+      <c r="C260" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
       <c r="A261" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B261" s="8" t="s">
+      <c r="B261" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C261" s="5" t="s">
-        <v>5</v>
+      <c r="C261" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
       <c r="A262" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="B262" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C262" s="5" t="s">
-        <v>5</v>
+      <c r="C262" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
       <c r="A263" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B263" s="8" t="s">
+      <c r="B263" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C263" s="5" t="s">
-        <v>5</v>
+      <c r="C263" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
       <c r="A264" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B264" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C264" s="5" t="s">
-        <v>5</v>
+      <c r="C264" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
       <c r="A265" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B265" s="8" t="s">
+      <c r="B265" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C265" s="5" t="s">
-        <v>5</v>
+      <c r="C265" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
       <c r="A266" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B266" s="8" t="s">
+      <c r="B266" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C266" s="5" t="s">
-        <v>5</v>
+      <c r="C266" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
       <c r="A267" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B267" s="8" t="s">
+      <c r="B267" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C267" s="5" t="s">
-        <v>5</v>
+      <c r="C267" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
       <c r="A268" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B268" s="8" t="s">
+      <c r="B268" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C268" s="5" t="s">
-        <v>5</v>
+      <c r="C268" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
       <c r="A269" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B269" s="8" t="s">
+      <c r="B269" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C269" s="5" t="s">
-        <v>5</v>
+      <c r="C269" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
       <c r="A270" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B270" s="8" t="s">
+      <c r="B270" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C270" s="5" t="s">
-        <v>5</v>
+      <c r="C270" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
       <c r="A271" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B271" s="8" t="s">
+      <c r="B271" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C271" s="5" t="s">
-        <v>5</v>
+      <c r="C271" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
       <c r="A272" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B272" s="8" t="s">
+      <c r="B272" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C272" s="5" t="s">
-        <v>5</v>
+      <c r="C272" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
-      <c r="B273" s="9"/>
-      <c r="C273" s="5"/>
+      <c r="B273" s="10"/>
+      <c r="C273" s="8"/>
     </row>
     <row r="274" ht="21" spans="2:3">
-      <c r="B274" s="9"/>
-      <c r="C274" s="5"/>
+      <c r="B274" s="10"/>
+      <c r="C274" s="8"/>
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B275" s="8" t="s">
+      <c r="B275" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>5</v>
+      <c r="C275" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
       <c r="A276" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B276" s="8" t="s">
+      <c r="B276" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C276" s="5" t="s">
-        <v>5</v>
+      <c r="C276" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
       <c r="A277" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B277" s="8" t="s">
+      <c r="B277" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C277" s="5" t="s">
-        <v>5</v>
+      <c r="C277" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
       <c r="A278" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B278" s="8" t="s">
+      <c r="B278" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C278" s="5" t="s">
-        <v>5</v>
+      <c r="C278" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
       <c r="A279" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B279" s="8" t="s">
+      <c r="B279" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C279" s="5" t="s">
-        <v>5</v>
+      <c r="C279" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
       <c r="A280" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B280" s="8" t="s">
+      <c r="B280" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C280" s="5" t="s">
-        <v>5</v>
+      <c r="C280" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
       <c r="A281" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B281" s="8" t="s">
+      <c r="B281" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C281" s="5" t="s">
-        <v>5</v>
+      <c r="C281" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
       <c r="A282" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B282" s="8" t="s">
+      <c r="B282" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C282" s="5" t="s">
-        <v>5</v>
+      <c r="C282" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
       <c r="A283" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B283" s="8" t="s">
+      <c r="B283" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C283" s="5" t="s">
-        <v>5</v>
+      <c r="C283" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
       <c r="A284" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B284" s="8" t="s">
+      <c r="B284" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C284" s="5" t="s">
-        <v>5</v>
+      <c r="C284" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
       <c r="A285" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B285" s="8" t="s">
+      <c r="B285" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C285" s="5" t="s">
-        <v>5</v>
+      <c r="C285" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
       <c r="A286" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="B286" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C286" s="5" t="s">
-        <v>5</v>
+      <c r="C286" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
       <c r="A287" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B287" s="8" t="s">
+      <c r="B287" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C287" s="5" t="s">
-        <v>5</v>
+      <c r="C287" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
       <c r="A288" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B288" s="8" t="s">
+      <c r="B288" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C288" s="5" t="s">
-        <v>5</v>
+      <c r="C288" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
       <c r="A289" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B289" s="8" t="s">
+      <c r="B289" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C289" s="5" t="s">
-        <v>5</v>
+      <c r="C289" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
       <c r="A290" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B290" s="8" t="s">
+      <c r="B290" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C290" s="5" t="s">
-        <v>5</v>
+      <c r="C290" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
       <c r="A291" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B291" s="8" t="s">
+      <c r="B291" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C291" s="5" t="s">
-        <v>5</v>
+      <c r="C291" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
       <c r="A292" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B292" s="8" t="s">
+      <c r="B292" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C292" s="5" t="s">
-        <v>5</v>
+      <c r="C292" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
       <c r="A293" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B293" s="8" t="s">
+      <c r="B293" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C293" s="5" t="s">
-        <v>5</v>
+      <c r="C293" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
-      <c r="B294" s="9"/>
-      <c r="C294" s="5"/>
+      <c r="B294" s="10"/>
+      <c r="C294" s="8"/>
     </row>
     <row r="295" ht="21" spans="2:3">
-      <c r="B295" s="9"/>
-      <c r="C295" s="5"/>
+      <c r="B295" s="10"/>
+      <c r="C295" s="8"/>
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B296" s="8" t="s">
+      <c r="B296" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>5</v>
+      <c r="C296" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
       <c r="A297" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B297" s="8" t="s">
+      <c r="B297" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C297" s="5" t="s">
-        <v>5</v>
+      <c r="C297" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
       <c r="A298" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B298" s="8" t="s">
+      <c r="B298" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C298" s="5" t="s">
-        <v>5</v>
+      <c r="C298" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
       <c r="A299" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B299" s="8" t="s">
+      <c r="B299" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C299" s="5" t="s">
-        <v>5</v>
+      <c r="C299" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
       <c r="A300" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B300" s="8" t="s">
+      <c r="B300" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C300" s="5" t="s">
-        <v>5</v>
+      <c r="C300" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
       <c r="A301" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B301" s="8" t="s">
+      <c r="B301" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C301" s="5" t="s">
-        <v>5</v>
+      <c r="C301" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
       <c r="A302" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B302" s="8" t="s">
+      <c r="B302" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C302" s="5" t="s">
-        <v>5</v>
+      <c r="C302" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
       <c r="A303" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B303" s="8" t="s">
+      <c r="B303" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C303" s="5" t="s">
-        <v>5</v>
+      <c r="C303" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
       <c r="A304" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B304" s="8" t="s">
+      <c r="B304" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C304" s="5" t="s">
-        <v>5</v>
+      <c r="C304" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
       <c r="A305" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B305" s="8" t="s">
+      <c r="B305" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C305" s="5" t="s">
-        <v>5</v>
+      <c r="C305" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
       <c r="A306" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B306" s="8" t="s">
+      <c r="B306" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C306" s="5" t="s">
-        <v>5</v>
+      <c r="C306" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
       <c r="A307" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B307" s="8" t="s">
+      <c r="B307" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C307" s="5" t="s">
-        <v>5</v>
+      <c r="C307" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
       <c r="A308" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B308" s="8" t="s">
+      <c r="B308" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C308" s="5" t="s">
-        <v>5</v>
+      <c r="C308" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
       <c r="A309" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B309" s="11" t="s">
+      <c r="B309" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="C309" s="5" t="s">
-        <v>5</v>
+      <c r="C309" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
       <c r="A310" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B310" s="8" t="s">
+      <c r="B310" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C310" s="5" t="s">
-        <v>5</v>
+      <c r="C310" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
       <c r="A311" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B311" s="8" t="s">
+      <c r="B311" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C311" s="5" t="s">
-        <v>5</v>
+      <c r="C311" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
       <c r="A312" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B312" s="8" t="s">
+      <c r="B312" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C312" s="5" t="s">
-        <v>5</v>
+      <c r="C312" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
       <c r="A313" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B313" s="8" t="s">
+      <c r="B313" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C313" s="5" t="s">
-        <v>5</v>
+      <c r="C313" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
       <c r="A314" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B314" s="8" t="s">
+      <c r="B314" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C314" s="5" t="s">
-        <v>5</v>
+      <c r="C314" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
       <c r="A315" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B315" s="8" t="s">
+      <c r="B315" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C315" s="5" t="s">
-        <v>5</v>
+      <c r="C315" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
       <c r="A316" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B316" s="8" t="s">
+      <c r="B316" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C316" s="5" t="s">
-        <v>5</v>
+      <c r="C316" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
       <c r="A317" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B317" s="8" t="s">
+      <c r="B317" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C317" s="5" t="s">
-        <v>5</v>
+      <c r="C317" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
       <c r="A318" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B318" s="8" t="s">
+      <c r="B318" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C318" s="5" t="s">
-        <v>5</v>
+      <c r="C318" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
       <c r="A319" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B319" s="8" t="s">
+      <c r="B319" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C319" s="5" t="s">
-        <v>5</v>
+      <c r="C319" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
       <c r="A320" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B320" s="8" t="s">
+      <c r="B320" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C320" s="5" t="s">
-        <v>5</v>
+      <c r="C320" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
       <c r="A321" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B321" s="8" t="s">
+      <c r="B321" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C321" s="5" t="s">
-        <v>5</v>
+      <c r="C321" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
       <c r="A322" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B322" s="8" t="s">
+      <c r="B322" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C322" s="5" t="s">
-        <v>5</v>
+      <c r="C322" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
       <c r="A323" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B323" s="8" t="s">
+      <c r="B323" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C323" s="5" t="s">
-        <v>5</v>
+      <c r="C323" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
       <c r="A324" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B324" s="8" t="s">
+      <c r="B324" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C324" s="5" t="s">
-        <v>5</v>
+      <c r="C324" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
       <c r="A325" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B325" s="8" t="s">
+      <c r="B325" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C325" s="5" t="s">
-        <v>5</v>
+      <c r="C325" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
       <c r="A326" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B326" s="8" t="s">
+      <c r="B326" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C326" s="5" t="s">
-        <v>5</v>
+      <c r="C326" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
       <c r="A327" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B327" s="8" t="s">
+      <c r="B327" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C327" s="5" t="s">
-        <v>5</v>
+      <c r="C327" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
       <c r="A328" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B328" s="8" t="s">
+      <c r="B328" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C328" s="5" t="s">
-        <v>5</v>
+      <c r="C328" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
       <c r="A329" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B329" s="8" t="s">
+      <c r="B329" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C329" s="5" t="s">
-        <v>5</v>
+      <c r="C329" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
       <c r="A330" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B330" s="8" t="s">
+      <c r="B330" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C330" s="5" t="s">
-        <v>5</v>
+      <c r="C330" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
       <c r="A331" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B331" s="8" t="s">
+      <c r="B331" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C331" s="5" t="s">
-        <v>5</v>
+      <c r="C331" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
       <c r="A332" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B332" s="8" t="s">
+      <c r="B332" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C332" s="5" t="s">
-        <v>5</v>
+      <c r="C332" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
       <c r="A333" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B333" s="8" t="s">
+      <c r="B333" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C333" s="5" t="s">
-        <v>5</v>
+      <c r="C333" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
-      <c r="B334" s="9"/>
-      <c r="C334" s="5"/>
+      <c r="B334" s="10"/>
+      <c r="C334" s="8"/>
     </row>
     <row r="335" ht="21" spans="2:3">
-      <c r="B335" s="9"/>
-      <c r="C335" s="5"/>
+      <c r="B335" s="10"/>
+      <c r="C335" s="8"/>
     </row>
     <row r="336" ht="21" spans="1:3">
-      <c r="A336" s="10" t="s">
+      <c r="A336" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B336" s="8" t="s">
+      <c r="B336" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C336" s="5" t="s">
-        <v>5</v>
+      <c r="C336" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
-      <c r="A337" s="10" t="s">
+      <c r="A337" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B337" s="8" t="s">
+      <c r="B337" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C337" s="5" t="s">
-        <v>5</v>
+      <c r="C337" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
-      <c r="A338" s="10" t="s">
+      <c r="A338" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B338" s="8" t="s">
+      <c r="B338" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C338" s="5" t="s">
-        <v>5</v>
+      <c r="C338" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
-      <c r="A339" s="10" t="s">
+      <c r="A339" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B339" s="8" t="s">
+      <c r="B339" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="C339" s="5" t="s">
-        <v>5</v>
+      <c r="C339" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
-      <c r="A340" s="10" t="s">
+      <c r="A340" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B340" s="8" t="s">
+      <c r="B340" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C340" s="5" t="s">
-        <v>5</v>
+      <c r="C340" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
-      <c r="A341" s="10" t="s">
+      <c r="A341" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B341" s="8" t="s">
+      <c r="B341" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C341" s="5" t="s">
-        <v>5</v>
+      <c r="C341" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
-      <c r="A342" s="10" t="s">
+      <c r="A342" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B342" s="8" t="s">
+      <c r="B342" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C342" s="5" t="s">
-        <v>5</v>
+      <c r="C342" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
-      <c r="A343" s="10" t="s">
+      <c r="A343" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B343" s="8" t="s">
+      <c r="B343" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C343" s="5" t="s">
-        <v>5</v>
+      <c r="C343" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
-      <c r="A344" s="10" t="s">
+      <c r="A344" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B344" s="11" t="s">
+      <c r="B344" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C344" s="5" t="s">
-        <v>5</v>
+      <c r="C344" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
-      <c r="A345" s="10" t="s">
+      <c r="A345" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B345" s="8" t="s">
+      <c r="B345" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C345" s="5" t="s">
-        <v>5</v>
+      <c r="C345" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
-      <c r="A346" s="10" t="s">
+      <c r="A346" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B346" s="8" t="s">
+      <c r="B346" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C346" s="5" t="s">
-        <v>5</v>
+      <c r="C346" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
-      <c r="A347" s="10" t="s">
+      <c r="A347" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B347" s="8" t="s">
+      <c r="B347" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C347" s="5" t="s">
-        <v>5</v>
+      <c r="C347" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
-      <c r="A348" s="10" t="s">
+      <c r="A348" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B348" s="8" t="s">
+      <c r="B348" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C348" s="5" t="s">
-        <v>5</v>
+      <c r="C348" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
-      <c r="A349" s="10" t="s">
+      <c r="A349" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B349" s="8" t="s">
+      <c r="B349" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C349" s="5" t="s">
-        <v>5</v>
+      <c r="C349" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
-      <c r="A350" s="10" t="s">
+      <c r="A350" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B350" s="8" t="s">
+      <c r="B350" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C350" s="5" t="s">
-        <v>5</v>
+      <c r="C350" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
-      <c r="A351" s="10" t="s">
+      <c r="A351" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B351" s="8" t="s">
+      <c r="B351" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C351" s="5" t="s">
-        <v>5</v>
+      <c r="C351" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
-      <c r="A352" s="10" t="s">
+      <c r="A352" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B352" s="8" t="s">
+      <c r="B352" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C352" s="5" t="s">
-        <v>5</v>
+      <c r="C352" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
-      <c r="A353" s="10" t="s">
+      <c r="A353" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B353" s="8" t="s">
+      <c r="B353" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C353" s="5" t="s">
-        <v>5</v>
+      <c r="C353" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
-      <c r="B354" s="9"/>
-      <c r="C354" s="5"/>
+      <c r="B354" s="10"/>
+      <c r="C354" s="8"/>
     </row>
     <row r="355" ht="21" spans="2:3">
-      <c r="B355" s="9"/>
-      <c r="C355" s="5"/>
+      <c r="B355" s="10"/>
+      <c r="C355" s="8"/>
     </row>
     <row r="356" ht="21" spans="1:3">
-      <c r="A356" s="10" t="s">
+      <c r="A356" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B356" s="8" t="s">
+      <c r="B356" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="C356" s="5" t="s">
-        <v>5</v>
+      <c r="C356" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
-      <c r="A357" s="10" t="s">
+      <c r="A357" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B357" s="8" t="s">
+      <c r="B357" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C357" s="5" t="s">
+      <c r="C357" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
-      <c r="A358" s="10" t="s">
+      <c r="A358" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B358" s="8" t="s">
+      <c r="B358" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C358" s="5" t="s">
+      <c r="C358" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
-      <c r="A359" s="10" t="s">
+      <c r="A359" s="11" t="s">
         <v>347</v>
       </c>
       <c r="B359" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C359" s="5" t="s">
+      <c r="C359" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
-      <c r="A360" s="10" t="s">
+      <c r="A360" s="11" t="s">
         <v>347</v>
       </c>
       <c r="B360" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C360" s="5" t="s">
+      <c r="C360" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
-      <c r="A361" s="10" t="s">
+      <c r="A361" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B361" s="8" t="s">
+      <c r="B361" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C361" s="5" t="s">
+      <c r="C361" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
-      <c r="A362" s="10" t="s">
+      <c r="A362" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B362" s="8" t="s">
+      <c r="B362" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C362" s="5" t="s">
+      <c r="C362" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
-      <c r="A363" s="10" t="s">
+      <c r="A363" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B363" s="8" t="s">
+      <c r="B363" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C363" s="5" t="s">
-        <v>5</v>
+      <c r="C363" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
-      <c r="A364" s="10" t="s">
+      <c r="A364" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B364" s="8" t="s">
+      <c r="B364" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C364" s="5" t="s">
-        <v>5</v>
+      <c r="C364" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
-      <c r="A365" s="10" t="s">
+      <c r="A365" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B365" s="8" t="s">
+      <c r="B365" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="C365" s="5" t="s">
-        <v>5</v>
+      <c r="C365" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
-      <c r="A366" s="10" t="s">
+      <c r="A366" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B366" s="8" t="s">
+      <c r="B366" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C366" s="5" t="s">
-        <v>5</v>
+      <c r="C366" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
-      <c r="A367" s="10" t="s">
+      <c r="A367" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B367" s="8" t="s">
+      <c r="B367" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C367" s="5" t="s">
-        <v>5</v>
+      <c r="C367" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
-      <c r="A368" s="10" t="s">
+      <c r="A368" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B368" s="8" t="s">
+      <c r="B368" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C368" s="5" t="s">
-        <v>5</v>
+      <c r="C368" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
-      <c r="A369" s="10" t="s">
+      <c r="A369" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B369" s="8" t="s">
+      <c r="B369" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="C369" s="5" t="s">
-        <v>5</v>
+      <c r="C369" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
-      <c r="A370" s="10" t="s">
+      <c r="A370" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B370" s="8" t="s">
+      <c r="B370" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="C370" s="5" t="s">
-        <v>5</v>
+      <c r="C370" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
-      <c r="A371" s="10" t="s">
+      <c r="A371" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B371" s="8" t="s">
+      <c r="B371" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="C371" s="5" t="s">
-        <v>5</v>
+      <c r="C371" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
-      <c r="A372" s="10" t="s">
+      <c r="A372" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B372" s="8" t="s">
+      <c r="B372" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C372" s="5" t="s">
-        <v>5</v>
+      <c r="C372" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
-      <c r="A373" s="10" t="s">
+      <c r="A373" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B373" s="8" t="s">
+      <c r="B373" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C373" s="5" t="s">
-        <v>5</v>
+      <c r="C373" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
-      <c r="A374" s="10" t="s">
+      <c r="A374" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B374" s="8" t="s">
+      <c r="B374" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C374" s="5" t="s">
-        <v>5</v>
+      <c r="C374" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
-      <c r="A375" s="10" t="s">
+      <c r="A375" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B375" s="8" t="s">
+      <c r="B375" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="C375" s="5" t="s">
-        <v>5</v>
+      <c r="C375" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
-      <c r="A376" s="10" t="s">
+      <c r="A376" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B376" s="8" t="s">
+      <c r="B376" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="C376" s="5" t="s">
-        <v>5</v>
+      <c r="C376" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
-      <c r="A377" s="10" t="s">
+      <c r="A377" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B377" s="8" t="s">
+      <c r="B377" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C377" s="5" t="s">
-        <v>5</v>
+      <c r="C377" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
-      <c r="A378" s="10" t="s">
+      <c r="A378" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B378" s="8" t="s">
+      <c r="B378" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C378" s="5" t="s">
-        <v>5</v>
+      <c r="C378" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
-      <c r="A379" s="10" t="s">
+      <c r="A379" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B379" s="8" t="s">
+      <c r="B379" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C379" s="5" t="s">
-        <v>5</v>
+      <c r="C379" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
-      <c r="A380" s="10" t="s">
+      <c r="A380" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B380" s="8" t="s">
+      <c r="B380" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C380" s="5" t="s">
-        <v>5</v>
+      <c r="C380" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
-      <c r="A381" s="10" t="s">
+      <c r="A381" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B381" s="8" t="s">
+      <c r="B381" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="C381" s="5" t="s">
-        <v>5</v>
+      <c r="C381" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
-      <c r="A382" s="10" t="s">
+      <c r="A382" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B382" s="8" t="s">
+      <c r="B382" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C382" s="5" t="s">
-        <v>5</v>
+      <c r="C382" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
-      <c r="A383" s="10" t="s">
+      <c r="A383" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B383" s="8" t="s">
+      <c r="B383" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="C383" s="5" t="s">
-        <v>5</v>
+      <c r="C383" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
-      <c r="A384" s="10" t="s">
+      <c r="A384" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B384" s="8" t="s">
+      <c r="B384" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C384" s="5" t="s">
-        <v>5</v>
+      <c r="C384" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
-      <c r="A385" s="10" t="s">
+      <c r="A385" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B385" s="8" t="s">
+      <c r="B385" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C385" s="5" t="s">
-        <v>5</v>
+      <c r="C385" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
-      <c r="A386" s="10" t="s">
+      <c r="A386" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B386" s="8" t="s">
+      <c r="B386" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C386" s="5" t="s">
-        <v>5</v>
+      <c r="C386" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
-      <c r="A387" s="10" t="s">
+      <c r="A387" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B387" s="8" t="s">
+      <c r="B387" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="C387" s="5" t="s">
-        <v>5</v>
+      <c r="C387" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
-      <c r="A388" s="10" t="s">
+      <c r="A388" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B388" s="8" t="s">
+      <c r="B388" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C388" s="5" t="s">
-        <v>5</v>
+      <c r="C388" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
-      <c r="A389" s="10" t="s">
+      <c r="A389" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B389" s="8" t="s">
+      <c r="B389" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="C389" s="5" t="s">
-        <v>5</v>
+      <c r="C389" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
-      <c r="A390" s="10" t="s">
+      <c r="A390" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B390" s="8" t="s">
+      <c r="B390" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="C390" s="5" t="s">
-        <v>5</v>
+      <c r="C390" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
-      <c r="A391" s="10" t="s">
+      <c r="A391" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B391" s="8" t="s">
+      <c r="B391" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C391" s="5" t="s">
-        <v>5</v>
+      <c r="C391" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
-      <c r="A392" s="10" t="s">
+      <c r="A392" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B392" s="8" t="s">
+      <c r="B392" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C392" s="5" t="s">
-        <v>5</v>
+      <c r="C392" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
-      <c r="A393" s="10" t="s">
+      <c r="A393" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B393" s="8" t="s">
+      <c r="B393" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C393" s="5" t="s">
-        <v>5</v>
+      <c r="C393" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
-      <c r="A394" s="10" t="s">
+      <c r="A394" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B394" s="8" t="s">
+      <c r="B394" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C394" s="5" t="s">
-        <v>5</v>
+      <c r="C394" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
-      <c r="A395" s="10" t="s">
+      <c r="A395" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B395" s="8" t="s">
+      <c r="B395" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C395" s="5" t="s">
-        <v>5</v>
+      <c r="C395" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
-      <c r="A396" s="10" t="s">
+      <c r="A396" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B396" s="8" t="s">
+      <c r="B396" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C396" s="5" t="s">
-        <v>5</v>
+      <c r="C396" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
-      <c r="A397" s="10" t="s">
+      <c r="A397" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B397" s="8" t="s">
+      <c r="B397" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C397" s="5" t="s">
-        <v>5</v>
+      <c r="C397" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
-      <c r="A398" s="10" t="s">
+      <c r="A398" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B398" s="8" t="s">
+      <c r="B398" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C398" s="5" t="s">
-        <v>5</v>
+      <c r="C398" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
-      <c r="A399" s="10" t="s">
+      <c r="A399" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B399" s="8" t="s">
+      <c r="B399" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C399" s="5" t="s">
-        <v>5</v>
+      <c r="C399" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
-      <c r="B400" s="9"/>
-      <c r="C400" s="5"/>
+      <c r="B400" s="10"/>
+      <c r="C400" s="8"/>
     </row>
     <row r="401" ht="21" spans="2:3">
-      <c r="B401" s="9"/>
-      <c r="C401" s="5"/>
+      <c r="B401" s="10"/>
+      <c r="C401" s="8"/>
     </row>
     <row r="402" ht="21" spans="1:3">
-      <c r="A402" s="10" t="s">
+      <c r="A402" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B402" s="8" t="s">
+      <c r="B402" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C402" s="5" t="s">
-        <v>5</v>
+      <c r="C402" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
-      <c r="A403" s="10" t="s">
+      <c r="A403" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B403" s="8" t="s">
+      <c r="B403" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="C403" s="5" t="s">
-        <v>5</v>
+      <c r="C403" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
-      <c r="A404" s="10" t="s">
+      <c r="A404" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B404" s="8" t="s">
+      <c r="B404" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C404" s="5" t="s">
-        <v>5</v>
+      <c r="C404" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
-      <c r="A405" s="10" t="s">
+      <c r="A405" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B405" s="8" t="s">
+      <c r="B405" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C405" s="5" t="s">
-        <v>5</v>
+      <c r="C405" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
-      <c r="A406" s="10" t="s">
+      <c r="A406" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B406" s="8" t="s">
+      <c r="B406" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="C406" s="5" t="s">
-        <v>5</v>
+      <c r="C406" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
-      <c r="A407" s="10" t="s">
+      <c r="A407" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B407" s="8" t="s">
+      <c r="B407" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C407" s="5" t="s">
-        <v>5</v>
+      <c r="C407" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
-      <c r="B408" s="9"/>
-      <c r="C408" s="5"/>
+      <c r="B408" s="10"/>
+      <c r="C408" s="8"/>
     </row>
     <row r="409" ht="21" spans="2:3">
-      <c r="B409" s="9"/>
-      <c r="C409" s="5"/>
+      <c r="B409" s="10"/>
+      <c r="C409" s="8"/>
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B410" s="8" t="s">
+      <c r="B410" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C410" s="5" t="s">
-        <v>8</v>
+      <c r="C410" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="411" ht="21" spans="1:3">
       <c r="A411" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B411" s="8" t="s">
+      <c r="B411" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C411" s="5" t="s">
-        <v>10</v>
+      <c r="C411" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="412" ht="21" spans="1:3">
       <c r="A412" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B412" s="8" t="s">
+      <c r="B412" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C412" s="5" t="s">
-        <v>10</v>
+      <c r="C412" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="413" ht="21" spans="1:3">
       <c r="A413" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B413" s="8" t="s">
+      <c r="B413" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="C413" s="5" t="s">
-        <v>10</v>
+      <c r="C413" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="414" ht="21" spans="1:3">
       <c r="A414" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B414" s="8" t="s">
+      <c r="B414" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C414" s="5" t="s">
-        <v>10</v>
+      <c r="C414" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="415" ht="21" spans="1:3">
       <c r="A415" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B415" s="8" t="s">
+      <c r="B415" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C415" s="5" t="s">
-        <v>10</v>
+      <c r="C415" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="416" ht="21" spans="1:3">
       <c r="A416" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B416" s="8" t="s">
+      <c r="B416" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C416" s="5" t="s">
-        <v>10</v>
+      <c r="C416" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="417" ht="21" spans="1:3">
       <c r="A417" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B417" s="8" t="s">
+      <c r="B417" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C417" s="5" t="s">
-        <v>5</v>
+      <c r="C417" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
       <c r="A418" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B418" s="8" t="s">
+      <c r="B418" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C418" s="5" t="s">
-        <v>5</v>
+      <c r="C418" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
       <c r="A419" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B419" s="8" t="s">
+      <c r="B419" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C419" s="5" t="s">
-        <v>5</v>
+      <c r="C419" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
       <c r="A420" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B420" s="8" t="s">
+      <c r="B420" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C420" s="5" t="s">
-        <v>5</v>
+      <c r="C420" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
       <c r="A421" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B421" s="8" t="s">
+      <c r="B421" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="C421" s="5" t="s">
-        <v>5</v>
+      <c r="C421" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
       <c r="A422" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B422" s="8" t="s">
+      <c r="B422" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C422" s="5" t="s">
-        <v>5</v>
+      <c r="C422" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
       <c r="A423" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B423" s="8" t="s">
+      <c r="B423" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="C423" s="5" t="s">
-        <v>5</v>
+      <c r="C423" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
       <c r="A424" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B424" s="8" t="s">
+      <c r="B424" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C424" s="5" t="s">
-        <v>5</v>
+      <c r="C424" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
       <c r="A425" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B425" s="8" t="s">
+      <c r="B425" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C425" s="5" t="s">
-        <v>5</v>
+      <c r="C425" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
       <c r="A426" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B426" s="8" t="s">
+      <c r="B426" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="C426" s="5" t="s">
-        <v>5</v>
+      <c r="C426" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
       <c r="A427" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B427" s="8" t="s">
+      <c r="B427" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="C427" s="5" t="s">
-        <v>5</v>
+      <c r="C427" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
       <c r="A428" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B428" s="8" t="s">
+      <c r="B428" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C428" s="5" t="s">
-        <v>5</v>
+      <c r="C428" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
       <c r="A429" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B429" s="8" t="s">
+      <c r="B429" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="C429" s="5" t="s">
-        <v>5</v>
+      <c r="C429" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
       <c r="A430" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B430" s="8" t="s">
+      <c r="B430" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C430" s="5" t="s">
-        <v>5</v>
+      <c r="C430" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
       <c r="A431" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B431" s="8" t="s">
+      <c r="B431" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="C431" s="5" t="s">
-        <v>5</v>
+      <c r="C431" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
       <c r="A432" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B432" s="8" t="s">
+      <c r="B432" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C432" s="5" t="s">
-        <v>5</v>
+      <c r="C432" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
       <c r="A433" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B433" s="8" t="s">
+      <c r="B433" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="C433" s="5" t="s">
-        <v>5</v>
+      <c r="C433" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
       <c r="A434" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B434" s="8" t="s">
+      <c r="B434" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="C434" s="5" t="s">
-        <v>5</v>
+      <c r="C434" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
       <c r="A435" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B435" s="8" t="s">
+      <c r="B435" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="C435" s="5" t="s">
-        <v>5</v>
+      <c r="C435" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
       <c r="A436" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B436" s="8" t="s">
+      <c r="B436" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C436" s="5" t="s">
-        <v>5</v>
+      <c r="C436" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
       <c r="A437" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B437" s="8" t="s">
+      <c r="B437" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C437" s="5" t="s">
-        <v>5</v>
+      <c r="C437" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
       <c r="A438" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B438" s="8" t="s">
+      <c r="B438" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C438" s="5" t="s">
-        <v>5</v>
+      <c r="C438" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
       <c r="A439" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B439" s="8" t="s">
+      <c r="B439" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C439" s="5" t="s">
-        <v>5</v>
+      <c r="C439" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
       <c r="A440" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B440" s="8" t="s">
+      <c r="B440" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="C440" s="5" t="s">
-        <v>5</v>
+      <c r="C440" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
       <c r="A441" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B441" s="8" t="s">
+      <c r="B441" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C441" s="5" t="s">
-        <v>5</v>
+      <c r="C441" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
       <c r="A442" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B442" s="8" t="s">
+      <c r="B442" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="C442" s="5" t="s">
-        <v>5</v>
+      <c r="C442" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
       <c r="A443" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B443" s="8" t="s">
+      <c r="B443" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C443" s="5" t="s">
-        <v>5</v>
+      <c r="C443" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
       <c r="A444" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B444" s="8" t="s">
+      <c r="B444" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="C444" s="5" t="s">
-        <v>5</v>
+      <c r="C444" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
       <c r="A445" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B445" s="8" t="s">
+      <c r="B445" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C445" s="5" t="s">
-        <v>5</v>
+      <c r="C445" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
       <c r="A446" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B446" s="8" t="s">
+      <c r="B446" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C446" s="5" t="s">
-        <v>5</v>
+      <c r="C446" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
       <c r="A447" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B447" s="8" t="s">
+      <c r="B447" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C447" s="5" t="s">
-        <v>5</v>
+      <c r="C447" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
       <c r="A448" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B448" s="8" t="s">
+      <c r="B448" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="C448" s="5" t="s">
-        <v>5</v>
+      <c r="C448" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
       <c r="A449" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B449" s="8" t="s">
+      <c r="B449" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C449" s="5" t="s">
-        <v>5</v>
+      <c r="C449" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
       <c r="A450" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B450" s="8" t="s">
+      <c r="B450" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C450" s="5" t="s">
-        <v>5</v>
+      <c r="C450" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
       <c r="A451" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B451" s="8" t="s">
+      <c r="B451" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C451" s="5" t="s">
-        <v>5</v>
+      <c r="C451" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
       <c r="A452" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B452" s="8" t="s">
+      <c r="B452" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C452" s="5" t="s">
-        <v>5</v>
+      <c r="C452" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
       <c r="A453" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B453" s="8" t="s">
+      <c r="B453" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="C453" s="5" t="s">
-        <v>5</v>
+      <c r="C453" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
       <c r="A454" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B454" s="8" t="s">
+      <c r="B454" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C454" s="5" t="s">
-        <v>5</v>
+      <c r="C454" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
       <c r="A455" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B455" s="8" t="s">
+      <c r="B455" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C455" s="5" t="s">
-        <v>5</v>
+      <c r="C455" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
       <c r="A456" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B456" s="8" t="s">
+      <c r="B456" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C456" s="5" t="s">
-        <v>5</v>
+      <c r="C456" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
       <c r="A457" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B457" s="8" t="s">
+      <c r="B457" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C457" s="5" t="s">
-        <v>5</v>
+      <c r="C457" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
       <c r="A458" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B458" s="8" t="s">
+      <c r="B458" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C458" s="5" t="s">
-        <v>5</v>
+      <c r="C458" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
       <c r="A459" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B459" s="8" t="s">
+      <c r="B459" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C459" s="5" t="s">
-        <v>5</v>
+      <c r="C459" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
       <c r="A460" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B460" s="8" t="s">
+      <c r="B460" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C460" s="5" t="s">
-        <v>5</v>
+      <c r="C460" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
       <c r="A461" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B461" s="8" t="s">
+      <c r="B461" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="C461" s="5" t="s">
-        <v>5</v>
+      <c r="C461" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
       <c r="A462" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B462" s="8" t="s">
+      <c r="B462" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="C462" s="5" t="s">
-        <v>5</v>
+      <c r="C462" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
       <c r="A463" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B463" s="8" t="s">
+      <c r="B463" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C463" s="5" t="s">
-        <v>5</v>
+      <c r="C463" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
       <c r="A464" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B464" s="8" t="s">
+      <c r="B464" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C464" s="5" t="s">
-        <v>5</v>
+      <c r="C464" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
       <c r="A465" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B465" s="8" t="s">
+      <c r="B465" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="C465" s="5" t="s">
-        <v>5</v>
+      <c r="C465" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
       <c r="A466" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B466" s="8" t="s">
+      <c r="B466" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C466" s="5" t="s">
-        <v>5</v>
+      <c r="C466" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
       <c r="A467" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B467" s="8" t="s">
+      <c r="B467" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="C467" s="5" t="s">
-        <v>5</v>
+      <c r="C467" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
       <c r="A468" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B468" s="8" t="s">
+      <c r="B468" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C468" s="5" t="s">
-        <v>5</v>
+      <c r="C468" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
       <c r="A469" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B469" s="8" t="s">
+      <c r="B469" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C469" s="5" t="s">
-        <v>5</v>
+      <c r="C469" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
-      <c r="B470" s="9"/>
-      <c r="C470" s="5"/>
+      <c r="B470" s="10"/>
+      <c r="C470" s="8"/>
     </row>
     <row r="471" ht="21" spans="1:3">
-      <c r="A471" s="10"/>
-      <c r="B471" s="9"/>
-      <c r="C471" s="5"/>
+      <c r="A471" s="11"/>
+      <c r="B471" s="10"/>
+      <c r="C471" s="8"/>
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B472" s="8" t="s">
+      <c r="B472" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C472" s="5" t="s">
-        <v>5</v>
+      <c r="C472" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
       <c r="A473" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B473" s="8" t="s">
+      <c r="B473" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C473" s="5" t="s">
-        <v>5</v>
+      <c r="C473" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
       <c r="A474" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B474" s="8" t="s">
+      <c r="B474" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C474" s="5" t="s">
-        <v>5</v>
+      <c r="C474" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
       <c r="A475" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B475" s="8" t="s">
+      <c r="B475" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C475" s="5" t="s">
-        <v>5</v>
+      <c r="C475" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
       <c r="A476" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B476" s="8" t="s">
+      <c r="B476" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="C476" s="5" t="s">
-        <v>5</v>
+      <c r="C476" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
       <c r="A477" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B477" s="8" t="s">
+      <c r="B477" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C477" s="5" t="s">
-        <v>5</v>
+      <c r="C477" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
       <c r="A478" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B478" s="8" t="s">
+      <c r="B478" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="C478" s="5" t="s">
-        <v>5</v>
+      <c r="C478" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
       <c r="A479" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B479" s="8" t="s">
+      <c r="B479" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C479" s="5" t="s">
-        <v>5</v>
+      <c r="C479" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
       <c r="A480" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B480" s="8" t="s">
+      <c r="B480" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="C480" s="5" t="s">
-        <v>5</v>
+      <c r="C480" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
       <c r="A481" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B481" s="8" t="s">
+      <c r="B481" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C481" s="5" t="s">
-        <v>5</v>
+      <c r="C481" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1426,9 +1426,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1502,29 +1502,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1540,7 +1517,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1555,14 +1571,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1570,9 +1578,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1587,37 +1602,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1639,7 +1631,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1660,7 +1660,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,19 +1684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,7 +1696,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,37 +1750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,13 +1774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,19 +1792,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,43 +1834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,21 +1845,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1874,24 +1859,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1911,12 +1878,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1940,154 +1920,174 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2441,7 +2441,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2573,7 +2573,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1425,10 +1425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1503,31 +1503,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1538,9 +1516,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,7 +1540,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1570,11 +1576,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1586,8 +1592,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1602,27 +1624,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1631,15 +1639,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1660,7 +1660,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,115 +1810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,37 +1822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,7 +1834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1863,21 +1863,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1896,7 +1881,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1917,6 +1922,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1925,169 +1945,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2440,8 +2440,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2589,18 +2589,18 @@
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>17</v>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="8" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -67,18 +67,21 @@
     <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
+    <t>Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
   </si>
   <si>
-    <t>find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t>Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
     <t>Merge Intervals</t>
   </si>
   <si>
@@ -1289,9 +1292,6 @@
   </si>
   <si>
     <t>Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t>Minimum number of jumps to reach end</t>
   </si>
   <si>
     <t>Minimum cost to fill given weight in a bag</t>
@@ -1425,9 +1425,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -1502,8 +1502,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,6 +1518,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1524,7 +1539,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1554,33 +1577,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1599,17 +1600,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1624,7 +1617,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1632,14 +1639,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1660,7 +1660,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,43 +1804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,109 +1822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1849,16 +1849,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,8 +1905,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1891,7 +1930,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1906,188 +1945,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2108,10 +2108,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2440,8 +2440,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2580,9 +2580,11 @@
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:3">
@@ -2603,4910 +2605,4910 @@
       <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>17</v>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="21" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>17</v>
+      <c r="C18" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="21" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>17</v>
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>17</v>
+      <c r="B20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>17</v>
+      <c r="B21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>17</v>
+      <c r="B22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>17</v>
+      <c r="B23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>17</v>
+      <c r="B24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>17</v>
+      <c r="B25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>17</v>
+      <c r="B26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>17</v>
+      <c r="B27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>17</v>
+      <c r="B28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>17</v>
+      <c r="B29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>17</v>
+      <c r="B30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>17</v>
+      <c r="B31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>17</v>
+      <c r="B32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>17</v>
+      <c r="B33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>17</v>
+      <c r="B34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>17</v>
+      <c r="B35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>17</v>
+      <c r="B36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>17</v>
+      <c r="B37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>17</v>
+      <c r="B38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>17</v>
+      <c r="B39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>17</v>
+      <c r="B40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>17</v>
+      <c r="B41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="10"/>
-      <c r="C42" s="8" t="s">
-        <v>17</v>
+      <c r="C42" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="8" t="s">
-        <v>17</v>
+      <c r="C43" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
       <c r="A44" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>17</v>
+      <c r="B44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
       <c r="A45" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
       <c r="A46" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
       <c r="A47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
       <c r="A48" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
       <c r="A49" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
       <c r="A50" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
       <c r="A51" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
       <c r="A52" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
       <c r="A53" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
       <c r="A55" s="6"/>
       <c r="B55" s="10"/>
-      <c r="C55" s="8"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>17</v>
+      <c r="B56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
       <c r="A57" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
       <c r="A58" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
       <c r="A59" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
       <c r="A61" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
       <c r="A62" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
       <c r="A63" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
       <c r="A64" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
       <c r="A67" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
       <c r="A68" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
       <c r="A72" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
       <c r="A73" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
       <c r="A74" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
       <c r="A75" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
       <c r="A79" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
       <c r="A80" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
       <c r="A81" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
       <c r="A82" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
       <c r="A83" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
       <c r="A84" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
       <c r="A85" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
       <c r="A86" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
       <c r="A87" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
       <c r="A88" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
       <c r="A89" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
       <c r="A90" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
       <c r="A91" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
       <c r="A92" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
       <c r="A93" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
       <c r="A94" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
       <c r="A95" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
       <c r="A97" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
       <c r="A98" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
       <c r="A100" s="11"/>
       <c r="B100" s="10"/>
-      <c r="C100" s="8"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>17</v>
+      <c r="B101" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
       <c r="A102" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
       <c r="A103" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
       <c r="A104" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
       <c r="A105" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
       <c r="A107" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
       <c r="A111" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
       <c r="A112" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
       <c r="A113" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
       <c r="A115" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
       <c r="A116" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
       <c r="A117" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
       <c r="A118" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
       <c r="A119" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
       <c r="A121" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
       <c r="A123" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
       <c r="A124" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
       <c r="A125" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
       <c r="A126" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
       <c r="A127" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
       <c r="A128" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
       <c r="A129" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
       <c r="A130" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
       <c r="A131" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
       <c r="A134" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
       <c r="A135" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
       <c r="B138" s="10"/>
-      <c r="C138" s="8"/>
+      <c r="C138" s="9"/>
     </row>
     <row r="139" ht="21" spans="1:3">
       <c r="A139" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="8" t="s">
-        <v>17</v>
+      <c r="B139" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
       <c r="A140" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
       <c r="A141" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
       <c r="A142" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
       <c r="A143" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
       <c r="A144" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
       <c r="A145" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
       <c r="A146" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
       <c r="A147" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
       <c r="A148" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
       <c r="A149" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
       <c r="A150" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
       <c r="A151" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
       <c r="A152" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
       <c r="A153" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
       <c r="A154" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
       <c r="A155" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
       <c r="A156" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
       <c r="A157" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
       <c r="A158" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
       <c r="A159" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
       <c r="A160" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
       <c r="A161" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
       <c r="A162" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
       <c r="A163" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
       <c r="A164" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>17</v>
+        <v>163</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
       <c r="A165" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>17</v>
+        <v>164</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
       <c r="A166" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
       <c r="A167" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
       <c r="A168" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
       <c r="A169" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
       <c r="A170" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
       <c r="A171" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
       <c r="A172" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
       <c r="A173" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
       <c r="A174" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
       <c r="B176" s="10"/>
-      <c r="C176" s="8"/>
+      <c r="C176" s="9"/>
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B177" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="B177" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C177" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
       <c r="A178" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C178" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
       <c r="A179" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C179" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C179" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
       <c r="A180" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C180" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C180" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
       <c r="A181" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C181" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C181" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="182" ht="21" spans="1:3">
       <c r="A182" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C182" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C182" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="183" ht="21" spans="1:3">
       <c r="A183" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C183" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C183" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
       <c r="A184" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C184" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C184" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">
       <c r="A185" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C185" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C185" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
       <c r="A186" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C186" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C186" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
       <c r="A187" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C187" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C187" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">
       <c r="A188" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C188" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C188" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="189" ht="21" spans="1:3">
       <c r="A189" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C189" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C189" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="190" ht="21" spans="1:3">
       <c r="A190" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C190" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C190" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">
       <c r="A191" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C191" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C191" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C192" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C192" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>17</v>
+        <v>191</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C194" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B194" s="8" t="s">
         <v>192</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="195" ht="21" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C195" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C195" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="196" ht="21" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C196" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C196" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="197" ht="21" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
       <c r="A198" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
       <c r="A199" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
       <c r="A201" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
       <c r="A202" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
       <c r="A206" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
       <c r="A207" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
       <c r="A208" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
       <c r="A209" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
       <c r="A210" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
       <c r="A211" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>17</v>
+        <v>174</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
       <c r="A212" s="11"/>
       <c r="B212" s="10"/>
-      <c r="C212" s="8"/>
+      <c r="C212" s="9"/>
     </row>
     <row r="213" ht="21" spans="1:3">
       <c r="A213" s="11"/>
       <c r="B213" s="10"/>
-      <c r="C213" s="8"/>
+      <c r="C213" s="9"/>
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B214" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C214" s="8" t="s">
-        <v>17</v>
+      <c r="B214" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
       <c r="A220" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>17</v>
+        <v>218</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
       <c r="A222" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
       <c r="A224" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
       <c r="A225" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
       <c r="A226" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
       <c r="A227" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
       <c r="A228" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
       <c r="A229" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
       <c r="A232" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
       <c r="A233" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
       <c r="A234" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
       <c r="A235" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>17</v>
+        <v>211</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
       <c r="B236" s="10"/>
-      <c r="C236" s="8"/>
+      <c r="C236" s="9"/>
     </row>
     <row r="237" ht="21" spans="2:3">
       <c r="B237" s="10"/>
-      <c r="C237" s="8"/>
+      <c r="C237" s="9"/>
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B238" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C238" s="8" t="s">
-        <v>17</v>
+      <c r="B238" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
       <c r="A239" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C239" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
       <c r="A240" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
       <c r="A241" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
       <c r="A242" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C242" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B242" s="8" t="s">
         <v>239</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="243" ht="21" spans="1:3">
       <c r="A243" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
       <c r="A244" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B244" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C244" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
       <c r="A245" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B245" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
       <c r="A246" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C246" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
       <c r="A247" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B247" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
       <c r="A248" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B249" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
       <c r="A250" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B250" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
       <c r="A251" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B251" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
       <c r="A252" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C252" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
       <c r="A253" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C253" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
       <c r="A254" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B254" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C254" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
       <c r="A255" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B255" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C255" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
       <c r="A256" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B256" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C256" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
       <c r="A258" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C258" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
       <c r="A259" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C259" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
       <c r="A260" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C260" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
       <c r="A261" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B261" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
       <c r="A262" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B262" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
       <c r="A263" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B263" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C263" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
       <c r="A264" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
       <c r="A265" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C265" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
       <c r="A266" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B266" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C266" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C267" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B268" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C268" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
       <c r="A269" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B269" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C269" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
       <c r="A270" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B270" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
       <c r="A271" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B271" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C271" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
       <c r="A272" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B272" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C272" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
       <c r="B273" s="10"/>
-      <c r="C273" s="8"/>
+      <c r="C273" s="9"/>
     </row>
     <row r="274" ht="21" spans="2:3">
       <c r="B274" s="10"/>
-      <c r="C274" s="8"/>
+      <c r="C274" s="9"/>
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B275" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C275" s="8" t="s">
-        <v>17</v>
+      <c r="B275" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
       <c r="A276" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B276" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C276" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
       <c r="A277" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C277" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
       <c r="A278" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B278" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C278" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
       <c r="A279" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C279" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
       <c r="A280" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B280" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C280" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
       <c r="A281" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C281" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
       <c r="A282" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B282" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C282" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
       <c r="A283" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B283" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C283" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
       <c r="A284" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B284" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C284" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
       <c r="A285" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B285" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C285" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
       <c r="A286" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B286" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C286" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
       <c r="A287" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C287" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
       <c r="A288" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B288" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
       <c r="A289" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B289" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C289" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
       <c r="A290" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B290" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C290" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
       <c r="A291" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B291" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C291" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
       <c r="A292" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B292" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C292" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
       <c r="A293" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B293" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C293" s="8" t="s">
-        <v>17</v>
+        <v>270</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
       <c r="B294" s="10"/>
-      <c r="C294" s="8"/>
+      <c r="C294" s="9"/>
     </row>
     <row r="295" ht="21" spans="2:3">
       <c r="B295" s="10"/>
-      <c r="C295" s="8"/>
+      <c r="C295" s="9"/>
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B296" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C296" s="8" t="s">
-        <v>17</v>
+      <c r="B296" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
       <c r="A297" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B297" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C297" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
       <c r="A298" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B298" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C298" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
       <c r="A299" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B299" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C299" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
       <c r="A300" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B300" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C300" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
       <c r="A301" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B301" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C301" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
       <c r="A302" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B302" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C302" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
       <c r="A303" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B303" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C303" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
       <c r="A304" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B304" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C304" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
       <c r="A305" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B305" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C305" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
       <c r="A306" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B306" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="C306" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C306" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
       <c r="A307" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B307" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C307" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
       <c r="A308" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B308" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C308" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
       <c r="A309" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="C309" s="8" t="s">
-        <v>17</v>
+        <v>304</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
       <c r="A310" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B310" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C310" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
       <c r="A311" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B311" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C311" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
       <c r="A312" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B312" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C312" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
       <c r="A313" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B313" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C313" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
       <c r="A314" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B314" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C314" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
       <c r="A315" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B315" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C315" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
       <c r="A316" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B316" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C316" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
       <c r="A317" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B317" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C317" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
       <c r="A318" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B318" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C318" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
       <c r="A319" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B319" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C319" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
       <c r="A320" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B320" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C320" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
       <c r="A321" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B321" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C321" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
       <c r="A322" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B322" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C322" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
       <c r="A323" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B323" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C323" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
       <c r="A324" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B324" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C324" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C324" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
       <c r="A325" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B325" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C325" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
       <c r="A326" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B326" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C326" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C326" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
       <c r="A327" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B327" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C327" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C327" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
       <c r="A328" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B328" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C328" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
       <c r="A329" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B329" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C329" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C329" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
       <c r="A330" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B330" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C330" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C330" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
       <c r="A331" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B331" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C331" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
       <c r="A332" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B332" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C332" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
       <c r="A333" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B333" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C333" s="8" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
       <c r="B334" s="10"/>
-      <c r="C334" s="8"/>
+      <c r="C334" s="9"/>
     </row>
     <row r="335" ht="21" spans="2:3">
       <c r="B335" s="10"/>
-      <c r="C335" s="8"/>
+      <c r="C335" s="9"/>
     </row>
     <row r="336" ht="21" spans="1:3">
       <c r="A336" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B336" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C336" s="8" t="s">
-        <v>17</v>
+      <c r="B336" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C336" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
       <c r="A337" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B337" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C337" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C337" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
       <c r="A338" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B338" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C338" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C338" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
       <c r="A339" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B339" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C339" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C339" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
       <c r="A340" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B340" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C340" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C340" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
       <c r="A341" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B341" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C341" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C341" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
       <c r="A342" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B342" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C342" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C342" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
       <c r="A343" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B343" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C343" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
       <c r="A344" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C344" s="8" t="s">
-        <v>17</v>
+        <v>338</v>
+      </c>
+      <c r="C344" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
       <c r="A345" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B345" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C345" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C345" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
       <c r="A346" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B346" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C346" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C346" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
       <c r="A347" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B347" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C347" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C347" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
       <c r="A348" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B348" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C348" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C348" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
       <c r="A349" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B349" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C349" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C349" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
       <c r="A350" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B350" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C350" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C350" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
       <c r="A351" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B351" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C351" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C351" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
       <c r="A352" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B352" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C352" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C352" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
       <c r="A353" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B353" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C353" s="8" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C353" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
       <c r="B354" s="10"/>
-      <c r="C354" s="8"/>
+      <c r="C354" s="9"/>
     </row>
     <row r="355" ht="21" spans="2:3">
       <c r="B355" s="10"/>
-      <c r="C355" s="8"/>
+      <c r="C355" s="9"/>
     </row>
     <row r="356" ht="21" spans="1:3">
       <c r="A356" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B356" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="C356" s="8" t="s">
-        <v>17</v>
+      <c r="B356" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C356" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
       <c r="A357" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B357" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C357" s="8" t="s">
-        <v>239</v>
+        <v>348</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C357" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
       <c r="A358" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B358" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C358" s="8" t="s">
-        <v>239</v>
+        <v>348</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C358" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
       <c r="A359" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C359" s="8" t="s">
-        <v>239</v>
+        <v>352</v>
+      </c>
+      <c r="C359" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
       <c r="A360" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C360" s="8" t="s">
-        <v>239</v>
+        <v>353</v>
+      </c>
+      <c r="C360" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
       <c r="A361" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B361" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C361" s="8" t="s">
-        <v>239</v>
+        <v>348</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C361" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
       <c r="A362" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B362" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C362" s="8" t="s">
-        <v>239</v>
+        <v>348</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C362" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
       <c r="A363" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B363" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C363" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C363" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
       <c r="A364" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B364" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C364" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C364" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
       <c r="A365" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B365" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="C365" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C365" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
       <c r="A366" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B366" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C366" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C366" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
       <c r="A367" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B367" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="C367" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C367" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
       <c r="A368" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B368" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C368" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C368" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
       <c r="A369" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B369" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C369" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C369" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
       <c r="A370" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B370" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C370" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C370" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
       <c r="A371" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B371" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C371" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C371" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
       <c r="A372" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B372" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C372" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C372" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
       <c r="A373" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B373" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C373" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C373" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
       <c r="A374" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B374" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C374" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C374" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
       <c r="A375" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B375" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C375" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C375" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
       <c r="A376" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B376" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="C376" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C376" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
       <c r="A377" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B377" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C377" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C377" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
       <c r="A378" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B378" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C378" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C378" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
       <c r="A379" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B379" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C379" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C379" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
       <c r="A380" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B380" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="C380" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C380" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
       <c r="A381" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B381" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C381" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
       <c r="A382" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B382" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="C382" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C382" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
       <c r="A383" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B383" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C383" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C383" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
       <c r="A384" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B384" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C384" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C384" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
       <c r="A385" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B385" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C385" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C385" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
       <c r="A386" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B386" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C386" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C386" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
       <c r="A387" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B387" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C387" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C387" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
       <c r="A388" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B388" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="C388" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C388" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
       <c r="A389" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B389" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C389" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C389" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
       <c r="A390" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B390" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C390" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C390" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
       <c r="A391" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B391" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C391" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C391" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
       <c r="A392" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B392" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C392" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C392" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
       <c r="A393" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B393" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="C393" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C393" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
       <c r="A394" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B394" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C394" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C394" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
       <c r="A395" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B395" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C395" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C395" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
       <c r="A396" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B396" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C396" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C396" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
       <c r="A397" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B397" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C397" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C397" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
       <c r="A398" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B398" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C398" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C398" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
       <c r="A399" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B399" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C399" s="8" t="s">
-        <v>17</v>
+        <v>348</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C399" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
       <c r="B400" s="10"/>
-      <c r="C400" s="8"/>
+      <c r="C400" s="9"/>
     </row>
     <row r="401" ht="21" spans="2:3">
       <c r="B401" s="10"/>
-      <c r="C401" s="8"/>
+      <c r="C401" s="9"/>
     </row>
     <row r="402" ht="21" spans="1:3">
       <c r="A402" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B402" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C402" s="8" t="s">
-        <v>17</v>
+      <c r="B402" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C402" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
       <c r="A403" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B403" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C403" s="8" t="s">
-        <v>17</v>
+        <v>392</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C403" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
       <c r="A404" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B404" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C404" s="8" t="s">
-        <v>17</v>
+        <v>392</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C404" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
       <c r="A405" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B405" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C405" s="8" t="s">
-        <v>17</v>
+        <v>392</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C405" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
       <c r="A406" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B406" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C406" s="8" t="s">
-        <v>17</v>
+        <v>392</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C406" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
       <c r="A407" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B407" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C407" s="8" t="s">
-        <v>17</v>
+        <v>392</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C407" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
       <c r="B408" s="10"/>
-      <c r="C408" s="8"/>
+      <c r="C408" s="9"/>
     </row>
     <row r="409" ht="21" spans="2:3">
       <c r="B409" s="10"/>
-      <c r="C409" s="8"/>
+      <c r="C409" s="9"/>
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B410" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C410" s="8" t="s">
+      <c r="B410" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C410" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="411" ht="21" spans="1:3">
       <c r="A411" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B411" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C411" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C411" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="412" ht="21" spans="1:3">
       <c r="A412" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B412" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C412" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C412" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="413" ht="21" spans="1:3">
       <c r="A413" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B413" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="C413" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C413" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="414" ht="21" spans="1:3">
       <c r="A414" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B414" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C414" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C414" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="415" ht="21" spans="1:3">
       <c r="A415" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B415" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C415" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B415" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C415" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="416" ht="21" spans="1:3">
       <c r="A416" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B416" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C416" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B416" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C416" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="417" ht="21" spans="1:3">
       <c r="A417" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B417" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C417" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C417" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
       <c r="A418" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B418" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C418" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B418" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C418" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
       <c r="A419" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B419" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="C419" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B419" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C419" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
       <c r="A420" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B420" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C420" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B420" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C420" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
       <c r="A421" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B421" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C421" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C421" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
       <c r="A422" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B422" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C422" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B422" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C422" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
       <c r="A423" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B423" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C423" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C423" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
       <c r="A424" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B424" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C424" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B424" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C424" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
       <c r="A425" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B425" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C425" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C425" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
       <c r="A426" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B426" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C426" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B426" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C426" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
       <c r="A427" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B427" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C427" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C427" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
       <c r="A428" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B428" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="C428" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B428" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C428" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
       <c r="A429" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B429" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C429" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C429" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
       <c r="A430" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B430" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="C430" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B430" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C430" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
       <c r="A431" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B431" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C431" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
       <c r="A432" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B432" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C432" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B432" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C432" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
       <c r="A433" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B433" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C433" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C433" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
       <c r="A434" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B434" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C434" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B434" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C434" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
       <c r="A435" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B435" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="C435" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C435" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
       <c r="A436" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B436" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="C436" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C436" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
       <c r="A437" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B437" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C437" s="8" t="s">
-        <v>17</v>
+        <v>398</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C437" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
       <c r="A438" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B438" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C438" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B438" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="C438" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
       <c r="A439" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B439" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B439" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C439" s="8" t="s">
-        <v>17</v>
+      <c r="C439" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
       <c r="A440" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B440" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B440" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C440" s="8" t="s">
-        <v>17</v>
+      <c r="C440" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
       <c r="A441" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B441" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B441" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C441" s="8" t="s">
-        <v>17</v>
+      <c r="C441" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
       <c r="A442" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B442" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B442" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C442" s="8" t="s">
-        <v>17</v>
+      <c r="C442" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
       <c r="A443" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B443" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B443" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C443" s="8" t="s">
-        <v>17</v>
+      <c r="C443" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
       <c r="A444" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B444" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B444" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C444" s="8" t="s">
-        <v>17</v>
+      <c r="C444" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
       <c r="A445" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B445" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B445" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C445" s="8" t="s">
-        <v>17</v>
+      <c r="C445" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
       <c r="A446" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B446" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B446" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C446" s="8" t="s">
-        <v>17</v>
+      <c r="C446" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
       <c r="A447" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B447" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B447" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C447" s="8" t="s">
-        <v>17</v>
+      <c r="C447" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
       <c r="A448" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B448" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B448" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C448" s="8" t="s">
-        <v>17</v>
+      <c r="C448" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
       <c r="A449" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B449" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B449" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C449" s="8" t="s">
-        <v>17</v>
+      <c r="C449" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
       <c r="A450" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B450" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B450" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C450" s="8" t="s">
-        <v>17</v>
+      <c r="C450" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
       <c r="A451" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B451" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B451" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C451" s="8" t="s">
-        <v>17</v>
+      <c r="C451" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
       <c r="A452" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B452" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B452" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="C452" s="8" t="s">
-        <v>17</v>
+      <c r="C452" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
       <c r="A453" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B453" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B453" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C453" s="8" t="s">
-        <v>17</v>
+      <c r="C453" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
       <c r="A454" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B454" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B454" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C454" s="8" t="s">
-        <v>17</v>
+      <c r="C454" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
       <c r="A455" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B455" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B455" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="C455" s="8" t="s">
-        <v>17</v>
+      <c r="C455" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
       <c r="A456" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B456" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B456" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C456" s="8" t="s">
-        <v>17</v>
+      <c r="C456" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
       <c r="A457" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B457" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B457" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="C457" s="8" t="s">
-        <v>17</v>
+      <c r="C457" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
       <c r="A458" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B458" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B458" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="C458" s="8" t="s">
-        <v>17</v>
+      <c r="C458" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
       <c r="A459" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B459" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B459" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="C459" s="8" t="s">
-        <v>17</v>
+      <c r="C459" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
       <c r="A460" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B460" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B460" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C460" s="8" t="s">
-        <v>17</v>
+      <c r="C460" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
       <c r="A461" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B461" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B461" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="C461" s="8" t="s">
-        <v>17</v>
+      <c r="C461" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
       <c r="A462" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B462" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B462" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C462" s="8" t="s">
-        <v>17</v>
+      <c r="C462" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
       <c r="A463" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B463" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B463" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C463" s="8" t="s">
-        <v>17</v>
+      <c r="C463" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
       <c r="A464" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B464" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B464" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C464" s="8" t="s">
-        <v>17</v>
+      <c r="C464" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
       <c r="A465" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B465" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B465" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C465" s="8" t="s">
-        <v>17</v>
+      <c r="C465" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
       <c r="A466" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B466" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B466" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="C466" s="8" t="s">
-        <v>17</v>
+      <c r="C466" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
       <c r="A467" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B467" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B467" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C467" s="8" t="s">
-        <v>17</v>
+      <c r="C467" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
       <c r="A468" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B468" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B468" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="C468" s="8" t="s">
-        <v>17</v>
+      <c r="C468" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
       <c r="A469" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B469" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B469" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C469" s="8" t="s">
-        <v>17</v>
+      <c r="C469" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
       <c r="B470" s="10"/>
-      <c r="C470" s="8"/>
+      <c r="C470" s="9"/>
     </row>
     <row r="471" ht="21" spans="1:3">
       <c r="A471" s="11"/>
       <c r="B471" s="10"/>
-      <c r="C471" s="8"/>
+      <c r="C471" s="9"/>
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B472" s="9" t="s">
+      <c r="B472" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C472" s="8" t="s">
-        <v>17</v>
+      <c r="C472" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
       <c r="A473" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B473" s="9" t="s">
+      <c r="B473" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C473" s="8" t="s">
-        <v>17</v>
+      <c r="C473" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
       <c r="A474" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B474" s="9" t="s">
+      <c r="B474" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C474" s="8" t="s">
-        <v>17</v>
+      <c r="C474" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
       <c r="A475" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B475" s="9" t="s">
+      <c r="B475" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C475" s="8" t="s">
-        <v>17</v>
+      <c r="C475" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
       <c r="A476" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B476" s="9" t="s">
+      <c r="B476" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="C476" s="8" t="s">
-        <v>17</v>
+      <c r="C476" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
       <c r="A477" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B477" s="9" t="s">
+      <c r="B477" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="C477" s="8" t="s">
-        <v>17</v>
+      <c r="C477" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
       <c r="A478" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B478" s="9" t="s">
+      <c r="B478" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="C478" s="8" t="s">
-        <v>17</v>
+      <c r="C478" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
       <c r="A479" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B479" s="9" t="s">
+      <c r="B479" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C479" s="8" t="s">
-        <v>17</v>
+      <c r="C479" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
       <c r="A480" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B480" s="9" t="s">
+      <c r="B480" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="C480" s="8" t="s">
-        <v>17</v>
+      <c r="C480" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
       <c r="A481" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B481" s="9" t="s">
+      <c r="B481" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C481" s="8" t="s">
-        <v>17</v>
+      <c r="C481" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -79,13 +79,13 @@
     <t>Kadane's Algo [V.V.V.V.V IMP]</t>
   </si>
   <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
   </si>
   <si>
     <t>Count Inversion</t>
@@ -1425,10 +1425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1502,9 +1502,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1524,54 +1531,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,7 +1548,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1597,6 +1567,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1616,8 +1593,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1630,8 +1622,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1640,6 +1633,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1660,7 +1660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,19 +1672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,25 +1684,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,19 +1714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,31 +1726,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,13 +1762,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,19 +1798,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,7 +1828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,45 +1845,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1907,6 +1868,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1937,6 +1913,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1948,146 +1948,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2441,7 +2441,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2616,8 +2616,8 @@
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>21</v>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="21" spans="1:3">
@@ -2625,10 +2625,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="9" t="s">
         <v>21</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:3">
@@ -2636,10 +2636,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
@@ -2650,7 +2650,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:3">
@@ -2661,7 +2661,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
@@ -2672,7 +2672,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
@@ -2694,7 +2694,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
@@ -2705,7 +2705,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
@@ -2727,7 +2727,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
@@ -2738,7 +2738,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
@@ -2749,7 +2749,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
@@ -2760,7 +2760,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
@@ -2782,7 +2782,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
@@ -2793,7 +2793,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
@@ -2815,7 +2815,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
@@ -2848,7 +2848,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
@@ -2859,7 +2859,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
@@ -2870,20 +2870,20 @@
         <v>44</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="10"/>
       <c r="C42" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="10"/>
       <c r="C43" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>49</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>52</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>53</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
@@ -3009,7 +3009,7 @@
         <v>57</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
@@ -3020,7 +3020,7 @@
         <v>58</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>59</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
@@ -3042,7 +3042,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
@@ -3053,7 +3053,7 @@
         <v>61</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>62</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
@@ -3075,7 +3075,7 @@
         <v>63</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
@@ -3086,7 +3086,7 @@
         <v>64</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
@@ -3097,7 +3097,7 @@
         <v>65</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
@@ -3108,7 +3108,7 @@
         <v>66</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
@@ -3119,7 +3119,7 @@
         <v>67</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
@@ -3130,7 +3130,7 @@
         <v>68</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
@@ -3152,7 +3152,7 @@
         <v>70</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
@@ -3163,7 +3163,7 @@
         <v>71</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
@@ -3174,7 +3174,7 @@
         <v>72</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
@@ -3185,7 +3185,7 @@
         <v>73</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
@@ -3196,7 +3196,7 @@
         <v>74</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
@@ -3207,7 +3207,7 @@
         <v>75</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
@@ -3218,7 +3218,7 @@
         <v>76</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
@@ -3229,7 +3229,7 @@
         <v>77</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
@@ -3240,7 +3240,7 @@
         <v>78</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>79</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
@@ -3262,7 +3262,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
@@ -3273,7 +3273,7 @@
         <v>81</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
@@ -3284,7 +3284,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
@@ -3295,7 +3295,7 @@
         <v>83</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
@@ -3306,7 +3306,7 @@
         <v>84</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
@@ -3317,7 +3317,7 @@
         <v>85</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
@@ -3328,7 +3328,7 @@
         <v>86</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
@@ -3339,7 +3339,7 @@
         <v>87</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>88</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>89</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
@@ -3372,7 +3372,7 @@
         <v>90</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
@@ -3383,7 +3383,7 @@
         <v>91</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
@@ -3394,7 +3394,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
@@ -3405,7 +3405,7 @@
         <v>93</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
@@ -3416,7 +3416,7 @@
         <v>94</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
@@ -3427,7 +3427,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
@@ -3438,7 +3438,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
@@ -3449,7 +3449,7 @@
         <v>97</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>98</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
@@ -3471,7 +3471,7 @@
         <v>99</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>101</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
@@ -3498,7 +3498,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
@@ -3509,7 +3509,7 @@
         <v>103</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>104</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
@@ -3531,7 +3531,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
@@ -3553,7 +3553,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
@@ -3564,7 +3564,7 @@
         <v>108</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
@@ -3575,7 +3575,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
@@ -3597,7 +3597,7 @@
         <v>111</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
@@ -3608,7 +3608,7 @@
         <v>112</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
@@ -3619,7 +3619,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
@@ -3641,7 +3641,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
@@ -3652,7 +3652,7 @@
         <v>116</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
@@ -3663,7 +3663,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
@@ -3674,7 +3674,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
@@ -3685,7 +3685,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
@@ -3696,7 +3696,7 @@
         <v>120</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
@@ -3707,7 +3707,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
@@ -3718,7 +3718,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>123</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
@@ -3740,7 +3740,7 @@
         <v>124</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
@@ -3751,7 +3751,7 @@
         <v>125</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
@@ -3762,7 +3762,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
@@ -3773,7 +3773,7 @@
         <v>127</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
@@ -3784,7 +3784,7 @@
         <v>128</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
@@ -3795,7 +3795,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
@@ -3806,7 +3806,7 @@
         <v>130</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
@@ -3817,7 +3817,7 @@
         <v>131</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
@@ -3828,7 +3828,7 @@
         <v>132</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>133</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
@@ -3850,7 +3850,7 @@
         <v>134</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
@@ -3861,7 +3861,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
@@ -3872,7 +3872,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
@@ -3887,7 +3887,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
@@ -3898,7 +3898,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
@@ -3909,7 +3909,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
@@ -3920,7 +3920,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
@@ -3942,7 +3942,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
@@ -3953,7 +3953,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
@@ -3986,7 +3986,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
@@ -4008,7 +4008,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
@@ -4118,7 +4118,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
@@ -4162,7 +4162,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
@@ -4184,7 +4184,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
@@ -4195,7 +4195,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
@@ -4217,7 +4217,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
@@ -4261,7 +4261,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
@@ -4272,7 +4272,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
@@ -4463,7 +4463,7 @@
         <v>191</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
@@ -4507,7 +4507,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
@@ -4518,7 +4518,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
@@ -4529,7 +4529,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
@@ -4540,7 +4540,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
@@ -4551,7 +4551,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
@@ -4562,7 +4562,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
@@ -4573,7 +4573,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
@@ -4584,7 +4584,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
@@ -4595,7 +4595,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
@@ -4606,7 +4606,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
@@ -4617,7 +4617,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
@@ -4628,7 +4628,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
@@ -4639,7 +4639,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
@@ -4650,7 +4650,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
@@ -4661,7 +4661,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
@@ -4682,7 +4682,7 @@
         <v>212</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
@@ -4693,7 +4693,7 @@
         <v>213</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
@@ -4704,7 +4704,7 @@
         <v>214</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
@@ -4715,7 +4715,7 @@
         <v>215</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
@@ -4726,7 +4726,7 @@
         <v>216</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
@@ -4737,7 +4737,7 @@
         <v>217</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
@@ -4748,7 +4748,7 @@
         <v>218</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
@@ -4759,7 +4759,7 @@
         <v>219</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
@@ -4770,7 +4770,7 @@
         <v>220</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
@@ -4781,7 +4781,7 @@
         <v>221</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
@@ -4792,7 +4792,7 @@
         <v>222</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
@@ -4803,7 +4803,7 @@
         <v>223</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
@@ -4814,7 +4814,7 @@
         <v>224</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
@@ -4825,7 +4825,7 @@
         <v>225</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
@@ -4836,7 +4836,7 @@
         <v>226</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
@@ -4847,7 +4847,7 @@
         <v>227</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
@@ -4858,7 +4858,7 @@
         <v>228</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
@@ -4869,7 +4869,7 @@
         <v>229</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
@@ -4880,7 +4880,7 @@
         <v>230</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
@@ -4891,7 +4891,7 @@
         <v>231</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
@@ -4902,7 +4902,7 @@
         <v>232</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
@@ -4913,7 +4913,7 @@
         <v>233</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
@@ -4932,7 +4932,7 @@
         <v>235</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
@@ -4943,7 +4943,7 @@
         <v>236</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
@@ -4954,7 +4954,7 @@
         <v>237</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
@@ -4965,7 +4965,7 @@
         <v>238</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
@@ -4987,7 +4987,7 @@
         <v>241</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
@@ -4998,7 +4998,7 @@
         <v>242</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
@@ -5009,7 +5009,7 @@
         <v>243</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
@@ -5031,7 +5031,7 @@
         <v>245</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
@@ -5042,7 +5042,7 @@
         <v>246</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
@@ -5053,7 +5053,7 @@
         <v>247</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
@@ -5064,7 +5064,7 @@
         <v>248</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
@@ -5075,7 +5075,7 @@
         <v>249</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
@@ -5086,7 +5086,7 @@
         <v>250</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
@@ -5097,7 +5097,7 @@
         <v>251</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>252</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
@@ -5119,7 +5119,7 @@
         <v>253</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
@@ -5130,7 +5130,7 @@
         <v>254</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
@@ -5141,7 +5141,7 @@
         <v>255</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>256</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
@@ -5163,7 +5163,7 @@
         <v>257</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
@@ -5174,7 +5174,7 @@
         <v>258</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
@@ -5185,7 +5185,7 @@
         <v>259</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
@@ -5196,7 +5196,7 @@
         <v>260</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>261</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>262</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
@@ -5229,7 +5229,7 @@
         <v>263</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>264</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
@@ -5251,7 +5251,7 @@
         <v>265</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
@@ -5262,7 +5262,7 @@
         <v>266</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
@@ -5273,7 +5273,7 @@
         <v>267</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>268</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
@@ -5295,7 +5295,7 @@
         <v>90</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
@@ -5306,7 +5306,7 @@
         <v>269</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
@@ -5325,7 +5325,7 @@
         <v>271</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
@@ -5336,7 +5336,7 @@
         <v>272</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
@@ -5347,7 +5347,7 @@
         <v>273</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
@@ -5358,7 +5358,7 @@
         <v>274</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
@@ -5369,7 +5369,7 @@
         <v>275</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
@@ -5380,7 +5380,7 @@
         <v>276</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>277</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
@@ -5402,7 +5402,7 @@
         <v>278</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
@@ -5413,7 +5413,7 @@
         <v>279</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
@@ -5424,7 +5424,7 @@
         <v>280</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
@@ -5435,7 +5435,7 @@
         <v>281</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
@@ -5446,7 +5446,7 @@
         <v>282</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
@@ -5457,7 +5457,7 @@
         <v>283</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
@@ -5468,7 +5468,7 @@
         <v>284</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
@@ -5479,7 +5479,7 @@
         <v>285</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>286</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
@@ -5501,7 +5501,7 @@
         <v>287</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
@@ -5512,7 +5512,7 @@
         <v>288</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
@@ -5523,7 +5523,7 @@
         <v>289</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
@@ -5542,7 +5542,7 @@
         <v>291</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
@@ -5553,7 +5553,7 @@
         <v>292</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>293</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
@@ -5575,7 +5575,7 @@
         <v>294</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
@@ -5586,7 +5586,7 @@
         <v>295</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
@@ -5597,7 +5597,7 @@
         <v>296</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
@@ -5608,7 +5608,7 @@
         <v>297</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
@@ -5619,7 +5619,7 @@
         <v>298</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
@@ -5630,7 +5630,7 @@
         <v>299</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
@@ -5641,7 +5641,7 @@
         <v>300</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
@@ -5652,7 +5652,7 @@
         <v>301</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
@@ -5663,7 +5663,7 @@
         <v>302</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
@@ -5674,7 +5674,7 @@
         <v>303</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
@@ -5685,7 +5685,7 @@
         <v>304</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
@@ -5696,7 +5696,7 @@
         <v>305</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
@@ -5707,7 +5707,7 @@
         <v>306</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
@@ -5718,7 +5718,7 @@
         <v>307</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
@@ -5729,7 +5729,7 @@
         <v>308</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
@@ -5740,7 +5740,7 @@
         <v>309</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
@@ -5751,7 +5751,7 @@
         <v>310</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
@@ -5762,7 +5762,7 @@
         <v>311</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>312</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
@@ -5784,7 +5784,7 @@
         <v>313</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
@@ -5795,7 +5795,7 @@
         <v>314</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
@@ -5806,7 +5806,7 @@
         <v>315</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
@@ -5817,7 +5817,7 @@
         <v>316</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
@@ -5828,7 +5828,7 @@
         <v>317</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
@@ -5839,7 +5839,7 @@
         <v>318</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
@@ -5850,7 +5850,7 @@
         <v>319</v>
       </c>
       <c r="C324" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
@@ -5861,7 +5861,7 @@
         <v>320</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
@@ -5872,7 +5872,7 @@
         <v>321</v>
       </c>
       <c r="C326" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
@@ -5883,7 +5883,7 @@
         <v>322</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
@@ -5894,7 +5894,7 @@
         <v>323</v>
       </c>
       <c r="C328" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
@@ -5905,7 +5905,7 @@
         <v>324</v>
       </c>
       <c r="C329" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
@@ -5916,7 +5916,7 @@
         <v>325</v>
       </c>
       <c r="C330" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
@@ -5927,7 +5927,7 @@
         <v>326</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
@@ -5938,7 +5938,7 @@
         <v>327</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
@@ -5949,7 +5949,7 @@
         <v>328</v>
       </c>
       <c r="C333" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
@@ -5968,7 +5968,7 @@
         <v>330</v>
       </c>
       <c r="C336" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
@@ -5979,7 +5979,7 @@
         <v>331</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
@@ -5990,7 +5990,7 @@
         <v>332</v>
       </c>
       <c r="C338" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
@@ -6001,7 +6001,7 @@
         <v>333</v>
       </c>
       <c r="C339" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
@@ -6012,7 +6012,7 @@
         <v>334</v>
       </c>
       <c r="C340" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
@@ -6023,7 +6023,7 @@
         <v>335</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
@@ -6034,7 +6034,7 @@
         <v>336</v>
       </c>
       <c r="C342" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
@@ -6045,7 +6045,7 @@
         <v>337</v>
       </c>
       <c r="C343" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
@@ -6056,7 +6056,7 @@
         <v>338</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
@@ -6067,7 +6067,7 @@
         <v>339</v>
       </c>
       <c r="C345" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
@@ -6078,7 +6078,7 @@
         <v>340</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
@@ -6089,7 +6089,7 @@
         <v>341</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
@@ -6100,7 +6100,7 @@
         <v>342</v>
       </c>
       <c r="C348" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
@@ -6111,7 +6111,7 @@
         <v>343</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
@@ -6122,7 +6122,7 @@
         <v>344</v>
       </c>
       <c r="C350" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
@@ -6133,7 +6133,7 @@
         <v>345</v>
       </c>
       <c r="C351" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
@@ -6144,7 +6144,7 @@
         <v>346</v>
       </c>
       <c r="C352" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
@@ -6155,7 +6155,7 @@
         <v>347</v>
       </c>
       <c r="C353" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
@@ -6174,7 +6174,7 @@
         <v>349</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
@@ -6251,7 +6251,7 @@
         <v>356</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
@@ -6262,7 +6262,7 @@
         <v>357</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>358</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
@@ -6284,7 +6284,7 @@
         <v>359</v>
       </c>
       <c r="C366" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
@@ -6295,7 +6295,7 @@
         <v>360</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
@@ -6306,7 +6306,7 @@
         <v>361</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
@@ -6317,7 +6317,7 @@
         <v>362</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
@@ -6328,7 +6328,7 @@
         <v>363</v>
       </c>
       <c r="C370" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>364</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
@@ -6350,7 +6350,7 @@
         <v>365</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
@@ -6361,7 +6361,7 @@
         <v>366</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
@@ -6372,7 +6372,7 @@
         <v>367</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
@@ -6383,7 +6383,7 @@
         <v>368</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
@@ -6394,7 +6394,7 @@
         <v>369</v>
       </c>
       <c r="C376" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
@@ -6405,7 +6405,7 @@
         <v>370</v>
       </c>
       <c r="C377" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
@@ -6416,7 +6416,7 @@
         <v>371</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
@@ -6427,7 +6427,7 @@
         <v>372</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
@@ -6438,7 +6438,7 @@
         <v>373</v>
       </c>
       <c r="C380" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>374</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>375</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>376</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>377</v>
       </c>
       <c r="C384" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>378</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
@@ -6504,7 +6504,7 @@
         <v>379</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>380</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
@@ -6526,7 +6526,7 @@
         <v>381</v>
       </c>
       <c r="C388" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
@@ -6537,7 +6537,7 @@
         <v>382</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
@@ -6548,7 +6548,7 @@
         <v>382</v>
       </c>
       <c r="C390" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>383</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
@@ -6570,7 +6570,7 @@
         <v>384</v>
       </c>
       <c r="C392" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
@@ -6581,7 +6581,7 @@
         <v>385</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
@@ -6592,7 +6592,7 @@
         <v>386</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
@@ -6603,7 +6603,7 @@
         <v>387</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
@@ -6614,7 +6614,7 @@
         <v>388</v>
       </c>
       <c r="C396" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
@@ -6625,7 +6625,7 @@
         <v>389</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
@@ -6636,7 +6636,7 @@
         <v>390</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
@@ -6647,7 +6647,7 @@
         <v>391</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
@@ -6666,7 +6666,7 @@
         <v>393</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
@@ -6677,7 +6677,7 @@
         <v>394</v>
       </c>
       <c r="C403" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
@@ -6688,7 +6688,7 @@
         <v>395</v>
       </c>
       <c r="C404" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
@@ -6699,7 +6699,7 @@
         <v>92</v>
       </c>
       <c r="C405" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
@@ -6710,7 +6710,7 @@
         <v>396</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
@@ -6721,7 +6721,7 @@
         <v>397</v>
       </c>
       <c r="C407" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
@@ -6817,7 +6817,7 @@
         <v>278</v>
       </c>
       <c r="C417" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
@@ -6828,7 +6828,7 @@
         <v>406</v>
       </c>
       <c r="C418" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
@@ -6839,7 +6839,7 @@
         <v>407</v>
       </c>
       <c r="C419" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
@@ -6850,7 +6850,7 @@
         <v>408</v>
       </c>
       <c r="C420" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
@@ -6861,7 +6861,7 @@
         <v>409</v>
       </c>
       <c r="C421" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
@@ -6872,7 +6872,7 @@
         <v>410</v>
       </c>
       <c r="C422" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
@@ -6883,7 +6883,7 @@
         <v>411</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
@@ -6894,7 +6894,7 @@
         <v>412</v>
       </c>
       <c r="C424" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
@@ -6905,7 +6905,7 @@
         <v>413</v>
       </c>
       <c r="C425" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
@@ -6916,7 +6916,7 @@
         <v>414</v>
       </c>
       <c r="C426" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
@@ -6927,7 +6927,7 @@
         <v>415</v>
       </c>
       <c r="C427" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
@@ -6938,7 +6938,7 @@
         <v>416</v>
       </c>
       <c r="C428" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
@@ -6949,7 +6949,7 @@
         <v>417</v>
       </c>
       <c r="C429" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
@@ -6960,7 +6960,7 @@
         <v>418</v>
       </c>
       <c r="C430" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
@@ -6971,7 +6971,7 @@
         <v>419</v>
       </c>
       <c r="C431" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
@@ -6982,7 +6982,7 @@
         <v>420</v>
       </c>
       <c r="C432" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
@@ -6993,7 +6993,7 @@
         <v>421</v>
       </c>
       <c r="C433" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
@@ -7004,7 +7004,7 @@
         <v>422</v>
       </c>
       <c r="C434" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
@@ -7015,7 +7015,7 @@
         <v>423</v>
       </c>
       <c r="C435" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
@@ -7026,7 +7026,7 @@
         <v>424</v>
       </c>
       <c r="C436" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
@@ -7037,7 +7037,7 @@
         <v>425</v>
       </c>
       <c r="C437" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
@@ -7048,7 +7048,7 @@
         <v>17</v>
       </c>
       <c r="C438" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
@@ -7059,7 +7059,7 @@
         <v>426</v>
       </c>
       <c r="C439" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
@@ -7070,7 +7070,7 @@
         <v>427</v>
       </c>
       <c r="C440" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
@@ -7081,7 +7081,7 @@
         <v>428</v>
       </c>
       <c r="C441" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
@@ -7092,7 +7092,7 @@
         <v>429</v>
       </c>
       <c r="C442" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
@@ -7103,7 +7103,7 @@
         <v>430</v>
       </c>
       <c r="C443" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
@@ -7114,7 +7114,7 @@
         <v>431</v>
       </c>
       <c r="C444" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
@@ -7125,7 +7125,7 @@
         <v>432</v>
       </c>
       <c r="C445" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
@@ -7136,7 +7136,7 @@
         <v>433</v>
       </c>
       <c r="C446" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
@@ -7147,7 +7147,7 @@
         <v>434</v>
       </c>
       <c r="C447" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
@@ -7158,7 +7158,7 @@
         <v>435</v>
       </c>
       <c r="C448" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
@@ -7169,7 +7169,7 @@
         <v>436</v>
       </c>
       <c r="C449" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
@@ -7180,7 +7180,7 @@
         <v>437</v>
       </c>
       <c r="C450" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
@@ -7191,7 +7191,7 @@
         <v>438</v>
       </c>
       <c r="C451" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
@@ -7202,7 +7202,7 @@
         <v>439</v>
       </c>
       <c r="C452" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
@@ -7213,7 +7213,7 @@
         <v>440</v>
       </c>
       <c r="C453" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
@@ -7224,7 +7224,7 @@
         <v>441</v>
       </c>
       <c r="C454" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
@@ -7235,7 +7235,7 @@
         <v>442</v>
       </c>
       <c r="C455" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
@@ -7246,7 +7246,7 @@
         <v>443</v>
       </c>
       <c r="C456" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
@@ -7257,7 +7257,7 @@
         <v>444</v>
       </c>
       <c r="C457" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
@@ -7268,7 +7268,7 @@
         <v>445</v>
       </c>
       <c r="C458" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
@@ -7279,7 +7279,7 @@
         <v>446</v>
       </c>
       <c r="C459" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
@@ -7290,7 +7290,7 @@
         <v>447</v>
       </c>
       <c r="C460" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
@@ -7301,7 +7301,7 @@
         <v>448</v>
       </c>
       <c r="C461" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
@@ -7312,7 +7312,7 @@
         <v>449</v>
       </c>
       <c r="C462" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
@@ -7323,7 +7323,7 @@
         <v>450</v>
       </c>
       <c r="C463" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
@@ -7334,7 +7334,7 @@
         <v>451</v>
       </c>
       <c r="C464" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
@@ -7345,7 +7345,7 @@
         <v>452</v>
       </c>
       <c r="C465" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
@@ -7356,7 +7356,7 @@
         <v>453</v>
       </c>
       <c r="C466" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
@@ -7367,7 +7367,7 @@
         <v>454</v>
       </c>
       <c r="C467" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
@@ -7378,7 +7378,7 @@
         <v>455</v>
       </c>
       <c r="C468" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
@@ -7389,7 +7389,7 @@
         <v>456</v>
       </c>
       <c r="C469" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
@@ -7409,7 +7409,7 @@
         <v>458</v>
       </c>
       <c r="C472" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
@@ -7420,7 +7420,7 @@
         <v>459</v>
       </c>
       <c r="C473" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
@@ -7431,7 +7431,7 @@
         <v>460</v>
       </c>
       <c r="C474" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
@@ -7442,7 +7442,7 @@
         <v>461</v>
       </c>
       <c r="C475" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
@@ -7453,7 +7453,7 @@
         <v>462</v>
       </c>
       <c r="C476" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
@@ -7464,7 +7464,7 @@
         <v>463</v>
       </c>
       <c r="C477" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
@@ -7475,7 +7475,7 @@
         <v>464</v>
       </c>
       <c r="C478" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
@@ -7486,7 +7486,7 @@
         <v>465</v>
       </c>
       <c r="C479" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
@@ -7497,7 +7497,7 @@
         <v>466</v>
       </c>
       <c r="C480" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
@@ -7508,7 +7508,7 @@
         <v>467</v>
       </c>
       <c r="C481" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="23040" windowHeight="8892"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,13 +85,13 @@
     <t>Next Permutation</t>
   </si>
   <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Count Inversion</t>
-  </si>
-  <si>
-    <t>Best time to buy and Sell stock</t>
   </si>
   <si>
     <t>find all pairs on integer array whose sum is equal to given number</t>
@@ -1425,10 +1425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1502,6 +1502,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1509,9 +1517,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1521,6 +1535,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1539,6 +1568,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1547,33 +1591,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1593,30 +1615,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1630,16 +1638,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1660,7 +1660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,7 +1672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,13 +1690,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,13 +1714,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,43 +1744,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,7 +1786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,31 +1798,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,13 +1828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,6 +1845,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1873,21 +1893,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1911,15 +1916,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1935,159 +1931,163 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2441,7 +2441,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2638,8 +2638,8 @@
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>23</v>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
@@ -2647,10 +2647,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="9" t="s">
         <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:3">
@@ -2658,10 +2658,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
@@ -2672,7 +2672,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
@@ -2694,7 +2694,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
@@ -2705,7 +2705,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
@@ -2727,7 +2727,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
@@ -2738,7 +2738,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
@@ -2749,7 +2749,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
@@ -2760,7 +2760,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
@@ -2782,7 +2782,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
@@ -2793,7 +2793,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
@@ -2815,7 +2815,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
@@ -2848,7 +2848,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
@@ -2859,7 +2859,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
@@ -2870,20 +2870,20 @@
         <v>44</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="10"/>
       <c r="C42" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="10"/>
       <c r="C43" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>49</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>52</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>53</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
@@ -3009,7 +3009,7 @@
         <v>57</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
@@ -3020,7 +3020,7 @@
         <v>58</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>59</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
@@ -3042,7 +3042,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
@@ -3053,7 +3053,7 @@
         <v>61</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>62</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
@@ -3075,7 +3075,7 @@
         <v>63</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
@@ -3086,7 +3086,7 @@
         <v>64</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
@@ -3097,7 +3097,7 @@
         <v>65</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
@@ -3108,7 +3108,7 @@
         <v>66</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
@@ -3119,7 +3119,7 @@
         <v>67</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
@@ -3130,7 +3130,7 @@
         <v>68</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
@@ -3152,7 +3152,7 @@
         <v>70</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
@@ -3163,7 +3163,7 @@
         <v>71</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
@@ -3174,7 +3174,7 @@
         <v>72</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
@@ -3185,7 +3185,7 @@
         <v>73</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
@@ -3196,7 +3196,7 @@
         <v>74</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
@@ -3207,7 +3207,7 @@
         <v>75</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
@@ -3218,7 +3218,7 @@
         <v>76</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
@@ -3229,7 +3229,7 @@
         <v>77</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
@@ -3240,7 +3240,7 @@
         <v>78</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>79</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
@@ -3262,7 +3262,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
@@ -3273,7 +3273,7 @@
         <v>81</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
@@ -3284,7 +3284,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
@@ -3295,7 +3295,7 @@
         <v>83</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
@@ -3306,7 +3306,7 @@
         <v>84</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
@@ -3317,7 +3317,7 @@
         <v>85</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
@@ -3328,7 +3328,7 @@
         <v>86</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
@@ -3339,7 +3339,7 @@
         <v>87</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>88</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>89</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
@@ -3372,7 +3372,7 @@
         <v>90</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
@@ -3383,7 +3383,7 @@
         <v>91</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
@@ -3394,7 +3394,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
@@ -3405,7 +3405,7 @@
         <v>93</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
@@ -3416,7 +3416,7 @@
         <v>94</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
@@ -3427,7 +3427,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
@@ -3438,7 +3438,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
@@ -3449,7 +3449,7 @@
         <v>97</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>98</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
@@ -3471,7 +3471,7 @@
         <v>99</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>101</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
@@ -3498,7 +3498,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
@@ -3509,7 +3509,7 @@
         <v>103</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>104</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
@@ -3531,7 +3531,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
@@ -3553,7 +3553,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
@@ -3564,7 +3564,7 @@
         <v>108</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
@@ -3575,7 +3575,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
@@ -3597,7 +3597,7 @@
         <v>111</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
@@ -3608,7 +3608,7 @@
         <v>112</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
@@ -3619,7 +3619,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
@@ -3641,7 +3641,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
@@ -3652,7 +3652,7 @@
         <v>116</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
@@ -3663,7 +3663,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
@@ -3674,7 +3674,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
@@ -3685,7 +3685,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
@@ -3696,7 +3696,7 @@
         <v>120</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
@@ -3707,7 +3707,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
@@ -3718,7 +3718,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>123</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
@@ -3740,7 +3740,7 @@
         <v>124</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
@@ -3751,7 +3751,7 @@
         <v>125</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
@@ -3762,7 +3762,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
@@ -3773,7 +3773,7 @@
         <v>127</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
@@ -3784,7 +3784,7 @@
         <v>128</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
@@ -3795,7 +3795,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
@@ -3806,7 +3806,7 @@
         <v>130</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
@@ -3817,7 +3817,7 @@
         <v>131</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
@@ -3828,7 +3828,7 @@
         <v>132</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>133</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
@@ -3850,7 +3850,7 @@
         <v>134</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
@@ -3861,7 +3861,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
@@ -3872,7 +3872,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
@@ -3887,7 +3887,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
@@ -3898,7 +3898,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
@@ -3909,7 +3909,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
@@ -3920,7 +3920,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
@@ -3942,7 +3942,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
@@ -3953,7 +3953,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
@@ -3986,7 +3986,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
@@ -4008,7 +4008,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
@@ -4118,7 +4118,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
@@ -4162,7 +4162,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
@@ -4184,7 +4184,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
@@ -4195,7 +4195,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
@@ -4217,7 +4217,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
@@ -4261,7 +4261,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
@@ -4272,7 +4272,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
@@ -4463,7 +4463,7 @@
         <v>191</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
@@ -4507,7 +4507,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
@@ -4518,7 +4518,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
@@ -4529,7 +4529,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
@@ -4540,7 +4540,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
@@ -4551,7 +4551,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
@@ -4562,7 +4562,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
@@ -4573,7 +4573,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
@@ -4584,7 +4584,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
@@ -4595,7 +4595,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
@@ -4606,7 +4606,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
@@ -4617,7 +4617,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
@@ -4628,7 +4628,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
@@ -4639,7 +4639,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
@@ -4650,7 +4650,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
@@ -4661,7 +4661,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
@@ -4682,7 +4682,7 @@
         <v>212</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
@@ -4693,7 +4693,7 @@
         <v>213</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
@@ -4704,7 +4704,7 @@
         <v>214</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
@@ -4715,7 +4715,7 @@
         <v>215</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
@@ -4726,7 +4726,7 @@
         <v>216</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
@@ -4737,7 +4737,7 @@
         <v>217</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
@@ -4748,7 +4748,7 @@
         <v>218</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
@@ -4759,7 +4759,7 @@
         <v>219</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
@@ -4770,7 +4770,7 @@
         <v>220</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
@@ -4781,7 +4781,7 @@
         <v>221</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
@@ -4792,7 +4792,7 @@
         <v>222</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
@@ -4803,7 +4803,7 @@
         <v>223</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
@@ -4814,7 +4814,7 @@
         <v>224</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
@@ -4825,7 +4825,7 @@
         <v>225</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
@@ -4836,7 +4836,7 @@
         <v>226</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
@@ -4847,7 +4847,7 @@
         <v>227</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
@@ -4858,7 +4858,7 @@
         <v>228</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
@@ -4869,7 +4869,7 @@
         <v>229</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
@@ -4880,7 +4880,7 @@
         <v>230</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
@@ -4891,7 +4891,7 @@
         <v>231</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
@@ -4902,7 +4902,7 @@
         <v>232</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
@@ -4913,7 +4913,7 @@
         <v>233</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
@@ -4932,7 +4932,7 @@
         <v>235</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
@@ -4943,7 +4943,7 @@
         <v>236</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
@@ -4954,7 +4954,7 @@
         <v>237</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
@@ -4965,7 +4965,7 @@
         <v>238</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
@@ -4987,7 +4987,7 @@
         <v>241</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
@@ -4998,7 +4998,7 @@
         <v>242</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
@@ -5009,7 +5009,7 @@
         <v>243</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
@@ -5031,7 +5031,7 @@
         <v>245</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
@@ -5042,7 +5042,7 @@
         <v>246</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
@@ -5053,7 +5053,7 @@
         <v>247</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
@@ -5064,7 +5064,7 @@
         <v>248</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
@@ -5075,7 +5075,7 @@
         <v>249</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
@@ -5086,7 +5086,7 @@
         <v>250</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
@@ -5097,7 +5097,7 @@
         <v>251</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>252</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
@@ -5119,7 +5119,7 @@
         <v>253</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
@@ -5130,7 +5130,7 @@
         <v>254</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
@@ -5141,7 +5141,7 @@
         <v>255</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>256</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
@@ -5163,7 +5163,7 @@
         <v>257</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
@@ -5174,7 +5174,7 @@
         <v>258</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
@@ -5185,7 +5185,7 @@
         <v>259</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
@@ -5196,7 +5196,7 @@
         <v>260</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>261</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>262</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
@@ -5229,7 +5229,7 @@
         <v>263</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>264</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
@@ -5251,7 +5251,7 @@
         <v>265</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
@@ -5262,7 +5262,7 @@
         <v>266</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
@@ -5273,7 +5273,7 @@
         <v>267</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>268</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
@@ -5295,7 +5295,7 @@
         <v>90</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
@@ -5306,7 +5306,7 @@
         <v>269</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
@@ -5325,7 +5325,7 @@
         <v>271</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
@@ -5336,7 +5336,7 @@
         <v>272</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
@@ -5347,7 +5347,7 @@
         <v>273</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
@@ -5358,7 +5358,7 @@
         <v>274</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
@@ -5369,7 +5369,7 @@
         <v>275</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
@@ -5380,7 +5380,7 @@
         <v>276</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>277</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
@@ -5402,7 +5402,7 @@
         <v>278</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
@@ -5413,7 +5413,7 @@
         <v>279</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
@@ -5424,7 +5424,7 @@
         <v>280</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
@@ -5435,7 +5435,7 @@
         <v>281</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
@@ -5446,7 +5446,7 @@
         <v>282</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
@@ -5457,7 +5457,7 @@
         <v>283</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
@@ -5468,7 +5468,7 @@
         <v>284</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
@@ -5479,7 +5479,7 @@
         <v>285</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>286</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
@@ -5501,7 +5501,7 @@
         <v>287</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
@@ -5512,7 +5512,7 @@
         <v>288</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
@@ -5523,7 +5523,7 @@
         <v>289</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
@@ -5542,7 +5542,7 @@
         <v>291</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
@@ -5553,7 +5553,7 @@
         <v>292</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>293</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
@@ -5575,7 +5575,7 @@
         <v>294</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
@@ -5586,7 +5586,7 @@
         <v>295</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
@@ -5597,7 +5597,7 @@
         <v>296</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
@@ -5608,7 +5608,7 @@
         <v>297</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
@@ -5619,7 +5619,7 @@
         <v>298</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
@@ -5630,7 +5630,7 @@
         <v>299</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
@@ -5641,7 +5641,7 @@
         <v>300</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
@@ -5652,7 +5652,7 @@
         <v>301</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
@@ -5663,7 +5663,7 @@
         <v>302</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
@@ -5674,7 +5674,7 @@
         <v>303</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
@@ -5685,7 +5685,7 @@
         <v>304</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
@@ -5696,7 +5696,7 @@
         <v>305</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
@@ -5707,7 +5707,7 @@
         <v>306</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
@@ -5718,7 +5718,7 @@
         <v>307</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
@@ -5729,7 +5729,7 @@
         <v>308</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
@@ -5740,7 +5740,7 @@
         <v>309</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
@@ -5751,7 +5751,7 @@
         <v>310</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
@@ -5762,7 +5762,7 @@
         <v>311</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>312</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
@@ -5784,7 +5784,7 @@
         <v>313</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
@@ -5795,7 +5795,7 @@
         <v>314</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
@@ -5806,7 +5806,7 @@
         <v>315</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
@@ -5817,7 +5817,7 @@
         <v>316</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
@@ -5828,7 +5828,7 @@
         <v>317</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
@@ -5839,7 +5839,7 @@
         <v>318</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
@@ -5850,7 +5850,7 @@
         <v>319</v>
       </c>
       <c r="C324" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
@@ -5861,7 +5861,7 @@
         <v>320</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
@@ -5872,7 +5872,7 @@
         <v>321</v>
       </c>
       <c r="C326" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
@@ -5883,7 +5883,7 @@
         <v>322</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
@@ -5894,7 +5894,7 @@
         <v>323</v>
       </c>
       <c r="C328" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
@@ -5905,7 +5905,7 @@
         <v>324</v>
       </c>
       <c r="C329" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
@@ -5916,7 +5916,7 @@
         <v>325</v>
       </c>
       <c r="C330" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
@@ -5927,7 +5927,7 @@
         <v>326</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
@@ -5938,7 +5938,7 @@
         <v>327</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
@@ -5949,7 +5949,7 @@
         <v>328</v>
       </c>
       <c r="C333" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
@@ -5968,7 +5968,7 @@
         <v>330</v>
       </c>
       <c r="C336" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
@@ -5979,7 +5979,7 @@
         <v>331</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
@@ -5990,7 +5990,7 @@
         <v>332</v>
       </c>
       <c r="C338" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
@@ -6001,7 +6001,7 @@
         <v>333</v>
       </c>
       <c r="C339" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
@@ -6012,7 +6012,7 @@
         <v>334</v>
       </c>
       <c r="C340" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
@@ -6023,7 +6023,7 @@
         <v>335</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
@@ -6034,7 +6034,7 @@
         <v>336</v>
       </c>
       <c r="C342" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
@@ -6045,7 +6045,7 @@
         <v>337</v>
       </c>
       <c r="C343" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
@@ -6056,7 +6056,7 @@
         <v>338</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
@@ -6067,7 +6067,7 @@
         <v>339</v>
       </c>
       <c r="C345" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
@@ -6078,7 +6078,7 @@
         <v>340</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
@@ -6089,7 +6089,7 @@
         <v>341</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
@@ -6100,7 +6100,7 @@
         <v>342</v>
       </c>
       <c r="C348" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
@@ -6111,7 +6111,7 @@
         <v>343</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
@@ -6122,7 +6122,7 @@
         <v>344</v>
       </c>
       <c r="C350" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
@@ -6133,7 +6133,7 @@
         <v>345</v>
       </c>
       <c r="C351" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
@@ -6144,7 +6144,7 @@
         <v>346</v>
       </c>
       <c r="C352" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
@@ -6155,7 +6155,7 @@
         <v>347</v>
       </c>
       <c r="C353" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
@@ -6174,7 +6174,7 @@
         <v>349</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
@@ -6251,7 +6251,7 @@
         <v>356</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
@@ -6262,7 +6262,7 @@
         <v>357</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>358</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
@@ -6284,7 +6284,7 @@
         <v>359</v>
       </c>
       <c r="C366" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
@@ -6295,7 +6295,7 @@
         <v>360</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
@@ -6306,7 +6306,7 @@
         <v>361</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
@@ -6317,7 +6317,7 @@
         <v>362</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
@@ -6328,7 +6328,7 @@
         <v>363</v>
       </c>
       <c r="C370" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>364</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
@@ -6350,7 +6350,7 @@
         <v>365</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
@@ -6361,7 +6361,7 @@
         <v>366</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
@@ -6372,7 +6372,7 @@
         <v>367</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
@@ -6383,7 +6383,7 @@
         <v>368</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
@@ -6394,7 +6394,7 @@
         <v>369</v>
       </c>
       <c r="C376" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
@@ -6405,7 +6405,7 @@
         <v>370</v>
       </c>
       <c r="C377" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
@@ -6416,7 +6416,7 @@
         <v>371</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
@@ -6427,7 +6427,7 @@
         <v>372</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
@@ -6438,7 +6438,7 @@
         <v>373</v>
       </c>
       <c r="C380" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>374</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>375</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>376</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>377</v>
       </c>
       <c r="C384" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>378</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
@@ -6504,7 +6504,7 @@
         <v>379</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>380</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
@@ -6526,7 +6526,7 @@
         <v>381</v>
       </c>
       <c r="C388" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
@@ -6537,7 +6537,7 @@
         <v>382</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
@@ -6548,7 +6548,7 @@
         <v>382</v>
       </c>
       <c r="C390" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>383</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
@@ -6570,7 +6570,7 @@
         <v>384</v>
       </c>
       <c r="C392" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
@@ -6581,7 +6581,7 @@
         <v>385</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
@@ -6592,7 +6592,7 @@
         <v>386</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
@@ -6603,7 +6603,7 @@
         <v>387</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
@@ -6614,7 +6614,7 @@
         <v>388</v>
       </c>
       <c r="C396" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
@@ -6625,7 +6625,7 @@
         <v>389</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
@@ -6636,7 +6636,7 @@
         <v>390</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
@@ -6647,7 +6647,7 @@
         <v>391</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
@@ -6666,7 +6666,7 @@
         <v>393</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
@@ -6677,7 +6677,7 @@
         <v>394</v>
       </c>
       <c r="C403" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
@@ -6688,7 +6688,7 @@
         <v>395</v>
       </c>
       <c r="C404" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
@@ -6699,7 +6699,7 @@
         <v>92</v>
       </c>
       <c r="C405" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
@@ -6710,7 +6710,7 @@
         <v>396</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
@@ -6721,7 +6721,7 @@
         <v>397</v>
       </c>
       <c r="C407" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
@@ -6817,7 +6817,7 @@
         <v>278</v>
       </c>
       <c r="C417" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
@@ -6828,7 +6828,7 @@
         <v>406</v>
       </c>
       <c r="C418" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
@@ -6839,7 +6839,7 @@
         <v>407</v>
       </c>
       <c r="C419" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
@@ -6850,7 +6850,7 @@
         <v>408</v>
       </c>
       <c r="C420" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
@@ -6861,7 +6861,7 @@
         <v>409</v>
       </c>
       <c r="C421" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
@@ -6872,7 +6872,7 @@
         <v>410</v>
       </c>
       <c r="C422" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
@@ -6883,7 +6883,7 @@
         <v>411</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
@@ -6894,7 +6894,7 @@
         <v>412</v>
       </c>
       <c r="C424" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
@@ -6905,7 +6905,7 @@
         <v>413</v>
       </c>
       <c r="C425" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
@@ -6916,7 +6916,7 @@
         <v>414</v>
       </c>
       <c r="C426" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
@@ -6927,7 +6927,7 @@
         <v>415</v>
       </c>
       <c r="C427" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
@@ -6938,7 +6938,7 @@
         <v>416</v>
       </c>
       <c r="C428" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
@@ -6949,7 +6949,7 @@
         <v>417</v>
       </c>
       <c r="C429" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
@@ -6960,7 +6960,7 @@
         <v>418</v>
       </c>
       <c r="C430" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
@@ -6971,7 +6971,7 @@
         <v>419</v>
       </c>
       <c r="C431" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
@@ -6982,7 +6982,7 @@
         <v>420</v>
       </c>
       <c r="C432" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
@@ -6993,7 +6993,7 @@
         <v>421</v>
       </c>
       <c r="C433" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
@@ -7004,7 +7004,7 @@
         <v>422</v>
       </c>
       <c r="C434" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
@@ -7015,7 +7015,7 @@
         <v>423</v>
       </c>
       <c r="C435" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
@@ -7026,7 +7026,7 @@
         <v>424</v>
       </c>
       <c r="C436" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
@@ -7037,7 +7037,7 @@
         <v>425</v>
       </c>
       <c r="C437" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
@@ -7048,7 +7048,7 @@
         <v>17</v>
       </c>
       <c r="C438" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
@@ -7059,7 +7059,7 @@
         <v>426</v>
       </c>
       <c r="C439" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
@@ -7070,7 +7070,7 @@
         <v>427</v>
       </c>
       <c r="C440" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
@@ -7081,7 +7081,7 @@
         <v>428</v>
       </c>
       <c r="C441" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
@@ -7092,7 +7092,7 @@
         <v>429</v>
       </c>
       <c r="C442" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
@@ -7103,7 +7103,7 @@
         <v>430</v>
       </c>
       <c r="C443" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
@@ -7114,7 +7114,7 @@
         <v>431</v>
       </c>
       <c r="C444" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
@@ -7125,7 +7125,7 @@
         <v>432</v>
       </c>
       <c r="C445" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
@@ -7136,7 +7136,7 @@
         <v>433</v>
       </c>
       <c r="C446" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
@@ -7147,7 +7147,7 @@
         <v>434</v>
       </c>
       <c r="C447" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
@@ -7158,7 +7158,7 @@
         <v>435</v>
       </c>
       <c r="C448" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
@@ -7169,7 +7169,7 @@
         <v>436</v>
       </c>
       <c r="C449" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
@@ -7180,7 +7180,7 @@
         <v>437</v>
       </c>
       <c r="C450" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
@@ -7191,7 +7191,7 @@
         <v>438</v>
       </c>
       <c r="C451" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
@@ -7202,7 +7202,7 @@
         <v>439</v>
       </c>
       <c r="C452" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
@@ -7213,7 +7213,7 @@
         <v>440</v>
       </c>
       <c r="C453" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
@@ -7224,7 +7224,7 @@
         <v>441</v>
       </c>
       <c r="C454" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
@@ -7235,7 +7235,7 @@
         <v>442</v>
       </c>
       <c r="C455" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
@@ -7246,7 +7246,7 @@
         <v>443</v>
       </c>
       <c r="C456" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
@@ -7257,7 +7257,7 @@
         <v>444</v>
       </c>
       <c r="C457" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
@@ -7268,7 +7268,7 @@
         <v>445</v>
       </c>
       <c r="C458" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
@@ -7279,7 +7279,7 @@
         <v>446</v>
       </c>
       <c r="C459" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
@@ -7290,7 +7290,7 @@
         <v>447</v>
       </c>
       <c r="C460" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
@@ -7301,7 +7301,7 @@
         <v>448</v>
       </c>
       <c r="C461" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
@@ -7312,7 +7312,7 @@
         <v>449</v>
       </c>
       <c r="C462" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
@@ -7323,7 +7323,7 @@
         <v>450</v>
       </c>
       <c r="C463" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
@@ -7334,7 +7334,7 @@
         <v>451</v>
       </c>
       <c r="C464" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
@@ -7345,7 +7345,7 @@
         <v>452</v>
       </c>
       <c r="C465" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
@@ -7356,7 +7356,7 @@
         <v>453</v>
       </c>
       <c r="C466" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
@@ -7367,7 +7367,7 @@
         <v>454</v>
       </c>
       <c r="C467" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
@@ -7378,7 +7378,7 @@
         <v>455</v>
       </c>
       <c r="C468" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
@@ -7389,7 +7389,7 @@
         <v>456</v>
       </c>
       <c r="C469" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
@@ -7409,7 +7409,7 @@
         <v>458</v>
       </c>
       <c r="C472" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
@@ -7420,7 +7420,7 @@
         <v>459</v>
       </c>
       <c r="C473" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
@@ -7431,7 +7431,7 @@
         <v>460</v>
       </c>
       <c r="C474" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
@@ -7442,7 +7442,7 @@
         <v>461</v>
       </c>
       <c r="C475" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
@@ -7453,7 +7453,7 @@
         <v>462</v>
       </c>
       <c r="C476" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
@@ -7464,7 +7464,7 @@
         <v>463</v>
       </c>
       <c r="C477" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
@@ -7475,7 +7475,7 @@
         <v>464</v>
       </c>
       <c r="C478" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
@@ -7486,7 +7486,7 @@
         <v>465</v>
       </c>
       <c r="C479" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
@@ -7497,7 +7497,7 @@
         <v>466</v>
       </c>
       <c r="C480" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
@@ -7508,7 +7508,7 @@
         <v>467</v>
       </c>
       <c r="C481" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8892"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,10 @@
     <t>Best time to buy and Sell stock</t>
   </si>
   <si>
+    <t>find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>find all pairs on integer array whose sum is equal to given number</t>
   </si>
   <si>
     <t>find common elements In 3 sorted arrays</t>
@@ -1425,9 +1425,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -1502,14 +1502,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1518,14 +1510,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1539,22 +1524,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1568,8 +1538,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1588,6 +1559,20 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1615,16 +1600,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1639,7 +1624,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1660,97 +1660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,7 +1672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,7 +1690,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,7 +1720,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,19 +1744,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,13 +1774,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,22 +1848,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1892,21 +1917,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1916,178 +1926,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2441,7 +2441,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2660,8 +2660,8 @@
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>25</v>
+      <c r="C22" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
@@ -2669,10 +2669,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
@@ -2694,7 +2694,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
@@ -2705,7 +2705,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
@@ -2727,7 +2727,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
@@ -2738,7 +2738,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
@@ -2749,7 +2749,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
@@ -2760,7 +2760,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
@@ -2782,7 +2782,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
@@ -2793,7 +2793,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
@@ -2815,7 +2815,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
@@ -2848,7 +2848,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
@@ -2859,7 +2859,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
@@ -2870,20 +2870,20 @@
         <v>44</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="10"/>
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="10"/>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>49</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>52</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>53</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
@@ -3009,7 +3009,7 @@
         <v>57</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
@@ -3020,7 +3020,7 @@
         <v>58</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>59</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
@@ -3042,7 +3042,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
@@ -3053,7 +3053,7 @@
         <v>61</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>62</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
@@ -3075,7 +3075,7 @@
         <v>63</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
@@ -3086,7 +3086,7 @@
         <v>64</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
@@ -3097,7 +3097,7 @@
         <v>65</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
@@ -3108,7 +3108,7 @@
         <v>66</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
@@ -3119,7 +3119,7 @@
         <v>67</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
@@ -3130,7 +3130,7 @@
         <v>68</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
@@ -3152,7 +3152,7 @@
         <v>70</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
@@ -3163,7 +3163,7 @@
         <v>71</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
@@ -3174,7 +3174,7 @@
         <v>72</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
@@ -3185,7 +3185,7 @@
         <v>73</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
@@ -3196,7 +3196,7 @@
         <v>74</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
@@ -3207,7 +3207,7 @@
         <v>75</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
@@ -3218,7 +3218,7 @@
         <v>76</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
@@ -3229,7 +3229,7 @@
         <v>77</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
@@ -3240,7 +3240,7 @@
         <v>78</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>79</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
@@ -3262,7 +3262,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
@@ -3273,7 +3273,7 @@
         <v>81</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
@@ -3284,7 +3284,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
@@ -3295,7 +3295,7 @@
         <v>83</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
@@ -3306,7 +3306,7 @@
         <v>84</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
@@ -3317,7 +3317,7 @@
         <v>85</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
@@ -3328,7 +3328,7 @@
         <v>86</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
@@ -3339,7 +3339,7 @@
         <v>87</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>88</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>89</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
@@ -3372,7 +3372,7 @@
         <v>90</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
@@ -3383,7 +3383,7 @@
         <v>91</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
@@ -3394,7 +3394,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
@@ -3405,7 +3405,7 @@
         <v>93</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
@@ -3416,7 +3416,7 @@
         <v>94</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
@@ -3427,7 +3427,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
@@ -3438,7 +3438,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
@@ -3449,7 +3449,7 @@
         <v>97</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>98</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
@@ -3471,7 +3471,7 @@
         <v>99</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>101</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
@@ -3498,7 +3498,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
@@ -3509,7 +3509,7 @@
         <v>103</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>104</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
@@ -3531,7 +3531,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
@@ -3553,7 +3553,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
@@ -3564,7 +3564,7 @@
         <v>108</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
@@ -3575,7 +3575,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
@@ -3597,7 +3597,7 @@
         <v>111</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
@@ -3608,7 +3608,7 @@
         <v>112</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
@@ -3619,7 +3619,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
@@ -3641,7 +3641,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
@@ -3652,7 +3652,7 @@
         <v>116</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
@@ -3663,7 +3663,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
@@ -3674,7 +3674,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
@@ -3685,7 +3685,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
@@ -3696,7 +3696,7 @@
         <v>120</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
@@ -3707,7 +3707,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
@@ -3718,7 +3718,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>123</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
@@ -3740,7 +3740,7 @@
         <v>124</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
@@ -3751,7 +3751,7 @@
         <v>125</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
@@ -3762,7 +3762,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
@@ -3773,7 +3773,7 @@
         <v>127</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
@@ -3784,7 +3784,7 @@
         <v>128</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
@@ -3795,7 +3795,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
@@ -3806,7 +3806,7 @@
         <v>130</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
@@ -3817,7 +3817,7 @@
         <v>131</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
@@ -3828,7 +3828,7 @@
         <v>132</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>133</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
@@ -3850,7 +3850,7 @@
         <v>134</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
@@ -3861,7 +3861,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
@@ -3872,7 +3872,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
@@ -3887,7 +3887,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
@@ -3898,7 +3898,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
@@ -3909,7 +3909,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
@@ -3920,7 +3920,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
@@ -3942,7 +3942,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
@@ -3953,7 +3953,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
@@ -3986,7 +3986,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
@@ -4008,7 +4008,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
@@ -4118,7 +4118,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
@@ -4162,7 +4162,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
@@ -4184,7 +4184,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
@@ -4195,7 +4195,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
@@ -4217,7 +4217,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
@@ -4261,7 +4261,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
@@ -4272,7 +4272,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
@@ -4463,7 +4463,7 @@
         <v>191</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
@@ -4507,7 +4507,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
@@ -4518,7 +4518,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
@@ -4529,7 +4529,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
@@ -4540,7 +4540,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
@@ -4551,7 +4551,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
@@ -4562,7 +4562,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
@@ -4573,7 +4573,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
@@ -4584,7 +4584,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
@@ -4595,7 +4595,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
@@ -4606,7 +4606,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
@@ -4617,7 +4617,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
@@ -4628,7 +4628,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
@@ -4639,7 +4639,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
@@ -4650,7 +4650,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
@@ -4661,7 +4661,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
@@ -4682,7 +4682,7 @@
         <v>212</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
@@ -4693,7 +4693,7 @@
         <v>213</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
@@ -4704,7 +4704,7 @@
         <v>214</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
@@ -4715,7 +4715,7 @@
         <v>215</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
@@ -4726,7 +4726,7 @@
         <v>216</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
@@ -4737,7 +4737,7 @@
         <v>217</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
@@ -4748,7 +4748,7 @@
         <v>218</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
@@ -4759,7 +4759,7 @@
         <v>219</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
@@ -4770,7 +4770,7 @@
         <v>220</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
@@ -4781,7 +4781,7 @@
         <v>221</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
@@ -4792,7 +4792,7 @@
         <v>222</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
@@ -4803,7 +4803,7 @@
         <v>223</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
@@ -4814,7 +4814,7 @@
         <v>224</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
@@ -4825,7 +4825,7 @@
         <v>225</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
@@ -4836,7 +4836,7 @@
         <v>226</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
@@ -4847,7 +4847,7 @@
         <v>227</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
@@ -4858,7 +4858,7 @@
         <v>228</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
@@ -4869,7 +4869,7 @@
         <v>229</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
@@ -4880,7 +4880,7 @@
         <v>230</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
@@ -4891,7 +4891,7 @@
         <v>231</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
@@ -4902,7 +4902,7 @@
         <v>232</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
@@ -4913,7 +4913,7 @@
         <v>233</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
@@ -4932,7 +4932,7 @@
         <v>235</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
@@ -4943,7 +4943,7 @@
         <v>236</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
@@ -4954,7 +4954,7 @@
         <v>237</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
@@ -4965,7 +4965,7 @@
         <v>238</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
@@ -4987,7 +4987,7 @@
         <v>241</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
@@ -4998,7 +4998,7 @@
         <v>242</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
@@ -5009,7 +5009,7 @@
         <v>243</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
@@ -5031,7 +5031,7 @@
         <v>245</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
@@ -5042,7 +5042,7 @@
         <v>246</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
@@ -5053,7 +5053,7 @@
         <v>247</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
@@ -5064,7 +5064,7 @@
         <v>248</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
@@ -5075,7 +5075,7 @@
         <v>249</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
@@ -5086,7 +5086,7 @@
         <v>250</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
@@ -5097,7 +5097,7 @@
         <v>251</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>252</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
@@ -5119,7 +5119,7 @@
         <v>253</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
@@ -5130,7 +5130,7 @@
         <v>254</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
@@ -5141,7 +5141,7 @@
         <v>255</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>256</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
@@ -5163,7 +5163,7 @@
         <v>257</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
@@ -5174,7 +5174,7 @@
         <v>258</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
@@ -5185,7 +5185,7 @@
         <v>259</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
@@ -5196,7 +5196,7 @@
         <v>260</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>261</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>262</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
@@ -5229,7 +5229,7 @@
         <v>263</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>264</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
@@ -5251,7 +5251,7 @@
         <v>265</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
@@ -5262,7 +5262,7 @@
         <v>266</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
@@ -5273,7 +5273,7 @@
         <v>267</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>268</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
@@ -5295,7 +5295,7 @@
         <v>90</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
@@ -5306,7 +5306,7 @@
         <v>269</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
@@ -5325,7 +5325,7 @@
         <v>271</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
@@ -5336,7 +5336,7 @@
         <v>272</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
@@ -5347,7 +5347,7 @@
         <v>273</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
@@ -5358,7 +5358,7 @@
         <v>274</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
@@ -5369,7 +5369,7 @@
         <v>275</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
@@ -5380,7 +5380,7 @@
         <v>276</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>277</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
@@ -5402,7 +5402,7 @@
         <v>278</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
@@ -5413,7 +5413,7 @@
         <v>279</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
@@ -5424,7 +5424,7 @@
         <v>280</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
@@ -5435,7 +5435,7 @@
         <v>281</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
@@ -5446,7 +5446,7 @@
         <v>282</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
@@ -5457,7 +5457,7 @@
         <v>283</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
@@ -5468,7 +5468,7 @@
         <v>284</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
@@ -5479,7 +5479,7 @@
         <v>285</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>286</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
@@ -5501,7 +5501,7 @@
         <v>287</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
@@ -5512,7 +5512,7 @@
         <v>288</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
@@ -5523,7 +5523,7 @@
         <v>289</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
@@ -5542,7 +5542,7 @@
         <v>291</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
@@ -5553,7 +5553,7 @@
         <v>292</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>293</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
@@ -5575,7 +5575,7 @@
         <v>294</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
@@ -5586,7 +5586,7 @@
         <v>295</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
@@ -5597,7 +5597,7 @@
         <v>296</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
@@ -5608,7 +5608,7 @@
         <v>297</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
@@ -5619,7 +5619,7 @@
         <v>298</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
@@ -5630,7 +5630,7 @@
         <v>299</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
@@ -5641,7 +5641,7 @@
         <v>300</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
@@ -5652,7 +5652,7 @@
         <v>301</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
@@ -5663,7 +5663,7 @@
         <v>302</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
@@ -5674,7 +5674,7 @@
         <v>303</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
@@ -5685,7 +5685,7 @@
         <v>304</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
@@ -5696,7 +5696,7 @@
         <v>305</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
@@ -5707,7 +5707,7 @@
         <v>306</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
@@ -5718,7 +5718,7 @@
         <v>307</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
@@ -5729,7 +5729,7 @@
         <v>308</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
@@ -5740,7 +5740,7 @@
         <v>309</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
@@ -5751,7 +5751,7 @@
         <v>310</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
@@ -5762,7 +5762,7 @@
         <v>311</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>312</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
@@ -5784,7 +5784,7 @@
         <v>313</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
@@ -5795,7 +5795,7 @@
         <v>314</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
@@ -5806,7 +5806,7 @@
         <v>315</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
@@ -5817,7 +5817,7 @@
         <v>316</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
@@ -5828,7 +5828,7 @@
         <v>317</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
@@ -5839,7 +5839,7 @@
         <v>318</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
@@ -5850,7 +5850,7 @@
         <v>319</v>
       </c>
       <c r="C324" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
@@ -5861,7 +5861,7 @@
         <v>320</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
@@ -5872,7 +5872,7 @@
         <v>321</v>
       </c>
       <c r="C326" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
@@ -5883,7 +5883,7 @@
         <v>322</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
@@ -5894,7 +5894,7 @@
         <v>323</v>
       </c>
       <c r="C328" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
@@ -5905,7 +5905,7 @@
         <v>324</v>
       </c>
       <c r="C329" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
@@ -5916,7 +5916,7 @@
         <v>325</v>
       </c>
       <c r="C330" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
@@ -5927,7 +5927,7 @@
         <v>326</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
@@ -5938,7 +5938,7 @@
         <v>327</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
@@ -5949,7 +5949,7 @@
         <v>328</v>
       </c>
       <c r="C333" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
@@ -5968,7 +5968,7 @@
         <v>330</v>
       </c>
       <c r="C336" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
@@ -5979,7 +5979,7 @@
         <v>331</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
@@ -5990,7 +5990,7 @@
         <v>332</v>
       </c>
       <c r="C338" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
@@ -6001,7 +6001,7 @@
         <v>333</v>
       </c>
       <c r="C339" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
@@ -6012,7 +6012,7 @@
         <v>334</v>
       </c>
       <c r="C340" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
@@ -6023,7 +6023,7 @@
         <v>335</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
@@ -6034,7 +6034,7 @@
         <v>336</v>
       </c>
       <c r="C342" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
@@ -6045,7 +6045,7 @@
         <v>337</v>
       </c>
       <c r="C343" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
@@ -6056,7 +6056,7 @@
         <v>338</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
@@ -6067,7 +6067,7 @@
         <v>339</v>
       </c>
       <c r="C345" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
@@ -6078,7 +6078,7 @@
         <v>340</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
@@ -6089,7 +6089,7 @@
         <v>341</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
@@ -6100,7 +6100,7 @@
         <v>342</v>
       </c>
       <c r="C348" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
@@ -6111,7 +6111,7 @@
         <v>343</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
@@ -6122,7 +6122,7 @@
         <v>344</v>
       </c>
       <c r="C350" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
@@ -6133,7 +6133,7 @@
         <v>345</v>
       </c>
       <c r="C351" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
@@ -6144,7 +6144,7 @@
         <v>346</v>
       </c>
       <c r="C352" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
@@ -6155,7 +6155,7 @@
         <v>347</v>
       </c>
       <c r="C353" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
@@ -6174,7 +6174,7 @@
         <v>349</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
@@ -6251,7 +6251,7 @@
         <v>356</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
@@ -6262,7 +6262,7 @@
         <v>357</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>358</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
@@ -6284,7 +6284,7 @@
         <v>359</v>
       </c>
       <c r="C366" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
@@ -6295,7 +6295,7 @@
         <v>360</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
@@ -6306,7 +6306,7 @@
         <v>361</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
@@ -6317,7 +6317,7 @@
         <v>362</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
@@ -6328,7 +6328,7 @@
         <v>363</v>
       </c>
       <c r="C370" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>364</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
@@ -6350,7 +6350,7 @@
         <v>365</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
@@ -6361,7 +6361,7 @@
         <v>366</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
@@ -6372,7 +6372,7 @@
         <v>367</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
@@ -6383,7 +6383,7 @@
         <v>368</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
@@ -6394,7 +6394,7 @@
         <v>369</v>
       </c>
       <c r="C376" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
@@ -6405,7 +6405,7 @@
         <v>370</v>
       </c>
       <c r="C377" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
@@ -6416,7 +6416,7 @@
         <v>371</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
@@ -6427,7 +6427,7 @@
         <v>372</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
@@ -6438,7 +6438,7 @@
         <v>373</v>
       </c>
       <c r="C380" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>374</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>375</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>376</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>377</v>
       </c>
       <c r="C384" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>378</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
@@ -6504,7 +6504,7 @@
         <v>379</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>380</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
@@ -6526,7 +6526,7 @@
         <v>381</v>
       </c>
       <c r="C388" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
@@ -6537,7 +6537,7 @@
         <v>382</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
@@ -6548,7 +6548,7 @@
         <v>382</v>
       </c>
       <c r="C390" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>383</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
@@ -6570,7 +6570,7 @@
         <v>384</v>
       </c>
       <c r="C392" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
@@ -6581,7 +6581,7 @@
         <v>385</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
@@ -6592,7 +6592,7 @@
         <v>386</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
@@ -6603,7 +6603,7 @@
         <v>387</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
@@ -6614,7 +6614,7 @@
         <v>388</v>
       </c>
       <c r="C396" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
@@ -6625,7 +6625,7 @@
         <v>389</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
@@ -6636,7 +6636,7 @@
         <v>390</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
@@ -6647,7 +6647,7 @@
         <v>391</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
@@ -6666,7 +6666,7 @@
         <v>393</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
@@ -6677,7 +6677,7 @@
         <v>394</v>
       </c>
       <c r="C403" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
@@ -6688,7 +6688,7 @@
         <v>395</v>
       </c>
       <c r="C404" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
@@ -6699,7 +6699,7 @@
         <v>92</v>
       </c>
       <c r="C405" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
@@ -6710,7 +6710,7 @@
         <v>396</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
@@ -6721,7 +6721,7 @@
         <v>397</v>
       </c>
       <c r="C407" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
@@ -6817,7 +6817,7 @@
         <v>278</v>
       </c>
       <c r="C417" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
@@ -6828,7 +6828,7 @@
         <v>406</v>
       </c>
       <c r="C418" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
@@ -6839,7 +6839,7 @@
         <v>407</v>
       </c>
       <c r="C419" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
@@ -6850,7 +6850,7 @@
         <v>408</v>
       </c>
       <c r="C420" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
@@ -6861,7 +6861,7 @@
         <v>409</v>
       </c>
       <c r="C421" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
@@ -6872,7 +6872,7 @@
         <v>410</v>
       </c>
       <c r="C422" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
@@ -6883,7 +6883,7 @@
         <v>411</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
@@ -6894,7 +6894,7 @@
         <v>412</v>
       </c>
       <c r="C424" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
@@ -6905,7 +6905,7 @@
         <v>413</v>
       </c>
       <c r="C425" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
@@ -6916,7 +6916,7 @@
         <v>414</v>
       </c>
       <c r="C426" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
@@ -6927,7 +6927,7 @@
         <v>415</v>
       </c>
       <c r="C427" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
@@ -6938,7 +6938,7 @@
         <v>416</v>
       </c>
       <c r="C428" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
@@ -6949,7 +6949,7 @@
         <v>417</v>
       </c>
       <c r="C429" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
@@ -6960,7 +6960,7 @@
         <v>418</v>
       </c>
       <c r="C430" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
@@ -6971,7 +6971,7 @@
         <v>419</v>
       </c>
       <c r="C431" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
@@ -6982,7 +6982,7 @@
         <v>420</v>
       </c>
       <c r="C432" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
@@ -6993,7 +6993,7 @@
         <v>421</v>
       </c>
       <c r="C433" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
@@ -7004,7 +7004,7 @@
         <v>422</v>
       </c>
       <c r="C434" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
@@ -7015,7 +7015,7 @@
         <v>423</v>
       </c>
       <c r="C435" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
@@ -7026,7 +7026,7 @@
         <v>424</v>
       </c>
       <c r="C436" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
@@ -7037,7 +7037,7 @@
         <v>425</v>
       </c>
       <c r="C437" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
@@ -7048,7 +7048,7 @@
         <v>17</v>
       </c>
       <c r="C438" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
@@ -7059,7 +7059,7 @@
         <v>426</v>
       </c>
       <c r="C439" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
@@ -7070,7 +7070,7 @@
         <v>427</v>
       </c>
       <c r="C440" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
@@ -7081,7 +7081,7 @@
         <v>428</v>
       </c>
       <c r="C441" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
@@ -7092,7 +7092,7 @@
         <v>429</v>
       </c>
       <c r="C442" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
@@ -7103,7 +7103,7 @@
         <v>430</v>
       </c>
       <c r="C443" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
@@ -7114,7 +7114,7 @@
         <v>431</v>
       </c>
       <c r="C444" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
@@ -7125,7 +7125,7 @@
         <v>432</v>
       </c>
       <c r="C445" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
@@ -7136,7 +7136,7 @@
         <v>433</v>
       </c>
       <c r="C446" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
@@ -7147,7 +7147,7 @@
         <v>434</v>
       </c>
       <c r="C447" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
@@ -7158,7 +7158,7 @@
         <v>435</v>
       </c>
       <c r="C448" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
@@ -7169,7 +7169,7 @@
         <v>436</v>
       </c>
       <c r="C449" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
@@ -7180,7 +7180,7 @@
         <v>437</v>
       </c>
       <c r="C450" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
@@ -7191,7 +7191,7 @@
         <v>438</v>
       </c>
       <c r="C451" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
@@ -7202,7 +7202,7 @@
         <v>439</v>
       </c>
       <c r="C452" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
@@ -7213,7 +7213,7 @@
         <v>440</v>
       </c>
       <c r="C453" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
@@ -7224,7 +7224,7 @@
         <v>441</v>
       </c>
       <c r="C454" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
@@ -7235,7 +7235,7 @@
         <v>442</v>
       </c>
       <c r="C455" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
@@ -7246,7 +7246,7 @@
         <v>443</v>
       </c>
       <c r="C456" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
@@ -7257,7 +7257,7 @@
         <v>444</v>
       </c>
       <c r="C457" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
@@ -7268,7 +7268,7 @@
         <v>445</v>
       </c>
       <c r="C458" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
@@ -7279,7 +7279,7 @@
         <v>446</v>
       </c>
       <c r="C459" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
@@ -7290,7 +7290,7 @@
         <v>447</v>
       </c>
       <c r="C460" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
@@ -7301,7 +7301,7 @@
         <v>448</v>
       </c>
       <c r="C461" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
@@ -7312,7 +7312,7 @@
         <v>449</v>
       </c>
       <c r="C462" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
@@ -7323,7 +7323,7 @@
         <v>450</v>
       </c>
       <c r="C463" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
@@ -7334,7 +7334,7 @@
         <v>451</v>
       </c>
       <c r="C464" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
@@ -7345,7 +7345,7 @@
         <v>452</v>
       </c>
       <c r="C465" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
@@ -7356,7 +7356,7 @@
         <v>453</v>
       </c>
       <c r="C466" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
@@ -7367,7 +7367,7 @@
         <v>454</v>
       </c>
       <c r="C467" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
@@ -7378,7 +7378,7 @@
         <v>455</v>
       </c>
       <c r="C468" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
@@ -7389,7 +7389,7 @@
         <v>456</v>
       </c>
       <c r="C469" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
@@ -7409,7 +7409,7 @@
         <v>458</v>
       </c>
       <c r="C472" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
@@ -7420,7 +7420,7 @@
         <v>459</v>
       </c>
       <c r="C473" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
@@ -7431,7 +7431,7 @@
         <v>460</v>
       </c>
       <c r="C474" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
@@ -7442,7 +7442,7 @@
         <v>461</v>
       </c>
       <c r="C475" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
@@ -7453,7 +7453,7 @@
         <v>462</v>
       </c>
       <c r="C476" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
@@ -7464,7 +7464,7 @@
         <v>463</v>
       </c>
       <c r="C477" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
@@ -7475,7 +7475,7 @@
         <v>464</v>
       </c>
       <c r="C478" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
@@ -7486,7 +7486,7 @@
         <v>465</v>
       </c>
       <c r="C479" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
@@ -7497,7 +7497,7 @@
         <v>466</v>
       </c>
       <c r="C480" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
@@ -7508,7 +7508,7 @@
         <v>467</v>
       </c>
       <c r="C481" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -94,13 +94,13 @@
     <t>find all pairs on integer array whose sum is equal to given number</t>
   </si>
   <si>
+    <t>find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
   </si>
   <si>
     <t>Find if there is any subarray with sum equal to 0</t>
@@ -1425,9 +1425,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -1505,13 +1505,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1519,12 +1512,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1563,13 +1564,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1602,14 +1596,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1624,15 +1618,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1660,49 +1660,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,19 +1696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,7 +1708,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,19 +1756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,7 +1780,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,31 +1810,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,32 +1848,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1917,20 +1896,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1945,149 +1921,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2441,7 +2441,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2671,8 +2671,8 @@
       <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>26</v>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
@@ -2680,10 +2680,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="9" t="s">
         <v>26</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
@@ -2691,10 +2691,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
@@ -2705,7 +2705,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
@@ -2727,7 +2727,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
@@ -2738,7 +2738,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
@@ -2749,7 +2749,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
@@ -2760,7 +2760,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
@@ -2782,7 +2782,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
@@ -2793,7 +2793,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
@@ -2815,7 +2815,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
@@ -2848,7 +2848,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
@@ -2859,7 +2859,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
@@ -2870,20 +2870,20 @@
         <v>44</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="10"/>
       <c r="C42" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="10"/>
       <c r="C43" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>49</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>52</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>53</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
@@ -3009,7 +3009,7 @@
         <v>57</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
@@ -3020,7 +3020,7 @@
         <v>58</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>59</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
@@ -3042,7 +3042,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
@@ -3053,7 +3053,7 @@
         <v>61</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>62</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
@@ -3075,7 +3075,7 @@
         <v>63</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
@@ -3086,7 +3086,7 @@
         <v>64</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
@@ -3097,7 +3097,7 @@
         <v>65</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
@@ -3108,7 +3108,7 @@
         <v>66</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
@@ -3119,7 +3119,7 @@
         <v>67</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
@@ -3130,7 +3130,7 @@
         <v>68</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
@@ -3152,7 +3152,7 @@
         <v>70</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
@@ -3163,7 +3163,7 @@
         <v>71</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
@@ -3174,7 +3174,7 @@
         <v>72</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
@@ -3185,7 +3185,7 @@
         <v>73</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
@@ -3196,7 +3196,7 @@
         <v>74</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
@@ -3207,7 +3207,7 @@
         <v>75</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
@@ -3218,7 +3218,7 @@
         <v>76</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
@@ -3229,7 +3229,7 @@
         <v>77</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
@@ -3240,7 +3240,7 @@
         <v>78</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>79</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
@@ -3262,7 +3262,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
@@ -3273,7 +3273,7 @@
         <v>81</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
@@ -3284,7 +3284,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
@@ -3295,7 +3295,7 @@
         <v>83</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
@@ -3306,7 +3306,7 @@
         <v>84</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
@@ -3317,7 +3317,7 @@
         <v>85</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
@@ -3328,7 +3328,7 @@
         <v>86</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
@@ -3339,7 +3339,7 @@
         <v>87</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>88</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>89</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
@@ -3372,7 +3372,7 @@
         <v>90</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
@@ -3383,7 +3383,7 @@
         <v>91</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
@@ -3394,7 +3394,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
@@ -3405,7 +3405,7 @@
         <v>93</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
@@ -3416,7 +3416,7 @@
         <v>94</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
@@ -3427,7 +3427,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
@@ -3438,7 +3438,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
@@ -3449,7 +3449,7 @@
         <v>97</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>98</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
@@ -3471,7 +3471,7 @@
         <v>99</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>101</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
@@ -3498,7 +3498,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
@@ -3509,7 +3509,7 @@
         <v>103</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>104</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
@@ -3531,7 +3531,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
@@ -3553,7 +3553,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
@@ -3564,7 +3564,7 @@
         <v>108</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
@@ -3575,7 +3575,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
@@ -3597,7 +3597,7 @@
         <v>111</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
@@ -3608,7 +3608,7 @@
         <v>112</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
@@ -3619,7 +3619,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
@@ -3641,7 +3641,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
@@ -3652,7 +3652,7 @@
         <v>116</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
@@ -3663,7 +3663,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
@@ -3674,7 +3674,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
@@ -3685,7 +3685,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
@@ -3696,7 +3696,7 @@
         <v>120</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
@@ -3707,7 +3707,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
@@ -3718,7 +3718,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>123</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
@@ -3740,7 +3740,7 @@
         <v>124</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
@@ -3751,7 +3751,7 @@
         <v>125</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
@@ -3762,7 +3762,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
@@ -3773,7 +3773,7 @@
         <v>127</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
@@ -3784,7 +3784,7 @@
         <v>128</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
@@ -3795,7 +3795,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
@@ -3806,7 +3806,7 @@
         <v>130</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
@@ -3817,7 +3817,7 @@
         <v>131</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
@@ -3828,7 +3828,7 @@
         <v>132</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>133</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
@@ -3850,7 +3850,7 @@
         <v>134</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
@@ -3861,7 +3861,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
@@ -3872,7 +3872,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
@@ -3887,7 +3887,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
@@ -3898,7 +3898,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
@@ -3909,7 +3909,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
@@ -3920,7 +3920,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
@@ -3942,7 +3942,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
@@ -3953,7 +3953,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
@@ -3986,7 +3986,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
@@ -4008,7 +4008,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
@@ -4118,7 +4118,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
@@ -4162,7 +4162,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
@@ -4184,7 +4184,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
@@ -4195,7 +4195,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
@@ -4217,7 +4217,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
@@ -4261,7 +4261,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
@@ -4272,7 +4272,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
@@ -4463,7 +4463,7 @@
         <v>191</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
@@ -4507,7 +4507,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
@@ -4518,7 +4518,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
@@ -4529,7 +4529,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
@@ -4540,7 +4540,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
@@ -4551,7 +4551,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
@@ -4562,7 +4562,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
@@ -4573,7 +4573,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
@@ -4584,7 +4584,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
@@ -4595,7 +4595,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
@@ -4606,7 +4606,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
@@ -4617,7 +4617,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
@@ -4628,7 +4628,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
@@ -4639,7 +4639,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
@@ -4650,7 +4650,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
@@ -4661,7 +4661,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
@@ -4682,7 +4682,7 @@
         <v>212</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
@@ -4693,7 +4693,7 @@
         <v>213</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
@@ -4704,7 +4704,7 @@
         <v>214</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
@@ -4715,7 +4715,7 @@
         <v>215</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
@@ -4726,7 +4726,7 @@
         <v>216</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
@@ -4737,7 +4737,7 @@
         <v>217</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
@@ -4748,7 +4748,7 @@
         <v>218</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
@@ -4759,7 +4759,7 @@
         <v>219</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
@@ -4770,7 +4770,7 @@
         <v>220</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
@@ -4781,7 +4781,7 @@
         <v>221</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
@@ -4792,7 +4792,7 @@
         <v>222</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
@@ -4803,7 +4803,7 @@
         <v>223</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
@@ -4814,7 +4814,7 @@
         <v>224</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
@@ -4825,7 +4825,7 @@
         <v>225</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
@@ -4836,7 +4836,7 @@
         <v>226</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
@@ -4847,7 +4847,7 @@
         <v>227</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
@@ -4858,7 +4858,7 @@
         <v>228</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
@@ -4869,7 +4869,7 @@
         <v>229</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
@@ -4880,7 +4880,7 @@
         <v>230</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
@@ -4891,7 +4891,7 @@
         <v>231</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
@@ -4902,7 +4902,7 @@
         <v>232</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
@@ -4913,7 +4913,7 @@
         <v>233</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
@@ -4932,7 +4932,7 @@
         <v>235</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
@@ -4943,7 +4943,7 @@
         <v>236</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
@@ -4954,7 +4954,7 @@
         <v>237</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
@@ -4965,7 +4965,7 @@
         <v>238</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
@@ -4987,7 +4987,7 @@
         <v>241</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
@@ -4998,7 +4998,7 @@
         <v>242</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
@@ -5009,7 +5009,7 @@
         <v>243</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
@@ -5031,7 +5031,7 @@
         <v>245</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
@@ -5042,7 +5042,7 @@
         <v>246</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
@@ -5053,7 +5053,7 @@
         <v>247</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
@@ -5064,7 +5064,7 @@
         <v>248</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
@@ -5075,7 +5075,7 @@
         <v>249</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
@@ -5086,7 +5086,7 @@
         <v>250</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
@@ -5097,7 +5097,7 @@
         <v>251</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>252</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
@@ -5119,7 +5119,7 @@
         <v>253</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
@@ -5130,7 +5130,7 @@
         <v>254</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
@@ -5141,7 +5141,7 @@
         <v>255</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>256</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
@@ -5163,7 +5163,7 @@
         <v>257</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
@@ -5174,7 +5174,7 @@
         <v>258</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
@@ -5185,7 +5185,7 @@
         <v>259</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
@@ -5196,7 +5196,7 @@
         <v>260</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>261</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>262</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
@@ -5229,7 +5229,7 @@
         <v>263</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>264</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
@@ -5251,7 +5251,7 @@
         <v>265</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
@@ -5262,7 +5262,7 @@
         <v>266</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
@@ -5273,7 +5273,7 @@
         <v>267</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>268</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
@@ -5295,7 +5295,7 @@
         <v>90</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
@@ -5306,7 +5306,7 @@
         <v>269</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
@@ -5325,7 +5325,7 @@
         <v>271</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
@@ -5336,7 +5336,7 @@
         <v>272</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
@@ -5347,7 +5347,7 @@
         <v>273</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
@@ -5358,7 +5358,7 @@
         <v>274</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
@@ -5369,7 +5369,7 @@
         <v>275</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
@@ -5380,7 +5380,7 @@
         <v>276</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>277</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
@@ -5402,7 +5402,7 @@
         <v>278</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
@@ -5413,7 +5413,7 @@
         <v>279</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
@@ -5424,7 +5424,7 @@
         <v>280</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
@@ -5435,7 +5435,7 @@
         <v>281</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
@@ -5446,7 +5446,7 @@
         <v>282</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
@@ -5457,7 +5457,7 @@
         <v>283</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
@@ -5468,7 +5468,7 @@
         <v>284</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
@@ -5479,7 +5479,7 @@
         <v>285</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>286</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
@@ -5501,7 +5501,7 @@
         <v>287</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
@@ -5512,7 +5512,7 @@
         <v>288</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
@@ -5523,7 +5523,7 @@
         <v>289</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
@@ -5542,7 +5542,7 @@
         <v>291</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
@@ -5553,7 +5553,7 @@
         <v>292</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>293</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
@@ -5575,7 +5575,7 @@
         <v>294</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
@@ -5586,7 +5586,7 @@
         <v>295</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
@@ -5597,7 +5597,7 @@
         <v>296</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
@@ -5608,7 +5608,7 @@
         <v>297</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
@@ -5619,7 +5619,7 @@
         <v>298</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
@@ -5630,7 +5630,7 @@
         <v>299</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
@@ -5641,7 +5641,7 @@
         <v>300</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
@@ -5652,7 +5652,7 @@
         <v>301</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
@@ -5663,7 +5663,7 @@
         <v>302</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
@@ -5674,7 +5674,7 @@
         <v>303</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
@@ -5685,7 +5685,7 @@
         <v>304</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
@@ -5696,7 +5696,7 @@
         <v>305</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
@@ -5707,7 +5707,7 @@
         <v>306</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
@@ -5718,7 +5718,7 @@
         <v>307</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
@@ -5729,7 +5729,7 @@
         <v>308</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
@@ -5740,7 +5740,7 @@
         <v>309</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
@@ -5751,7 +5751,7 @@
         <v>310</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
@@ -5762,7 +5762,7 @@
         <v>311</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>312</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
@@ -5784,7 +5784,7 @@
         <v>313</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
@@ -5795,7 +5795,7 @@
         <v>314</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
@@ -5806,7 +5806,7 @@
         <v>315</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
@@ -5817,7 +5817,7 @@
         <v>316</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
@@ -5828,7 +5828,7 @@
         <v>317</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
@@ -5839,7 +5839,7 @@
         <v>318</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
@@ -5850,7 +5850,7 @@
         <v>319</v>
       </c>
       <c r="C324" s="9" t="s">
-        <v>26</v>
